--- a/data/electricity_clean.xlsx
+++ b/data/electricity_clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robyn/PycharmProjects/bdc/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robyn/PycharmProjects/cfg-big-data-challenge/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B164F6-7E78-734F-AB96-ABA5B08C9762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E4FA8F-B794-F145-AC4E-6652E3A8686D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23300" yWindow="460" windowWidth="15100" windowHeight="19540" firstSheet="17" activeTab="19" xr2:uid="{D3D9E6EF-7CDD-2D4C-979A-3E58E75DD25C}"/>
+    <workbookView xWindow="23300" yWindow="460" windowWidth="15100" windowHeight="19540" xr2:uid="{D3D9E6EF-7CDD-2D4C-979A-3E58E75DD25C}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="81">
   <si>
     <t>coal</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Timescale</t>
   </si>
   <si>
-    <t>Supply</t>
-  </si>
-  <si>
     <t xml:space="preserve">Electricity available (TWh) in the distribution system from all UK generation, imports and other sources. </t>
   </si>
   <si>
@@ -266,9 +263,6 @@
   </si>
   <si>
     <t>Monthly</t>
-  </si>
-  <si>
-    <t>Demand</t>
   </si>
   <si>
     <t>Electricity sold (TWh)</t>
@@ -305,6 +299,9 @@
   </si>
   <si>
     <t>renewable</t>
+  </si>
+  <si>
+    <t>Annually</t>
   </si>
 </sst>
 </file>
@@ -524,10 +521,10 @@
       <sheetName val="Calculation"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="4">
           <cell r="C4" t="str">
@@ -2862,8 +2859,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3166,195 +3163,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFC29EB-9B4F-DD45-814A-1F378276BC8C}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="90.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>12</v>
       </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="D2">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1.2</v>
       </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
+        <v>65</v>
+      </c>
+      <c r="D3">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1.3</v>
       </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
       <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
+        <v>65</v>
+      </c>
+      <c r="D4">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2.1</v>
       </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
+        <v>65</v>
+      </c>
+      <c r="D5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2.2000000000000002</v>
       </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6">
+        <v>65</v>
+      </c>
+      <c r="D6">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>2.2999999999999998</v>
       </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
+        <v>65</v>
+      </c>
+      <c r="D7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>3.1</v>
       </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
       <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8">
+        <v>65</v>
+      </c>
+      <c r="D8">
         <v>5.2</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>3.2</v>
       </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
       <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9">
+        <v>65</v>
+      </c>
+      <c r="D9">
         <v>5.2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>3.3</v>
       </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
       <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10">
+        <v>65</v>
+      </c>
+      <c r="D10">
         <v>5.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>3.4</v>
       </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
       <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11">
+        <v>65</v>
+      </c>
+      <c r="D11">
         <v>5.2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>4.0999999999999996</v>
       </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
       <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12">
+        <v>80</v>
+      </c>
+      <c r="D12">
         <v>5.3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>4.2</v>
       </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
       <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13">
+        <v>65</v>
+      </c>
+      <c r="D13">
         <v>5.3</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>4.3</v>
       </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
       <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14">
+        <v>67</v>
+      </c>
+      <c r="D14">
         <v>5.3</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>5.0999999999999996</v>
       </c>
@@ -3364,17 +3400,14 @@
       <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>5.5</v>
+      </c>
+      <c r="E15" t="s">
         <v>66</v>
       </c>
-      <c r="E15">
-        <v>5.5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>5.2</v>
       </c>
@@ -3382,53 +3415,44 @@
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16">
+        <v>67</v>
+      </c>
+      <c r="D16">
         <v>5.5</v>
       </c>
-      <c r="F16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>6.1</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17">
+        <v>65</v>
+      </c>
+      <c r="D17">
         <v>5.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>6.2</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18">
+        <v>67</v>
+      </c>
+      <c r="D18">
         <v>5.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>7.1</v>
       </c>
@@ -3436,19 +3460,16 @@
         <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19">
+        <v>65</v>
+      </c>
+      <c r="D19">
         <v>5.5</v>
       </c>
-      <c r="F19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>7.2</v>
       </c>
@@ -3456,83 +3477,68 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20">
+        <v>67</v>
+      </c>
+      <c r="D20">
         <v>5.5</v>
       </c>
-      <c r="F20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>8.1</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21">
+        <v>65</v>
+      </c>
+      <c r="D21">
         <v>5.4</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>8.1999999999999993</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22">
+        <v>67</v>
+      </c>
+      <c r="D22">
         <v>5.4</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>9.1</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23">
+        <v>65</v>
+      </c>
+      <c r="D23">
         <v>5.4</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>9.1999999999999993</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24">
+        <v>67</v>
+      </c>
+      <c r="D24">
         <v>5.4</v>
       </c>
     </row>
@@ -24254,7 +24260,7 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -25407,7 +25413,7 @@
         <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -28804,7 +28810,7 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -29957,7 +29963,7 @@
         <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -33356,13 +33362,13 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
         <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -35109,7 +35115,7 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -38818,8 +38824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970DEB5E-50F3-5446-8CFE-E566FCB56113}">
   <dimension ref="A1:E307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B33" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -38839,13 +38845,13 @@
         <v>62</v>
       </c>
       <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
         <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -44079,10 +44085,10 @@
         <v>11</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -45428,10 +45434,10 @@
         <v>62</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/data/electricity_clean.xlsx
+++ b/data/electricity_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robyn/PycharmProjects/cfg-big-data-challenge/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E4FA8F-B794-F145-AC4E-6652E3A8686D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19B2C5C-5C95-DD44-A982-C6874CA4AD7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23300" yWindow="460" windowWidth="15100" windowHeight="19540" xr2:uid="{D3D9E6EF-7CDD-2D4C-979A-3E58E75DD25C}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="82">
   <si>
     <t>coal</t>
   </si>
@@ -295,13 +295,16 @@
     <t>electricity_sold_other</t>
   </si>
   <si>
-    <t>non-renewable</t>
+    <t>Annually</t>
   </si>
   <si>
-    <t>renewable</t>
+    <t>This is actually fossil vs non-fossil fuels as nuclear is included in renewable but it isn't technically classed as renewable energy</t>
   </si>
   <si>
-    <t>Annually</t>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>non-fossil</t>
   </si>
 </sst>
 </file>
@@ -3166,7 +3169,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3174,6 +3177,7 @@
     <col min="2" max="2" width="90.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="188.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3353,7 +3357,7 @@
         <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12">
         <v>5.3</v>
@@ -3499,6 +3503,9 @@
       <c r="D21">
         <v>5.4</v>
       </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
@@ -3512,6 +3519,9 @@
       </c>
       <c r="D22">
         <v>5.4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5915,7 +5925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB00411D-A5C1-2242-9AA1-61BE32DAD4AB}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -44066,7 +44076,7 @@
   <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -44085,10 +44095,10 @@
         <v>11</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -45417,7 +45427,7 @@
   <dimension ref="A1:D283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -45434,10 +45444,10 @@
         <v>62</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/data/electricity_clean.xlsx
+++ b/data/electricity_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robyn/PycharmProjects/cfg-big-data-challenge/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19B2C5C-5C95-DD44-A982-C6874CA4AD7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED2EA7F-E241-6243-BB5B-360BF0F183ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23300" yWindow="460" windowWidth="15100" windowHeight="19540" xr2:uid="{D3D9E6EF-7CDD-2D4C-979A-3E58E75DD25C}"/>
   </bookViews>
@@ -29,17 +29,18 @@
     <sheet name="4.3" sheetId="11" r:id="rId14"/>
     <sheet name="5.1" sheetId="18" r:id="rId15"/>
     <sheet name="5.2" sheetId="19" r:id="rId16"/>
-    <sheet name="6.1" sheetId="20" r:id="rId17"/>
-    <sheet name="6.2" sheetId="21" r:id="rId18"/>
-    <sheet name="7.1" sheetId="22" r:id="rId19"/>
-    <sheet name="7.2" sheetId="23" r:id="rId20"/>
-    <sheet name="8.1" sheetId="24" r:id="rId21"/>
-    <sheet name="8.2" sheetId="25" r:id="rId22"/>
-    <sheet name="9.1" sheetId="26" r:id="rId23"/>
-    <sheet name="9.2" sheetId="27" r:id="rId24"/>
+    <sheet name="6.0" sheetId="28" r:id="rId17"/>
+    <sheet name="6.1" sheetId="20" r:id="rId18"/>
+    <sheet name="6.2" sheetId="21" r:id="rId19"/>
+    <sheet name="7.1" sheetId="22" r:id="rId20"/>
+    <sheet name="7.2" sheetId="23" r:id="rId21"/>
+    <sheet name="8.1" sheetId="24" r:id="rId22"/>
+    <sheet name="8.2" sheetId="25" r:id="rId23"/>
+    <sheet name="9.1" sheetId="26" r:id="rId24"/>
+    <sheet name="9.2" sheetId="27" r:id="rId25"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="83">
   <si>
     <t>coal</t>
   </si>
@@ -306,6 +307,9 @@
   <si>
     <t>non-fossil</t>
   </si>
+  <si>
+    <t>6.0</t>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -492,6 +496,17 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3166,10 +3181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFC29EB-9B4F-DD45-814A-1F378276BC8C}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3429,14 +3444,14 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
-        <v>6.1</v>
+      <c r="A17" s="64" t="s">
+        <v>82</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D17">
         <v>5.5</v>
@@ -3444,13 +3459,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18">
         <v>5.5</v>
@@ -3458,30 +3473,27 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19">
         <v>5.5</v>
       </c>
-      <c r="E19" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="B20" t="s">
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D20">
         <v>5.5</v>
@@ -3492,30 +3504,30 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22">
         <v>5.4</v>
@@ -3526,29 +3538,46 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>9.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23">
         <v>5.4</v>
       </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>9.1999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
       </c>
       <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
         <v>67</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>5.4</v>
       </c>
     </row>
@@ -28798,11 +28827,236 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABF353D-8AD9-DF40-A1E6-54D7BDDFBFA4}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="34"/>
+    <col min="2" max="16384" width="10.83203125" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="67">
+        <v>1995</v>
+      </c>
+      <c r="B2" s="66">
+        <v>287.59000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="67">
+        <v>1996</v>
+      </c>
+      <c r="B3" s="66">
+        <v>301.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="67">
+        <v>1997</v>
+      </c>
+      <c r="B4" s="66">
+        <v>301.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="67">
+        <v>1998</v>
+      </c>
+      <c r="B5" s="66">
+        <v>303.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="67">
+        <v>1999</v>
+      </c>
+      <c r="B6" s="66">
+        <v>308.35500000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="67">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="66">
+        <v>314.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="68">
+        <v>2001</v>
+      </c>
+      <c r="B8" s="66">
+        <v>321.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="67">
+        <v>2002</v>
+      </c>
+      <c r="B9" s="66">
+        <v>319.80999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="67">
+        <v>2003</v>
+      </c>
+      <c r="B10" s="66">
+        <v>324.33999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="67">
+        <v>2004</v>
+      </c>
+      <c r="B11" s="66">
+        <v>323.71488301090005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="67">
+        <v>2005</v>
+      </c>
+      <c r="B12" s="66">
+        <v>331.2728558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="67">
+        <v>2006</v>
+      </c>
+      <c r="B13" s="66">
+        <v>329.23058249425958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="67">
+        <v>2007</v>
+      </c>
+      <c r="B14" s="66">
+        <v>330.24474030012391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="67">
+        <v>2008</v>
+      </c>
+      <c r="B15" s="66">
+        <v>331.87010884212827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="67">
+        <v>2009</v>
+      </c>
+      <c r="B16" s="66">
+        <v>313.78425735470267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="67">
+        <v>2010</v>
+      </c>
+      <c r="B17" s="66">
+        <v>319.919497854714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="67">
+        <v>2011</v>
+      </c>
+      <c r="B18" s="66">
+        <v>308.03290171570808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="67">
+        <v>2012</v>
+      </c>
+      <c r="B19" s="66">
+        <v>308.40831891504604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="67">
+        <v>2013</v>
+      </c>
+      <c r="B20" s="66">
+        <v>306.74748488205478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="67">
+        <v>2014</v>
+      </c>
+      <c r="B21" s="66">
+        <v>291.15337043483248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="67">
+        <v>2015</v>
+      </c>
+      <c r="B22" s="66">
+        <v>290.03863161371856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="67">
+        <v>2016</v>
+      </c>
+      <c r="B23" s="66">
+        <v>288.33079786993949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="67">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="66">
+        <v>281.01695674641178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="67">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="66">
+        <v>282.40191695209126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="67">
+        <v>2019</v>
+      </c>
+      <c r="B26" s="66">
+        <v>276.82703434746929</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC3313D-892F-6149-9F5B-A77DC5B9AB96}">
   <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29950,7 +30204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4842CA9C-7616-974D-BFEF-DC0BF5E62291}">
   <dimension ref="A1:C307"/>
   <sheetViews>
@@ -33340,1779 +33594,6 @@
       </c>
       <c r="C307" s="57">
         <v>18.775377961986806</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF36D3B-3250-9249-8D26-414C9F6C044F}">
-  <dimension ref="A1:E103"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="13">
-        <v>1995</v>
-      </c>
-      <c r="B2" s="29">
-        <v>1</v>
-      </c>
-      <c r="C2" s="52">
-        <v>25</v>
-      </c>
-      <c r="D2" s="52">
-        <v>31.909999999999997</v>
-      </c>
-      <c r="E2" s="52">
-        <v>24.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="13">
-        <v>1995</v>
-      </c>
-      <c r="B3" s="29">
-        <v>2</v>
-      </c>
-      <c r="C3" s="52">
-        <v>23.28</v>
-      </c>
-      <c r="D3" s="52">
-        <v>21.86</v>
-      </c>
-      <c r="E3" s="52">
-        <v>20.96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="13">
-        <v>1995</v>
-      </c>
-      <c r="B4" s="29">
-        <v>3</v>
-      </c>
-      <c r="C4" s="52">
-        <v>23.53</v>
-      </c>
-      <c r="D4" s="52">
-        <v>19.18</v>
-      </c>
-      <c r="E4" s="52">
-        <v>20.98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="13">
-        <v>1995</v>
-      </c>
-      <c r="B5" s="29">
-        <v>4</v>
-      </c>
-      <c r="C5" s="52">
-        <v>23.7</v>
-      </c>
-      <c r="D5" s="52">
-        <v>29.28</v>
-      </c>
-      <c r="E5" s="52">
-        <v>23.89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="13">
-        <v>1996</v>
-      </c>
-      <c r="B6" s="29">
-        <v>1</v>
-      </c>
-      <c r="C6" s="52">
-        <v>26.439999999999998</v>
-      </c>
-      <c r="D6" s="52">
-        <v>33.9</v>
-      </c>
-      <c r="E6" s="52">
-        <v>25.339999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="13">
-        <v>1996</v>
-      </c>
-      <c r="B7" s="29">
-        <v>2</v>
-      </c>
-      <c r="C7" s="52">
-        <v>23.86</v>
-      </c>
-      <c r="D7" s="52">
-        <v>22.93</v>
-      </c>
-      <c r="E7" s="52">
-        <v>21.57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="13">
-        <v>1996</v>
-      </c>
-      <c r="B8" s="29">
-        <v>3</v>
-      </c>
-      <c r="C8" s="52">
-        <v>24.660000000000004</v>
-      </c>
-      <c r="D8" s="52">
-        <v>20.11</v>
-      </c>
-      <c r="E8" s="52">
-        <v>21.46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="13">
-        <v>1996</v>
-      </c>
-      <c r="B9" s="29">
-        <v>4</v>
-      </c>
-      <c r="C9" s="52">
-        <v>25.310000000000002</v>
-      </c>
-      <c r="D9" s="52">
-        <v>30.549999999999997</v>
-      </c>
-      <c r="E9" s="52">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="13">
-        <v>1997</v>
-      </c>
-      <c r="B10" s="29">
-        <v>1</v>
-      </c>
-      <c r="C10" s="52">
-        <v>25.549999999999997</v>
-      </c>
-      <c r="D10" s="52">
-        <v>31.53</v>
-      </c>
-      <c r="E10" s="52">
-        <v>26.87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="13">
-        <v>1997</v>
-      </c>
-      <c r="B11" s="29">
-        <v>2</v>
-      </c>
-      <c r="C11" s="52">
-        <v>23.98</v>
-      </c>
-      <c r="D11" s="52">
-        <v>22.33</v>
-      </c>
-      <c r="E11" s="52">
-        <v>22.48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="13">
-        <v>1997</v>
-      </c>
-      <c r="B12" s="29">
-        <v>3</v>
-      </c>
-      <c r="C12" s="52">
-        <v>24.47</v>
-      </c>
-      <c r="D12" s="52">
-        <v>20.29</v>
-      </c>
-      <c r="E12" s="52">
-        <v>22.439999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="13">
-        <v>1997</v>
-      </c>
-      <c r="B13" s="29">
-        <v>4</v>
-      </c>
-      <c r="C13" s="52">
-        <v>25.03</v>
-      </c>
-      <c r="D13" s="52">
-        <v>30.3</v>
-      </c>
-      <c r="E13" s="52">
-        <v>25.97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="13">
-        <v>1998</v>
-      </c>
-      <c r="B14" s="29">
-        <v>1</v>
-      </c>
-      <c r="C14" s="52">
-        <v>25.97</v>
-      </c>
-      <c r="D14" s="52">
-        <v>32.35</v>
-      </c>
-      <c r="E14" s="52">
-        <v>25.619999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="13">
-        <v>1998</v>
-      </c>
-      <c r="B15" s="29">
-        <v>2</v>
-      </c>
-      <c r="C15" s="52">
-        <v>23.96</v>
-      </c>
-      <c r="D15" s="52">
-        <v>24.36</v>
-      </c>
-      <c r="E15" s="52">
-        <v>22.509999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="13">
-        <v>1998</v>
-      </c>
-      <c r="B16" s="29">
-        <v>3</v>
-      </c>
-      <c r="C16" s="52">
-        <v>23.4</v>
-      </c>
-      <c r="D16" s="52">
-        <v>21.16</v>
-      </c>
-      <c r="E16" s="52">
-        <v>22.15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="13">
-        <v>1998</v>
-      </c>
-      <c r="B17" s="29">
-        <v>4</v>
-      </c>
-      <c r="C17" s="52">
-        <v>24.13</v>
-      </c>
-      <c r="D17" s="52">
-        <v>31.540000000000003</v>
-      </c>
-      <c r="E17" s="52">
-        <v>26.33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="13">
-        <v>1999</v>
-      </c>
-      <c r="B18" s="29">
-        <v>1</v>
-      </c>
-      <c r="C18" s="52">
-        <v>26.439999999999998</v>
-      </c>
-      <c r="D18" s="52">
-        <v>33.850500000000004</v>
-      </c>
-      <c r="E18" s="52">
-        <v>26.38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="13">
-        <v>1999</v>
-      </c>
-      <c r="B19" s="29">
-        <v>2</v>
-      </c>
-      <c r="C19" s="52">
-        <v>24.049999999999997</v>
-      </c>
-      <c r="D19" s="52">
-        <v>23.6905</v>
-      </c>
-      <c r="E19" s="52">
-        <v>23.54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="13">
-        <v>1999</v>
-      </c>
-      <c r="B20" s="29">
-        <v>3</v>
-      </c>
-      <c r="C20" s="52">
-        <v>24.479999999999997</v>
-      </c>
-      <c r="D20" s="52">
-        <v>21.5505</v>
-      </c>
-      <c r="E20" s="52">
-        <v>23.049999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="13">
-        <v>1999</v>
-      </c>
-      <c r="B21" s="29">
-        <v>4</v>
-      </c>
-      <c r="C21" s="52">
-        <v>24.253999999999998</v>
-      </c>
-      <c r="D21" s="52">
-        <v>31.2165</v>
-      </c>
-      <c r="E21" s="52">
-        <v>25.844999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="13">
-        <v>2000</v>
-      </c>
-      <c r="B22" s="29">
-        <v>1</v>
-      </c>
-      <c r="C22" s="52">
-        <v>25.08</v>
-      </c>
-      <c r="D22" s="52">
-        <v>32.637999999999998</v>
-      </c>
-      <c r="E22" s="52">
-        <v>25.51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="13">
-        <v>2000</v>
-      </c>
-      <c r="B23" s="29">
-        <v>2</v>
-      </c>
-      <c r="C23" s="52">
-        <v>25.03</v>
-      </c>
-      <c r="D23" s="52">
-        <v>23.637999999999998</v>
-      </c>
-      <c r="E23" s="52">
-        <v>24.765000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="13">
-        <v>2000</v>
-      </c>
-      <c r="B24" s="29">
-        <v>3</v>
-      </c>
-      <c r="C24" s="52">
-        <v>25.597999999999999</v>
-      </c>
-      <c r="D24" s="52">
-        <v>23.368000000000002</v>
-      </c>
-      <c r="E24" s="52">
-        <v>24.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="13">
-        <v>2000</v>
-      </c>
-      <c r="B25" s="53">
-        <v>4</v>
-      </c>
-      <c r="C25" s="52">
-        <v>26.32</v>
-      </c>
-      <c r="D25" s="52">
-        <v>32.198</v>
-      </c>
-      <c r="E25" s="52">
-        <v>26.13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="13">
-        <v>2001</v>
-      </c>
-      <c r="B26" s="53">
-        <v>1</v>
-      </c>
-      <c r="C26" s="52">
-        <v>27.83</v>
-      </c>
-      <c r="D26" s="52">
-        <v>35.049999999999997</v>
-      </c>
-      <c r="E26" s="52">
-        <v>28.509999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="13">
-        <v>2001</v>
-      </c>
-      <c r="B27" s="53">
-        <v>2</v>
-      </c>
-      <c r="C27" s="52">
-        <v>25.559899999999999</v>
-      </c>
-      <c r="D27" s="52">
-        <v>25.659999999999997</v>
-      </c>
-      <c r="E27" s="52">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="13">
-        <v>2001</v>
-      </c>
-      <c r="B28" s="53">
-        <v>3</v>
-      </c>
-      <c r="C28" s="52">
-        <v>24.2501</v>
-      </c>
-      <c r="D28" s="52">
-        <v>23.11</v>
-      </c>
-      <c r="E28" s="52">
-        <v>23.560000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="13">
-        <v>2001</v>
-      </c>
-      <c r="B29" s="53">
-        <v>4</v>
-      </c>
-      <c r="C29" s="52">
-        <v>24.5899</v>
-      </c>
-      <c r="D29" s="52">
-        <v>31.529999999999998</v>
-      </c>
-      <c r="E29" s="52">
-        <v>26.32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="13">
-        <v>2002</v>
-      </c>
-      <c r="B30" s="53">
-        <v>1</v>
-      </c>
-      <c r="C30" s="52">
-        <v>26.509999999999998</v>
-      </c>
-      <c r="D30" s="52">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="E30" s="52">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="13">
-        <v>2002</v>
-      </c>
-      <c r="B31" s="53">
-        <v>2</v>
-      </c>
-      <c r="C31" s="52">
-        <v>24.35</v>
-      </c>
-      <c r="D31" s="52">
-        <v>26.29</v>
-      </c>
-      <c r="E31" s="52">
-        <v>23.89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="13">
-        <v>2002</v>
-      </c>
-      <c r="B32" s="53">
-        <v>3</v>
-      </c>
-      <c r="C32" s="52">
-        <v>23.39</v>
-      </c>
-      <c r="D32" s="52">
-        <v>24.4</v>
-      </c>
-      <c r="E32" s="52">
-        <v>23.93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="13">
-        <v>2002</v>
-      </c>
-      <c r="B33" s="53">
-        <v>4</v>
-      </c>
-      <c r="C33" s="52">
-        <v>24.86</v>
-      </c>
-      <c r="D33" s="52">
-        <v>34.130000000000003</v>
-      </c>
-      <c r="E33" s="52">
-        <v>25.86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="13">
-        <v>2003</v>
-      </c>
-      <c r="B34" s="53">
-        <v>1</v>
-      </c>
-      <c r="C34" s="52">
-        <v>25.5</v>
-      </c>
-      <c r="D34" s="52">
-        <v>36.630000000000003</v>
-      </c>
-      <c r="E34" s="52">
-        <v>26.080000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="13">
-        <v>2003</v>
-      </c>
-      <c r="B35" s="53">
-        <v>2</v>
-      </c>
-      <c r="C35" s="52">
-        <v>24.98</v>
-      </c>
-      <c r="D35" s="52">
-        <v>26.560000000000002</v>
-      </c>
-      <c r="E35" s="52">
-        <v>24.65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="13">
-        <v>2003</v>
-      </c>
-      <c r="B36" s="53">
-        <v>3</v>
-      </c>
-      <c r="C36" s="52">
-        <v>24.52</v>
-      </c>
-      <c r="D36" s="52">
-        <v>24.240000000000002</v>
-      </c>
-      <c r="E36" s="52">
-        <v>24.11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="13">
-        <v>2003</v>
-      </c>
-      <c r="B37" s="53">
-        <v>4</v>
-      </c>
-      <c r="C37" s="52">
-        <v>24.28</v>
-      </c>
-      <c r="D37" s="52">
-        <v>35.56</v>
-      </c>
-      <c r="E37" s="52">
-        <v>27.21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="13">
-        <v>2004</v>
-      </c>
-      <c r="B38" s="53">
-        <v>1</v>
-      </c>
-      <c r="C38" s="52">
-        <v>25.171511554249093</v>
-      </c>
-      <c r="D38" s="52">
-        <v>35.703425228494439</v>
-      </c>
-      <c r="E38" s="52">
-        <v>29.785355271578798</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="13">
-        <v>2004</v>
-      </c>
-      <c r="B39" s="53">
-        <v>2</v>
-      </c>
-      <c r="C39" s="52">
-        <v>22.489380658614639</v>
-      </c>
-      <c r="D39" s="52">
-        <v>27.771435416813681</v>
-      </c>
-      <c r="E39" s="52">
-        <v>22.224949609315942</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="13">
-        <v>2004</v>
-      </c>
-      <c r="B40" s="53">
-        <v>3</v>
-      </c>
-      <c r="C40" s="52">
-        <v>23.66061694478222</v>
-      </c>
-      <c r="D40" s="52">
-        <v>26.176227529028814</v>
-      </c>
-      <c r="E40" s="52">
-        <v>23.67537785844743</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="13">
-        <v>2004</v>
-      </c>
-      <c r="B41" s="53">
-        <v>4</v>
-      </c>
-      <c r="C41" s="52">
-        <v>27.547247531354071</v>
-      </c>
-      <c r="D41" s="52">
-        <v>34.549381039363084</v>
-      </c>
-      <c r="E41" s="52">
-        <v>24.959974368857843</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="13">
-        <v>2005</v>
-      </c>
-      <c r="B42" s="53">
-        <v>1</v>
-      </c>
-      <c r="C42" s="52">
-        <v>27.108444515194595</v>
-      </c>
-      <c r="D42" s="52">
-        <v>36.374188029194436</v>
-      </c>
-      <c r="E42" s="52">
-        <v>27.712437760569728</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="13">
-        <v>2005</v>
-      </c>
-      <c r="B43" s="53">
-        <v>2</v>
-      </c>
-      <c r="C43" s="52">
-        <v>26.671647316241767</v>
-      </c>
-      <c r="D43" s="52">
-        <v>27.840716655115003</v>
-      </c>
-      <c r="E43" s="52">
-        <v>24.708851732267334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="13">
-        <v>2005</v>
-      </c>
-      <c r="B44" s="53">
-        <v>3</v>
-      </c>
-      <c r="C44" s="52">
-        <v>24.942890450472625</v>
-      </c>
-      <c r="D44" s="52">
-        <v>25.689670861854864</v>
-      </c>
-      <c r="E44" s="52">
-        <v>24.057533656413675</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="13">
-        <v>2005</v>
-      </c>
-      <c r="B45" s="53">
-        <v>4</v>
-      </c>
-      <c r="C45" s="52">
-        <v>27.155407518091021</v>
-      </c>
-      <c r="D45" s="52">
-        <v>35.806562453835689</v>
-      </c>
-      <c r="E45" s="52">
-        <v>27.704504850749252</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="13">
-        <v>2006</v>
-      </c>
-      <c r="B46" s="53">
-        <v>1</v>
-      </c>
-      <c r="C46" s="52">
-        <v>27.236402387033763</v>
-      </c>
-      <c r="D46" s="52">
-        <v>37.467181956226767</v>
-      </c>
-      <c r="E46" s="52">
-        <v>27.600969167505816</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="13">
-        <v>2006</v>
-      </c>
-      <c r="B47" s="53">
-        <v>2</v>
-      </c>
-      <c r="C47" s="52">
-        <v>24.589345175277671</v>
-      </c>
-      <c r="D47" s="52">
-        <v>27.489404600608914</v>
-      </c>
-      <c r="E47" s="52">
-        <v>24.114158916262504</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="13">
-        <v>2006</v>
-      </c>
-      <c r="B48" s="53">
-        <v>3</v>
-      </c>
-      <c r="C48" s="52">
-        <v>25.074647296242894</v>
-      </c>
-      <c r="D48" s="52">
-        <v>24.993609967870526</v>
-      </c>
-      <c r="E48" s="52">
-        <v>24.01823379715184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="13">
-        <v>2006</v>
-      </c>
-      <c r="B49" s="53">
-        <v>4</v>
-      </c>
-      <c r="C49" s="52">
-        <v>25.506430475796463</v>
-      </c>
-      <c r="D49" s="52">
-        <v>34.753722631536554</v>
-      </c>
-      <c r="E49" s="52">
-        <v>26.386476122745862</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="13">
-        <v>2007</v>
-      </c>
-      <c r="B50" s="53">
-        <v>1</v>
-      </c>
-      <c r="C50" s="52">
-        <v>26.255554015481749</v>
-      </c>
-      <c r="D50" s="52">
-        <v>35.217726181752433</v>
-      </c>
-      <c r="E50" s="52">
-        <v>27.486393863043624</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="13">
-        <v>2007</v>
-      </c>
-      <c r="B51" s="53">
-        <v>2</v>
-      </c>
-      <c r="C51" s="52">
-        <v>25.724095603809786</v>
-      </c>
-      <c r="D51" s="52">
-        <v>26.646855037014475</v>
-      </c>
-      <c r="E51" s="52">
-        <v>23.967739019118603</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="13">
-        <v>2007</v>
-      </c>
-      <c r="B52" s="53">
-        <v>3</v>
-      </c>
-      <c r="C52" s="52">
-        <v>25.535969473855811</v>
-      </c>
-      <c r="D52" s="52">
-        <v>25.486278673761099</v>
-      </c>
-      <c r="E52" s="52">
-        <v>23.998218981452403</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="13">
-        <v>2007</v>
-      </c>
-      <c r="B53" s="53">
-        <v>4</v>
-      </c>
-      <c r="C53" s="52">
-        <v>26.988881017185719</v>
-      </c>
-      <c r="D53" s="52">
-        <v>35.725166163517443</v>
-      </c>
-      <c r="E53" s="52">
-        <v>27.211862270130673</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="13">
-        <v>2008</v>
-      </c>
-      <c r="B54" s="53">
-        <v>1</v>
-      </c>
-      <c r="C54" s="52">
-        <v>28.433783631463008</v>
-      </c>
-      <c r="D54" s="52">
-        <v>34.683007756960166</v>
-      </c>
-      <c r="E54" s="52">
-        <v>28.667047929074087</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="13">
-        <v>2008</v>
-      </c>
-      <c r="B55" s="53">
-        <v>2</v>
-      </c>
-      <c r="C55" s="52">
-        <v>26.413693209923565</v>
-      </c>
-      <c r="D55" s="52">
-        <v>26.548659838726358</v>
-      </c>
-      <c r="E55" s="52">
-        <v>24.761210580802874</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="13">
-        <v>2008</v>
-      </c>
-      <c r="B56" s="53">
-        <v>3</v>
-      </c>
-      <c r="C56" s="52">
-        <v>25.46859180475635</v>
-      </c>
-      <c r="D56" s="52">
-        <v>24.990386505507772</v>
-      </c>
-      <c r="E56" s="52">
-        <v>24.327293634494001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="13">
-        <v>2008</v>
-      </c>
-      <c r="B57" s="53">
-        <v>4</v>
-      </c>
-      <c r="C57" s="52">
-        <v>27.066203929171522</v>
-      </c>
-      <c r="D57" s="52">
-        <v>33.577945898805673</v>
-      </c>
-      <c r="E57" s="52">
-        <v>26.932284122442947</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="13">
-        <v>2009</v>
-      </c>
-      <c r="B58" s="53">
-        <v>1</v>
-      </c>
-      <c r="C58" s="52">
-        <v>23.970289292101366</v>
-      </c>
-      <c r="D58" s="52">
-        <v>36.387977386447439</v>
-      </c>
-      <c r="E58" s="52">
-        <v>26.809115361950369</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="13">
-        <v>2009</v>
-      </c>
-      <c r="B59" s="53">
-        <v>2</v>
-      </c>
-      <c r="C59" s="52">
-        <v>22.463332646758754</v>
-      </c>
-      <c r="D59" s="52">
-        <v>25.323900703929443</v>
-      </c>
-      <c r="E59" s="52">
-        <v>24.328483770756119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="13">
-        <v>2009</v>
-      </c>
-      <c r="B60" s="53">
-        <v>3</v>
-      </c>
-      <c r="C60" s="52">
-        <v>22.535106030084147</v>
-      </c>
-      <c r="D60" s="52">
-        <v>23.872180586368124</v>
-      </c>
-      <c r="E60" s="52">
-        <v>24.575725378372024</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="13">
-        <v>2009</v>
-      </c>
-      <c r="B61" s="53">
-        <v>4</v>
-      </c>
-      <c r="C61" s="52">
-        <v>26.036075420324483</v>
-      </c>
-      <c r="D61" s="52">
-        <v>32.956734665978118</v>
-      </c>
-      <c r="E61" s="52">
-        <v>24.525336111632249</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="13">
-        <v>2010</v>
-      </c>
-      <c r="B62" s="53">
-        <v>1</v>
-      </c>
-      <c r="C62" s="52">
-        <v>24.958189475696621</v>
-      </c>
-      <c r="D62" s="52">
-        <v>36.079877048556575</v>
-      </c>
-      <c r="E62" s="52">
-        <v>27.973688078289246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="13">
-        <v>2010</v>
-      </c>
-      <c r="B63" s="53">
-        <v>2</v>
-      </c>
-      <c r="C63" s="52">
-        <v>23.979495571747627</v>
-      </c>
-      <c r="D63" s="52">
-        <v>25.070150479763495</v>
-      </c>
-      <c r="E63" s="52">
-        <v>23.78936175062568</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="13">
-        <v>2010</v>
-      </c>
-      <c r="B64" s="53">
-        <v>3</v>
-      </c>
-      <c r="C64" s="52">
-        <v>24.087643342471384</v>
-      </c>
-      <c r="D64" s="52">
-        <v>23.207813991903421</v>
-      </c>
-      <c r="E64" s="52">
-        <v>23.434911390634319</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="13">
-        <v>2010</v>
-      </c>
-      <c r="B65" s="53">
-        <v>4</v>
-      </c>
-      <c r="C65" s="52">
-        <v>25.940180651703095</v>
-      </c>
-      <c r="D65" s="52">
-        <v>34.452302888439462</v>
-      </c>
-      <c r="E65" s="52">
-        <v>26.945883184883051</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="13">
-        <v>2011</v>
-      </c>
-      <c r="B66" s="53">
-        <v>1</v>
-      </c>
-      <c r="C66" s="52">
-        <v>25.043879945844857</v>
-      </c>
-      <c r="D66" s="52">
-        <v>34.07561971731684</v>
-      </c>
-      <c r="E66" s="52">
-        <v>26.462995044142843</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="13">
-        <v>2011</v>
-      </c>
-      <c r="B67" s="53">
-        <v>2</v>
-      </c>
-      <c r="C67" s="52">
-        <v>23.268226338602275</v>
-      </c>
-      <c r="D67" s="52">
-        <v>23.924810729178006</v>
-      </c>
-      <c r="E67" s="52">
-        <v>23.915519112422178</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="13">
-        <v>2011</v>
-      </c>
-      <c r="B68" s="53">
-        <v>3</v>
-      </c>
-      <c r="C68" s="52">
-        <v>23.547776810453044</v>
-      </c>
-      <c r="D68" s="52">
-        <v>22.843999212403379</v>
-      </c>
-      <c r="E68" s="52">
-        <v>24.114346561521554</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="13">
-        <v>2011</v>
-      </c>
-      <c r="B69" s="53">
-        <v>4</v>
-      </c>
-      <c r="C69" s="52">
-        <v>24.204356089020528</v>
-      </c>
-      <c r="D69" s="52">
-        <v>30.63720146174505</v>
-      </c>
-      <c r="E69" s="52">
-        <v>25.994170693057555</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="13">
-        <v>2012</v>
-      </c>
-      <c r="B70" s="53">
-        <v>1</v>
-      </c>
-      <c r="C70" s="52">
-        <v>23.307260161991259</v>
-      </c>
-      <c r="D70" s="52">
-        <v>33.434294028043794</v>
-      </c>
-      <c r="E70" s="52">
-        <v>26.736292152693128</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="13">
-        <v>2012</v>
-      </c>
-      <c r="B71" s="53">
-        <v>2</v>
-      </c>
-      <c r="C71" s="52">
-        <v>22.880041601459332</v>
-      </c>
-      <c r="D71" s="52">
-        <v>24.996250498212135</v>
-      </c>
-      <c r="E71" s="52">
-        <v>24.153185080738815</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="13">
-        <v>2012</v>
-      </c>
-      <c r="B72" s="53">
-        <v>3</v>
-      </c>
-      <c r="C72" s="52">
-        <v>23.044604316740806</v>
-      </c>
-      <c r="D72" s="52">
-        <v>22.96629606095842</v>
-      </c>
-      <c r="E72" s="52">
-        <v>23.913501791036825</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="13">
-        <v>2012</v>
-      </c>
-      <c r="B73" s="53">
-        <v>4</v>
-      </c>
-      <c r="C73" s="52">
-        <v>24.268713801367525</v>
-      </c>
-      <c r="D73" s="52">
-        <v>32.758487214492959</v>
-      </c>
-      <c r="E73" s="52">
-        <v>25.949392207311021</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B74" s="53">
-        <v>1</v>
-      </c>
-      <c r="C74" s="52">
-        <v>23.740673633312177</v>
-      </c>
-      <c r="D74" s="52">
-        <v>34.239159305213917</v>
-      </c>
-      <c r="E74" s="52">
-        <v>27.168507892181694</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B75" s="53">
-        <v>2</v>
-      </c>
-      <c r="C75" s="52">
-        <v>22.989318117640348</v>
-      </c>
-      <c r="D75" s="52">
-        <v>25.25614107144332</v>
-      </c>
-      <c r="E75" s="52">
-        <v>23.306142011482621</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B76" s="53">
-        <v>3</v>
-      </c>
-      <c r="C76" s="52">
-        <v>23.151814525929431</v>
-      </c>
-      <c r="D76" s="52">
-        <v>22.4612664175053</v>
-      </c>
-      <c r="E76" s="52">
-        <v>24.011546945592663</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B77" s="53">
-        <v>4</v>
-      </c>
-      <c r="C77" s="52">
-        <v>23.489847383882285</v>
-      </c>
-      <c r="D77" s="52">
-        <v>30.825778290916752</v>
-      </c>
-      <c r="E77" s="52">
-        <v>26.107289286954263</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="13">
-        <v>2014</v>
-      </c>
-      <c r="B78" s="53">
-        <v>1</v>
-      </c>
-      <c r="C78" s="52">
-        <v>23.129515284834788</v>
-      </c>
-      <c r="D78" s="52">
-        <v>31.589087088965066</v>
-      </c>
-      <c r="E78" s="52">
-        <v>25.108930115589263</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="13">
-        <v>2014</v>
-      </c>
-      <c r="B79" s="53">
-        <v>2</v>
-      </c>
-      <c r="C79" s="52">
-        <v>21.418607551933189</v>
-      </c>
-      <c r="D79" s="52">
-        <v>23.821586078160113</v>
-      </c>
-      <c r="E79" s="52">
-        <v>22.904841405115199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="13">
-        <v>2014</v>
-      </c>
-      <c r="B80" s="53">
-        <v>3</v>
-      </c>
-      <c r="C80" s="52">
-        <v>22.24369633375165</v>
-      </c>
-      <c r="D80" s="52">
-        <v>22.034898533285503</v>
-      </c>
-      <c r="E80" s="52">
-        <v>22.65954058766879</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="13">
-        <v>2014</v>
-      </c>
-      <c r="B81" s="53">
-        <v>4</v>
-      </c>
-      <c r="C81" s="52">
-        <v>21.686134102612456</v>
-      </c>
-      <c r="D81" s="52">
-        <v>29.739136029608709</v>
-      </c>
-      <c r="E81" s="52">
-        <v>24.817397323307794</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="13">
-        <v>2015</v>
-      </c>
-      <c r="B82" s="53">
-        <v>1</v>
-      </c>
-      <c r="C82" s="52">
-        <v>23.641892558575226</v>
-      </c>
-      <c r="D82" s="52">
-        <v>31.361044502021507</v>
-      </c>
-      <c r="E82" s="52">
-        <v>24.93304264133339</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="13">
-        <v>2015</v>
-      </c>
-      <c r="B83" s="53">
-        <v>2</v>
-      </c>
-      <c r="C83" s="52">
-        <v>21.911018832422339</v>
-      </c>
-      <c r="D83" s="52">
-        <v>23.721280183063442</v>
-      </c>
-      <c r="E83" s="52">
-        <v>22.433222589364963</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="13">
-        <v>2015</v>
-      </c>
-      <c r="B84" s="53">
-        <v>3</v>
-      </c>
-      <c r="C84" s="52">
-        <v>22.040952137887803</v>
-      </c>
-      <c r="D84" s="52">
-        <v>21.799774313384574</v>
-      </c>
-      <c r="E84" s="52">
-        <v>23.031197147636078</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="13">
-        <v>2015</v>
-      </c>
-      <c r="B85" s="53">
-        <v>4</v>
-      </c>
-      <c r="C85" s="52">
-        <v>20.666022668666919</v>
-      </c>
-      <c r="D85" s="52">
-        <v>29.747638311563804</v>
-      </c>
-      <c r="E85" s="52">
-        <v>24.751545727798536</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="13">
-        <v>2016</v>
-      </c>
-      <c r="B86" s="53">
-        <v>1</v>
-      </c>
-      <c r="C86" s="52">
-        <v>21.846824155604978</v>
-      </c>
-      <c r="D86" s="52">
-        <v>31.735939430222313</v>
-      </c>
-      <c r="E86" s="52">
-        <v>25.348701858599611</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="13">
-        <v>2016</v>
-      </c>
-      <c r="B87" s="53">
-        <v>2</v>
-      </c>
-      <c r="C87" s="52">
-        <v>21.301433609859696</v>
-      </c>
-      <c r="D87" s="52">
-        <v>23.525055816546612</v>
-      </c>
-      <c r="E87" s="52">
-        <v>22.20023166652895</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="13">
-        <v>2016</v>
-      </c>
-      <c r="B88" s="53">
-        <v>3</v>
-      </c>
-      <c r="C88" s="52">
-        <v>21.583282216891163</v>
-      </c>
-      <c r="D88" s="52">
-        <v>21.369560041162156</v>
-      </c>
-      <c r="E88" s="52">
-        <v>22.313859470532819</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="13">
-        <v>2016</v>
-      </c>
-      <c r="B89" s="53">
-        <v>4</v>
-      </c>
-      <c r="C89" s="52">
-        <v>22.464643896660238</v>
-      </c>
-      <c r="D89" s="52">
-        <v>30.065168568423807</v>
-      </c>
-      <c r="E89" s="52">
-        <v>24.576097138907166</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="13">
-        <v>2017</v>
-      </c>
-      <c r="B90" s="53">
-        <v>1</v>
-      </c>
-      <c r="C90" s="52">
-        <v>21.694759661304058</v>
-      </c>
-      <c r="D90" s="52">
-        <v>30.126618313210088</v>
-      </c>
-      <c r="E90" s="52">
-        <v>24.048543893423059</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="13">
-        <v>2017</v>
-      </c>
-      <c r="B91" s="53">
-        <v>2</v>
-      </c>
-      <c r="C91" s="52">
-        <v>20.507291030752818</v>
-      </c>
-      <c r="D91" s="52">
-        <v>22.293497319544748</v>
-      </c>
-      <c r="E91" s="52">
-        <v>22.009928314618953</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="13">
-        <v>2017</v>
-      </c>
-      <c r="B92" s="53">
-        <v>3</v>
-      </c>
-      <c r="C92" s="52">
-        <v>21.460736532006695</v>
-      </c>
-      <c r="D92" s="52">
-        <v>21.330638513065804</v>
-      </c>
-      <c r="E92" s="52">
-        <v>21.477152650006513</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="13">
-        <v>2017</v>
-      </c>
-      <c r="B93" s="53">
-        <v>4</v>
-      </c>
-      <c r="C93" s="52">
-        <v>22.316690171592207</v>
-      </c>
-      <c r="D93" s="52">
-        <v>29.389587470545205</v>
-      </c>
-      <c r="E93" s="52">
-        <v>24.361512876341624</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="13">
-        <v>2018</v>
-      </c>
-      <c r="B94" s="53">
-        <v>1</v>
-      </c>
-      <c r="C94" s="52">
-        <v>22.268670823112899</v>
-      </c>
-      <c r="D94" s="52">
-        <v>32.061005425248169</v>
-      </c>
-      <c r="E94" s="52">
-        <v>24.650234709929563</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="13">
-        <v>2018</v>
-      </c>
-      <c r="B95" s="53">
-        <v>2</v>
-      </c>
-      <c r="C95" s="52">
-        <v>21.009322256530908</v>
-      </c>
-      <c r="D95" s="52">
-        <v>22.61854757220221</v>
-      </c>
-      <c r="E95" s="52">
-        <v>21.522067686349384</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="13">
-        <v>2018</v>
-      </c>
-      <c r="B96" s="53">
-        <v>3</v>
-      </c>
-      <c r="C96" s="52">
-        <v>21.972386768146364</v>
-      </c>
-      <c r="D96" s="52">
-        <v>20.22690990252125</v>
-      </c>
-      <c r="E96" s="52">
-        <v>22.054888639135765</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="13">
-        <v>2018</v>
-      </c>
-      <c r="B97" s="53">
-        <v>4</v>
-      </c>
-      <c r="C97" s="52">
-        <v>22.190999146457031</v>
-      </c>
-      <c r="D97" s="52">
-        <v>28.571910418893282</v>
-      </c>
-      <c r="E97" s="52">
-        <v>23.254973603564384</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="13">
-        <v>2019</v>
-      </c>
-      <c r="B98" s="29">
-        <v>1</v>
-      </c>
-      <c r="C98" s="52">
-        <v>22.332120918085607</v>
-      </c>
-      <c r="D98" s="52">
-        <v>29.884136672527795</v>
-      </c>
-      <c r="E98" s="52">
-        <v>22.820905422602948</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="13">
-        <v>2019</v>
-      </c>
-      <c r="B99" s="53">
-        <v>2</v>
-      </c>
-      <c r="C99" s="52">
-        <v>20.376391275269611</v>
-      </c>
-      <c r="D99" s="52">
-        <v>22.484378132173234</v>
-      </c>
-      <c r="E99" s="52">
-        <v>21.420042552270864</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="13">
-        <v>2019</v>
-      </c>
-      <c r="B100" s="53">
-        <v>3</v>
-      </c>
-      <c r="C100" s="52">
-        <v>20.932865605238931</v>
-      </c>
-      <c r="D100" s="52">
-        <v>20.12449751616445</v>
-      </c>
-      <c r="E100" s="52">
-        <v>21.448496688097372</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="13">
-        <v>2019</v>
-      </c>
-      <c r="B101" s="53">
-        <v>4</v>
-      </c>
-      <c r="C101" s="52">
-        <v>21.33847605395237</v>
-      </c>
-      <c r="D101" s="52">
-        <v>29.660511204025902</v>
-      </c>
-      <c r="E101" s="52">
-        <v>24.004212307060225</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="13">
-        <v>2020</v>
-      </c>
-      <c r="B102" s="29">
-        <v>1</v>
-      </c>
-      <c r="C102" s="52">
-        <v>21.449726053013244</v>
-      </c>
-      <c r="D102" s="52">
-        <v>29.840228426270688</v>
-      </c>
-      <c r="E102" s="52">
-        <v>22.328150623555025</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="13">
-        <v>2020</v>
-      </c>
-      <c r="B103" s="53">
-        <v>2</v>
-      </c>
-      <c r="C103" s="52">
-        <v>17.083298470486554</v>
-      </c>
-      <c r="D103" s="52">
-        <v>22.250433516857939</v>
-      </c>
-      <c r="E103" s="52">
-        <v>17.339576504619213</v>
       </c>
     </row>
   </sheetData>
@@ -38831,10 +37312,1783 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF36D3B-3250-9249-8D26-414C9F6C044F}">
+  <dimension ref="A1:E103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13">
+        <v>1995</v>
+      </c>
+      <c r="B2" s="29">
+        <v>1</v>
+      </c>
+      <c r="C2" s="52">
+        <v>25</v>
+      </c>
+      <c r="D2" s="52">
+        <v>31.909999999999997</v>
+      </c>
+      <c r="E2" s="52">
+        <v>24.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="13">
+        <v>1995</v>
+      </c>
+      <c r="B3" s="29">
+        <v>2</v>
+      </c>
+      <c r="C3" s="52">
+        <v>23.28</v>
+      </c>
+      <c r="D3" s="52">
+        <v>21.86</v>
+      </c>
+      <c r="E3" s="52">
+        <v>20.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="13">
+        <v>1995</v>
+      </c>
+      <c r="B4" s="29">
+        <v>3</v>
+      </c>
+      <c r="C4" s="52">
+        <v>23.53</v>
+      </c>
+      <c r="D4" s="52">
+        <v>19.18</v>
+      </c>
+      <c r="E4" s="52">
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13">
+        <v>1995</v>
+      </c>
+      <c r="B5" s="29">
+        <v>4</v>
+      </c>
+      <c r="C5" s="52">
+        <v>23.7</v>
+      </c>
+      <c r="D5" s="52">
+        <v>29.28</v>
+      </c>
+      <c r="E5" s="52">
+        <v>23.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="13">
+        <v>1996</v>
+      </c>
+      <c r="B6" s="29">
+        <v>1</v>
+      </c>
+      <c r="C6" s="52">
+        <v>26.439999999999998</v>
+      </c>
+      <c r="D6" s="52">
+        <v>33.9</v>
+      </c>
+      <c r="E6" s="52">
+        <v>25.339999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13">
+        <v>1996</v>
+      </c>
+      <c r="B7" s="29">
+        <v>2</v>
+      </c>
+      <c r="C7" s="52">
+        <v>23.86</v>
+      </c>
+      <c r="D7" s="52">
+        <v>22.93</v>
+      </c>
+      <c r="E7" s="52">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13">
+        <v>1996</v>
+      </c>
+      <c r="B8" s="29">
+        <v>3</v>
+      </c>
+      <c r="C8" s="52">
+        <v>24.660000000000004</v>
+      </c>
+      <c r="D8" s="52">
+        <v>20.11</v>
+      </c>
+      <c r="E8" s="52">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13">
+        <v>1996</v>
+      </c>
+      <c r="B9" s="29">
+        <v>4</v>
+      </c>
+      <c r="C9" s="52">
+        <v>25.310000000000002</v>
+      </c>
+      <c r="D9" s="52">
+        <v>30.549999999999997</v>
+      </c>
+      <c r="E9" s="52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13">
+        <v>1997</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="52">
+        <v>25.549999999999997</v>
+      </c>
+      <c r="D10" s="52">
+        <v>31.53</v>
+      </c>
+      <c r="E10" s="52">
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13">
+        <v>1997</v>
+      </c>
+      <c r="B11" s="29">
+        <v>2</v>
+      </c>
+      <c r="C11" s="52">
+        <v>23.98</v>
+      </c>
+      <c r="D11" s="52">
+        <v>22.33</v>
+      </c>
+      <c r="E11" s="52">
+        <v>22.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="13">
+        <v>1997</v>
+      </c>
+      <c r="B12" s="29">
+        <v>3</v>
+      </c>
+      <c r="C12" s="52">
+        <v>24.47</v>
+      </c>
+      <c r="D12" s="52">
+        <v>20.29</v>
+      </c>
+      <c r="E12" s="52">
+        <v>22.439999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="13">
+        <v>1997</v>
+      </c>
+      <c r="B13" s="29">
+        <v>4</v>
+      </c>
+      <c r="C13" s="52">
+        <v>25.03</v>
+      </c>
+      <c r="D13" s="52">
+        <v>30.3</v>
+      </c>
+      <c r="E13" s="52">
+        <v>25.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="13">
+        <v>1998</v>
+      </c>
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="52">
+        <v>25.97</v>
+      </c>
+      <c r="D14" s="52">
+        <v>32.35</v>
+      </c>
+      <c r="E14" s="52">
+        <v>25.619999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="13">
+        <v>1998</v>
+      </c>
+      <c r="B15" s="29">
+        <v>2</v>
+      </c>
+      <c r="C15" s="52">
+        <v>23.96</v>
+      </c>
+      <c r="D15" s="52">
+        <v>24.36</v>
+      </c>
+      <c r="E15" s="52">
+        <v>22.509999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="13">
+        <v>1998</v>
+      </c>
+      <c r="B16" s="29">
+        <v>3</v>
+      </c>
+      <c r="C16" s="52">
+        <v>23.4</v>
+      </c>
+      <c r="D16" s="52">
+        <v>21.16</v>
+      </c>
+      <c r="E16" s="52">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="13">
+        <v>1998</v>
+      </c>
+      <c r="B17" s="29">
+        <v>4</v>
+      </c>
+      <c r="C17" s="52">
+        <v>24.13</v>
+      </c>
+      <c r="D17" s="52">
+        <v>31.540000000000003</v>
+      </c>
+      <c r="E17" s="52">
+        <v>26.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="13">
+        <v>1999</v>
+      </c>
+      <c r="B18" s="29">
+        <v>1</v>
+      </c>
+      <c r="C18" s="52">
+        <v>26.439999999999998</v>
+      </c>
+      <c r="D18" s="52">
+        <v>33.850500000000004</v>
+      </c>
+      <c r="E18" s="52">
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="13">
+        <v>1999</v>
+      </c>
+      <c r="B19" s="29">
+        <v>2</v>
+      </c>
+      <c r="C19" s="52">
+        <v>24.049999999999997</v>
+      </c>
+      <c r="D19" s="52">
+        <v>23.6905</v>
+      </c>
+      <c r="E19" s="52">
+        <v>23.54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="13">
+        <v>1999</v>
+      </c>
+      <c r="B20" s="29">
+        <v>3</v>
+      </c>
+      <c r="C20" s="52">
+        <v>24.479999999999997</v>
+      </c>
+      <c r="D20" s="52">
+        <v>21.5505</v>
+      </c>
+      <c r="E20" s="52">
+        <v>23.049999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="13">
+        <v>1999</v>
+      </c>
+      <c r="B21" s="29">
+        <v>4</v>
+      </c>
+      <c r="C21" s="52">
+        <v>24.253999999999998</v>
+      </c>
+      <c r="D21" s="52">
+        <v>31.2165</v>
+      </c>
+      <c r="E21" s="52">
+        <v>25.844999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B22" s="29">
+        <v>1</v>
+      </c>
+      <c r="C22" s="52">
+        <v>25.08</v>
+      </c>
+      <c r="D22" s="52">
+        <v>32.637999999999998</v>
+      </c>
+      <c r="E22" s="52">
+        <v>25.51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B23" s="29">
+        <v>2</v>
+      </c>
+      <c r="C23" s="52">
+        <v>25.03</v>
+      </c>
+      <c r="D23" s="52">
+        <v>23.637999999999998</v>
+      </c>
+      <c r="E23" s="52">
+        <v>24.765000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B24" s="29">
+        <v>3</v>
+      </c>
+      <c r="C24" s="52">
+        <v>25.597999999999999</v>
+      </c>
+      <c r="D24" s="52">
+        <v>23.368000000000002</v>
+      </c>
+      <c r="E24" s="52">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B25" s="53">
+        <v>4</v>
+      </c>
+      <c r="C25" s="52">
+        <v>26.32</v>
+      </c>
+      <c r="D25" s="52">
+        <v>32.198</v>
+      </c>
+      <c r="E25" s="52">
+        <v>26.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B26" s="53">
+        <v>1</v>
+      </c>
+      <c r="C26" s="52">
+        <v>27.83</v>
+      </c>
+      <c r="D26" s="52">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="E26" s="52">
+        <v>28.509999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B27" s="53">
+        <v>2</v>
+      </c>
+      <c r="C27" s="52">
+        <v>25.559899999999999</v>
+      </c>
+      <c r="D27" s="52">
+        <v>25.659999999999997</v>
+      </c>
+      <c r="E27" s="52">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B28" s="53">
+        <v>3</v>
+      </c>
+      <c r="C28" s="52">
+        <v>24.2501</v>
+      </c>
+      <c r="D28" s="52">
+        <v>23.11</v>
+      </c>
+      <c r="E28" s="52">
+        <v>23.560000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B29" s="53">
+        <v>4</v>
+      </c>
+      <c r="C29" s="52">
+        <v>24.5899</v>
+      </c>
+      <c r="D29" s="52">
+        <v>31.529999999999998</v>
+      </c>
+      <c r="E29" s="52">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="13">
+        <v>2002</v>
+      </c>
+      <c r="B30" s="53">
+        <v>1</v>
+      </c>
+      <c r="C30" s="52">
+        <v>26.509999999999998</v>
+      </c>
+      <c r="D30" s="52">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E30" s="52">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="13">
+        <v>2002</v>
+      </c>
+      <c r="B31" s="53">
+        <v>2</v>
+      </c>
+      <c r="C31" s="52">
+        <v>24.35</v>
+      </c>
+      <c r="D31" s="52">
+        <v>26.29</v>
+      </c>
+      <c r="E31" s="52">
+        <v>23.89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="13">
+        <v>2002</v>
+      </c>
+      <c r="B32" s="53">
+        <v>3</v>
+      </c>
+      <c r="C32" s="52">
+        <v>23.39</v>
+      </c>
+      <c r="D32" s="52">
+        <v>24.4</v>
+      </c>
+      <c r="E32" s="52">
+        <v>23.93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="13">
+        <v>2002</v>
+      </c>
+      <c r="B33" s="53">
+        <v>4</v>
+      </c>
+      <c r="C33" s="52">
+        <v>24.86</v>
+      </c>
+      <c r="D33" s="52">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="E33" s="52">
+        <v>25.86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="13">
+        <v>2003</v>
+      </c>
+      <c r="B34" s="53">
+        <v>1</v>
+      </c>
+      <c r="C34" s="52">
+        <v>25.5</v>
+      </c>
+      <c r="D34" s="52">
+        <v>36.630000000000003</v>
+      </c>
+      <c r="E34" s="52">
+        <v>26.080000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="13">
+        <v>2003</v>
+      </c>
+      <c r="B35" s="53">
+        <v>2</v>
+      </c>
+      <c r="C35" s="52">
+        <v>24.98</v>
+      </c>
+      <c r="D35" s="52">
+        <v>26.560000000000002</v>
+      </c>
+      <c r="E35" s="52">
+        <v>24.65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="13">
+        <v>2003</v>
+      </c>
+      <c r="B36" s="53">
+        <v>3</v>
+      </c>
+      <c r="C36" s="52">
+        <v>24.52</v>
+      </c>
+      <c r="D36" s="52">
+        <v>24.240000000000002</v>
+      </c>
+      <c r="E36" s="52">
+        <v>24.11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="13">
+        <v>2003</v>
+      </c>
+      <c r="B37" s="53">
+        <v>4</v>
+      </c>
+      <c r="C37" s="52">
+        <v>24.28</v>
+      </c>
+      <c r="D37" s="52">
+        <v>35.56</v>
+      </c>
+      <c r="E37" s="52">
+        <v>27.21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="13">
+        <v>2004</v>
+      </c>
+      <c r="B38" s="53">
+        <v>1</v>
+      </c>
+      <c r="C38" s="52">
+        <v>25.171511554249093</v>
+      </c>
+      <c r="D38" s="52">
+        <v>35.703425228494439</v>
+      </c>
+      <c r="E38" s="52">
+        <v>29.785355271578798</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="13">
+        <v>2004</v>
+      </c>
+      <c r="B39" s="53">
+        <v>2</v>
+      </c>
+      <c r="C39" s="52">
+        <v>22.489380658614639</v>
+      </c>
+      <c r="D39" s="52">
+        <v>27.771435416813681</v>
+      </c>
+      <c r="E39" s="52">
+        <v>22.224949609315942</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="13">
+        <v>2004</v>
+      </c>
+      <c r="B40" s="53">
+        <v>3</v>
+      </c>
+      <c r="C40" s="52">
+        <v>23.66061694478222</v>
+      </c>
+      <c r="D40" s="52">
+        <v>26.176227529028814</v>
+      </c>
+      <c r="E40" s="52">
+        <v>23.67537785844743</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="13">
+        <v>2004</v>
+      </c>
+      <c r="B41" s="53">
+        <v>4</v>
+      </c>
+      <c r="C41" s="52">
+        <v>27.547247531354071</v>
+      </c>
+      <c r="D41" s="52">
+        <v>34.549381039363084</v>
+      </c>
+      <c r="E41" s="52">
+        <v>24.959974368857843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="13">
+        <v>2005</v>
+      </c>
+      <c r="B42" s="53">
+        <v>1</v>
+      </c>
+      <c r="C42" s="52">
+        <v>27.108444515194595</v>
+      </c>
+      <c r="D42" s="52">
+        <v>36.374188029194436</v>
+      </c>
+      <c r="E42" s="52">
+        <v>27.712437760569728</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="13">
+        <v>2005</v>
+      </c>
+      <c r="B43" s="53">
+        <v>2</v>
+      </c>
+      <c r="C43" s="52">
+        <v>26.671647316241767</v>
+      </c>
+      <c r="D43" s="52">
+        <v>27.840716655115003</v>
+      </c>
+      <c r="E43" s="52">
+        <v>24.708851732267334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="13">
+        <v>2005</v>
+      </c>
+      <c r="B44" s="53">
+        <v>3</v>
+      </c>
+      <c r="C44" s="52">
+        <v>24.942890450472625</v>
+      </c>
+      <c r="D44" s="52">
+        <v>25.689670861854864</v>
+      </c>
+      <c r="E44" s="52">
+        <v>24.057533656413675</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="13">
+        <v>2005</v>
+      </c>
+      <c r="B45" s="53">
+        <v>4</v>
+      </c>
+      <c r="C45" s="52">
+        <v>27.155407518091021</v>
+      </c>
+      <c r="D45" s="52">
+        <v>35.806562453835689</v>
+      </c>
+      <c r="E45" s="52">
+        <v>27.704504850749252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="13">
+        <v>2006</v>
+      </c>
+      <c r="B46" s="53">
+        <v>1</v>
+      </c>
+      <c r="C46" s="52">
+        <v>27.236402387033763</v>
+      </c>
+      <c r="D46" s="52">
+        <v>37.467181956226767</v>
+      </c>
+      <c r="E46" s="52">
+        <v>27.600969167505816</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="13">
+        <v>2006</v>
+      </c>
+      <c r="B47" s="53">
+        <v>2</v>
+      </c>
+      <c r="C47" s="52">
+        <v>24.589345175277671</v>
+      </c>
+      <c r="D47" s="52">
+        <v>27.489404600608914</v>
+      </c>
+      <c r="E47" s="52">
+        <v>24.114158916262504</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="13">
+        <v>2006</v>
+      </c>
+      <c r="B48" s="53">
+        <v>3</v>
+      </c>
+      <c r="C48" s="52">
+        <v>25.074647296242894</v>
+      </c>
+      <c r="D48" s="52">
+        <v>24.993609967870526</v>
+      </c>
+      <c r="E48" s="52">
+        <v>24.01823379715184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="13">
+        <v>2006</v>
+      </c>
+      <c r="B49" s="53">
+        <v>4</v>
+      </c>
+      <c r="C49" s="52">
+        <v>25.506430475796463</v>
+      </c>
+      <c r="D49" s="52">
+        <v>34.753722631536554</v>
+      </c>
+      <c r="E49" s="52">
+        <v>26.386476122745862</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="13">
+        <v>2007</v>
+      </c>
+      <c r="B50" s="53">
+        <v>1</v>
+      </c>
+      <c r="C50" s="52">
+        <v>26.255554015481749</v>
+      </c>
+      <c r="D50" s="52">
+        <v>35.217726181752433</v>
+      </c>
+      <c r="E50" s="52">
+        <v>27.486393863043624</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="13">
+        <v>2007</v>
+      </c>
+      <c r="B51" s="53">
+        <v>2</v>
+      </c>
+      <c r="C51" s="52">
+        <v>25.724095603809786</v>
+      </c>
+      <c r="D51" s="52">
+        <v>26.646855037014475</v>
+      </c>
+      <c r="E51" s="52">
+        <v>23.967739019118603</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="13">
+        <v>2007</v>
+      </c>
+      <c r="B52" s="53">
+        <v>3</v>
+      </c>
+      <c r="C52" s="52">
+        <v>25.535969473855811</v>
+      </c>
+      <c r="D52" s="52">
+        <v>25.486278673761099</v>
+      </c>
+      <c r="E52" s="52">
+        <v>23.998218981452403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="13">
+        <v>2007</v>
+      </c>
+      <c r="B53" s="53">
+        <v>4</v>
+      </c>
+      <c r="C53" s="52">
+        <v>26.988881017185719</v>
+      </c>
+      <c r="D53" s="52">
+        <v>35.725166163517443</v>
+      </c>
+      <c r="E53" s="52">
+        <v>27.211862270130673</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="13">
+        <v>2008</v>
+      </c>
+      <c r="B54" s="53">
+        <v>1</v>
+      </c>
+      <c r="C54" s="52">
+        <v>28.433783631463008</v>
+      </c>
+      <c r="D54" s="52">
+        <v>34.683007756960166</v>
+      </c>
+      <c r="E54" s="52">
+        <v>28.667047929074087</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="13">
+        <v>2008</v>
+      </c>
+      <c r="B55" s="53">
+        <v>2</v>
+      </c>
+      <c r="C55" s="52">
+        <v>26.413693209923565</v>
+      </c>
+      <c r="D55" s="52">
+        <v>26.548659838726358</v>
+      </c>
+      <c r="E55" s="52">
+        <v>24.761210580802874</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="13">
+        <v>2008</v>
+      </c>
+      <c r="B56" s="53">
+        <v>3</v>
+      </c>
+      <c r="C56" s="52">
+        <v>25.46859180475635</v>
+      </c>
+      <c r="D56" s="52">
+        <v>24.990386505507772</v>
+      </c>
+      <c r="E56" s="52">
+        <v>24.327293634494001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="13">
+        <v>2008</v>
+      </c>
+      <c r="B57" s="53">
+        <v>4</v>
+      </c>
+      <c r="C57" s="52">
+        <v>27.066203929171522</v>
+      </c>
+      <c r="D57" s="52">
+        <v>33.577945898805673</v>
+      </c>
+      <c r="E57" s="52">
+        <v>26.932284122442947</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="13">
+        <v>2009</v>
+      </c>
+      <c r="B58" s="53">
+        <v>1</v>
+      </c>
+      <c r="C58" s="52">
+        <v>23.970289292101366</v>
+      </c>
+      <c r="D58" s="52">
+        <v>36.387977386447439</v>
+      </c>
+      <c r="E58" s="52">
+        <v>26.809115361950369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="13">
+        <v>2009</v>
+      </c>
+      <c r="B59" s="53">
+        <v>2</v>
+      </c>
+      <c r="C59" s="52">
+        <v>22.463332646758754</v>
+      </c>
+      <c r="D59" s="52">
+        <v>25.323900703929443</v>
+      </c>
+      <c r="E59" s="52">
+        <v>24.328483770756119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="13">
+        <v>2009</v>
+      </c>
+      <c r="B60" s="53">
+        <v>3</v>
+      </c>
+      <c r="C60" s="52">
+        <v>22.535106030084147</v>
+      </c>
+      <c r="D60" s="52">
+        <v>23.872180586368124</v>
+      </c>
+      <c r="E60" s="52">
+        <v>24.575725378372024</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="13">
+        <v>2009</v>
+      </c>
+      <c r="B61" s="53">
+        <v>4</v>
+      </c>
+      <c r="C61" s="52">
+        <v>26.036075420324483</v>
+      </c>
+      <c r="D61" s="52">
+        <v>32.956734665978118</v>
+      </c>
+      <c r="E61" s="52">
+        <v>24.525336111632249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="13">
+        <v>2010</v>
+      </c>
+      <c r="B62" s="53">
+        <v>1</v>
+      </c>
+      <c r="C62" s="52">
+        <v>24.958189475696621</v>
+      </c>
+      <c r="D62" s="52">
+        <v>36.079877048556575</v>
+      </c>
+      <c r="E62" s="52">
+        <v>27.973688078289246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="13">
+        <v>2010</v>
+      </c>
+      <c r="B63" s="53">
+        <v>2</v>
+      </c>
+      <c r="C63" s="52">
+        <v>23.979495571747627</v>
+      </c>
+      <c r="D63" s="52">
+        <v>25.070150479763495</v>
+      </c>
+      <c r="E63" s="52">
+        <v>23.78936175062568</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="13">
+        <v>2010</v>
+      </c>
+      <c r="B64" s="53">
+        <v>3</v>
+      </c>
+      <c r="C64" s="52">
+        <v>24.087643342471384</v>
+      </c>
+      <c r="D64" s="52">
+        <v>23.207813991903421</v>
+      </c>
+      <c r="E64" s="52">
+        <v>23.434911390634319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="13">
+        <v>2010</v>
+      </c>
+      <c r="B65" s="53">
+        <v>4</v>
+      </c>
+      <c r="C65" s="52">
+        <v>25.940180651703095</v>
+      </c>
+      <c r="D65" s="52">
+        <v>34.452302888439462</v>
+      </c>
+      <c r="E65" s="52">
+        <v>26.945883184883051</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="13">
+        <v>2011</v>
+      </c>
+      <c r="B66" s="53">
+        <v>1</v>
+      </c>
+      <c r="C66" s="52">
+        <v>25.043879945844857</v>
+      </c>
+      <c r="D66" s="52">
+        <v>34.07561971731684</v>
+      </c>
+      <c r="E66" s="52">
+        <v>26.462995044142843</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="13">
+        <v>2011</v>
+      </c>
+      <c r="B67" s="53">
+        <v>2</v>
+      </c>
+      <c r="C67" s="52">
+        <v>23.268226338602275</v>
+      </c>
+      <c r="D67" s="52">
+        <v>23.924810729178006</v>
+      </c>
+      <c r="E67" s="52">
+        <v>23.915519112422178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="13">
+        <v>2011</v>
+      </c>
+      <c r="B68" s="53">
+        <v>3</v>
+      </c>
+      <c r="C68" s="52">
+        <v>23.547776810453044</v>
+      </c>
+      <c r="D68" s="52">
+        <v>22.843999212403379</v>
+      </c>
+      <c r="E68" s="52">
+        <v>24.114346561521554</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="13">
+        <v>2011</v>
+      </c>
+      <c r="B69" s="53">
+        <v>4</v>
+      </c>
+      <c r="C69" s="52">
+        <v>24.204356089020528</v>
+      </c>
+      <c r="D69" s="52">
+        <v>30.63720146174505</v>
+      </c>
+      <c r="E69" s="52">
+        <v>25.994170693057555</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="13">
+        <v>2012</v>
+      </c>
+      <c r="B70" s="53">
+        <v>1</v>
+      </c>
+      <c r="C70" s="52">
+        <v>23.307260161991259</v>
+      </c>
+      <c r="D70" s="52">
+        <v>33.434294028043794</v>
+      </c>
+      <c r="E70" s="52">
+        <v>26.736292152693128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="13">
+        <v>2012</v>
+      </c>
+      <c r="B71" s="53">
+        <v>2</v>
+      </c>
+      <c r="C71" s="52">
+        <v>22.880041601459332</v>
+      </c>
+      <c r="D71" s="52">
+        <v>24.996250498212135</v>
+      </c>
+      <c r="E71" s="52">
+        <v>24.153185080738815</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="13">
+        <v>2012</v>
+      </c>
+      <c r="B72" s="53">
+        <v>3</v>
+      </c>
+      <c r="C72" s="52">
+        <v>23.044604316740806</v>
+      </c>
+      <c r="D72" s="52">
+        <v>22.96629606095842</v>
+      </c>
+      <c r="E72" s="52">
+        <v>23.913501791036825</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="13">
+        <v>2012</v>
+      </c>
+      <c r="B73" s="53">
+        <v>4</v>
+      </c>
+      <c r="C73" s="52">
+        <v>24.268713801367525</v>
+      </c>
+      <c r="D73" s="52">
+        <v>32.758487214492959</v>
+      </c>
+      <c r="E73" s="52">
+        <v>25.949392207311021</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="13">
+        <v>2013</v>
+      </c>
+      <c r="B74" s="53">
+        <v>1</v>
+      </c>
+      <c r="C74" s="52">
+        <v>23.740673633312177</v>
+      </c>
+      <c r="D74" s="52">
+        <v>34.239159305213917</v>
+      </c>
+      <c r="E74" s="52">
+        <v>27.168507892181694</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="13">
+        <v>2013</v>
+      </c>
+      <c r="B75" s="53">
+        <v>2</v>
+      </c>
+      <c r="C75" s="52">
+        <v>22.989318117640348</v>
+      </c>
+      <c r="D75" s="52">
+        <v>25.25614107144332</v>
+      </c>
+      <c r="E75" s="52">
+        <v>23.306142011482621</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="13">
+        <v>2013</v>
+      </c>
+      <c r="B76" s="53">
+        <v>3</v>
+      </c>
+      <c r="C76" s="52">
+        <v>23.151814525929431</v>
+      </c>
+      <c r="D76" s="52">
+        <v>22.4612664175053</v>
+      </c>
+      <c r="E76" s="52">
+        <v>24.011546945592663</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="13">
+        <v>2013</v>
+      </c>
+      <c r="B77" s="53">
+        <v>4</v>
+      </c>
+      <c r="C77" s="52">
+        <v>23.489847383882285</v>
+      </c>
+      <c r="D77" s="52">
+        <v>30.825778290916752</v>
+      </c>
+      <c r="E77" s="52">
+        <v>26.107289286954263</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="13">
+        <v>2014</v>
+      </c>
+      <c r="B78" s="53">
+        <v>1</v>
+      </c>
+      <c r="C78" s="52">
+        <v>23.129515284834788</v>
+      </c>
+      <c r="D78" s="52">
+        <v>31.589087088965066</v>
+      </c>
+      <c r="E78" s="52">
+        <v>25.108930115589263</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="13">
+        <v>2014</v>
+      </c>
+      <c r="B79" s="53">
+        <v>2</v>
+      </c>
+      <c r="C79" s="52">
+        <v>21.418607551933189</v>
+      </c>
+      <c r="D79" s="52">
+        <v>23.821586078160113</v>
+      </c>
+      <c r="E79" s="52">
+        <v>22.904841405115199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="13">
+        <v>2014</v>
+      </c>
+      <c r="B80" s="53">
+        <v>3</v>
+      </c>
+      <c r="C80" s="52">
+        <v>22.24369633375165</v>
+      </c>
+      <c r="D80" s="52">
+        <v>22.034898533285503</v>
+      </c>
+      <c r="E80" s="52">
+        <v>22.65954058766879</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="13">
+        <v>2014</v>
+      </c>
+      <c r="B81" s="53">
+        <v>4</v>
+      </c>
+      <c r="C81" s="52">
+        <v>21.686134102612456</v>
+      </c>
+      <c r="D81" s="52">
+        <v>29.739136029608709</v>
+      </c>
+      <c r="E81" s="52">
+        <v>24.817397323307794</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="13">
+        <v>2015</v>
+      </c>
+      <c r="B82" s="53">
+        <v>1</v>
+      </c>
+      <c r="C82" s="52">
+        <v>23.641892558575226</v>
+      </c>
+      <c r="D82" s="52">
+        <v>31.361044502021507</v>
+      </c>
+      <c r="E82" s="52">
+        <v>24.93304264133339</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="13">
+        <v>2015</v>
+      </c>
+      <c r="B83" s="53">
+        <v>2</v>
+      </c>
+      <c r="C83" s="52">
+        <v>21.911018832422339</v>
+      </c>
+      <c r="D83" s="52">
+        <v>23.721280183063442</v>
+      </c>
+      <c r="E83" s="52">
+        <v>22.433222589364963</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="13">
+        <v>2015</v>
+      </c>
+      <c r="B84" s="53">
+        <v>3</v>
+      </c>
+      <c r="C84" s="52">
+        <v>22.040952137887803</v>
+      </c>
+      <c r="D84" s="52">
+        <v>21.799774313384574</v>
+      </c>
+      <c r="E84" s="52">
+        <v>23.031197147636078</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="13">
+        <v>2015</v>
+      </c>
+      <c r="B85" s="53">
+        <v>4</v>
+      </c>
+      <c r="C85" s="52">
+        <v>20.666022668666919</v>
+      </c>
+      <c r="D85" s="52">
+        <v>29.747638311563804</v>
+      </c>
+      <c r="E85" s="52">
+        <v>24.751545727798536</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="13">
+        <v>2016</v>
+      </c>
+      <c r="B86" s="53">
+        <v>1</v>
+      </c>
+      <c r="C86" s="52">
+        <v>21.846824155604978</v>
+      </c>
+      <c r="D86" s="52">
+        <v>31.735939430222313</v>
+      </c>
+      <c r="E86" s="52">
+        <v>25.348701858599611</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="13">
+        <v>2016</v>
+      </c>
+      <c r="B87" s="53">
+        <v>2</v>
+      </c>
+      <c r="C87" s="52">
+        <v>21.301433609859696</v>
+      </c>
+      <c r="D87" s="52">
+        <v>23.525055816546612</v>
+      </c>
+      <c r="E87" s="52">
+        <v>22.20023166652895</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="13">
+        <v>2016</v>
+      </c>
+      <c r="B88" s="53">
+        <v>3</v>
+      </c>
+      <c r="C88" s="52">
+        <v>21.583282216891163</v>
+      </c>
+      <c r="D88" s="52">
+        <v>21.369560041162156</v>
+      </c>
+      <c r="E88" s="52">
+        <v>22.313859470532819</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="13">
+        <v>2016</v>
+      </c>
+      <c r="B89" s="53">
+        <v>4</v>
+      </c>
+      <c r="C89" s="52">
+        <v>22.464643896660238</v>
+      </c>
+      <c r="D89" s="52">
+        <v>30.065168568423807</v>
+      </c>
+      <c r="E89" s="52">
+        <v>24.576097138907166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B90" s="53">
+        <v>1</v>
+      </c>
+      <c r="C90" s="52">
+        <v>21.694759661304058</v>
+      </c>
+      <c r="D90" s="52">
+        <v>30.126618313210088</v>
+      </c>
+      <c r="E90" s="52">
+        <v>24.048543893423059</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B91" s="53">
+        <v>2</v>
+      </c>
+      <c r="C91" s="52">
+        <v>20.507291030752818</v>
+      </c>
+      <c r="D91" s="52">
+        <v>22.293497319544748</v>
+      </c>
+      <c r="E91" s="52">
+        <v>22.009928314618953</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B92" s="53">
+        <v>3</v>
+      </c>
+      <c r="C92" s="52">
+        <v>21.460736532006695</v>
+      </c>
+      <c r="D92" s="52">
+        <v>21.330638513065804</v>
+      </c>
+      <c r="E92" s="52">
+        <v>21.477152650006513</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B93" s="53">
+        <v>4</v>
+      </c>
+      <c r="C93" s="52">
+        <v>22.316690171592207</v>
+      </c>
+      <c r="D93" s="52">
+        <v>29.389587470545205</v>
+      </c>
+      <c r="E93" s="52">
+        <v>24.361512876341624</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B94" s="53">
+        <v>1</v>
+      </c>
+      <c r="C94" s="52">
+        <v>22.268670823112899</v>
+      </c>
+      <c r="D94" s="52">
+        <v>32.061005425248169</v>
+      </c>
+      <c r="E94" s="52">
+        <v>24.650234709929563</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B95" s="53">
+        <v>2</v>
+      </c>
+      <c r="C95" s="52">
+        <v>21.009322256530908</v>
+      </c>
+      <c r="D95" s="52">
+        <v>22.61854757220221</v>
+      </c>
+      <c r="E95" s="52">
+        <v>21.522067686349384</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B96" s="53">
+        <v>3</v>
+      </c>
+      <c r="C96" s="52">
+        <v>21.972386768146364</v>
+      </c>
+      <c r="D96" s="52">
+        <v>20.22690990252125</v>
+      </c>
+      <c r="E96" s="52">
+        <v>22.054888639135765</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B97" s="53">
+        <v>4</v>
+      </c>
+      <c r="C97" s="52">
+        <v>22.190999146457031</v>
+      </c>
+      <c r="D97" s="52">
+        <v>28.571910418893282</v>
+      </c>
+      <c r="E97" s="52">
+        <v>23.254973603564384</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B98" s="29">
+        <v>1</v>
+      </c>
+      <c r="C98" s="52">
+        <v>22.332120918085607</v>
+      </c>
+      <c r="D98" s="52">
+        <v>29.884136672527795</v>
+      </c>
+      <c r="E98" s="52">
+        <v>22.820905422602948</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B99" s="53">
+        <v>2</v>
+      </c>
+      <c r="C99" s="52">
+        <v>20.376391275269611</v>
+      </c>
+      <c r="D99" s="52">
+        <v>22.484378132173234</v>
+      </c>
+      <c r="E99" s="52">
+        <v>21.420042552270864</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B100" s="53">
+        <v>3</v>
+      </c>
+      <c r="C100" s="52">
+        <v>20.932865605238931</v>
+      </c>
+      <c r="D100" s="52">
+        <v>20.12449751616445</v>
+      </c>
+      <c r="E100" s="52">
+        <v>21.448496688097372</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B101" s="53">
+        <v>4</v>
+      </c>
+      <c r="C101" s="52">
+        <v>21.33847605395237</v>
+      </c>
+      <c r="D101" s="52">
+        <v>29.660511204025902</v>
+      </c>
+      <c r="E101" s="52">
+        <v>24.004212307060225</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="13">
+        <v>2020</v>
+      </c>
+      <c r="B102" s="29">
+        <v>1</v>
+      </c>
+      <c r="C102" s="52">
+        <v>21.449726053013244</v>
+      </c>
+      <c r="D102" s="52">
+        <v>29.840228426270688</v>
+      </c>
+      <c r="E102" s="52">
+        <v>22.328150623555025</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="13">
+        <v>2020</v>
+      </c>
+      <c r="B103" s="53">
+        <v>2</v>
+      </c>
+      <c r="C103" s="52">
+        <v>17.083298470486554</v>
+      </c>
+      <c r="D103" s="52">
+        <v>22.250433516857939</v>
+      </c>
+      <c r="E103" s="52">
+        <v>17.339576504619213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970DEB5E-50F3-5446-8CFE-E566FCB56113}">
   <dimension ref="A1:E307"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -44071,12 +44325,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701F7825-202A-A343-A428-3886807A912D}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -44087,7 +44341,7 @@
     <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="43" t="s">
         <v>10</v>
       </c>
@@ -44101,7 +44355,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="60">
         <v>1997</v>
       </c>
@@ -44114,8 +44368,16 @@
       <c r="D2" s="62">
         <v>25.042626000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="52">
+        <f>SUM('9.1'!C2:E2)</f>
+        <v>61.12565</v>
+      </c>
+      <c r="F2" s="52">
+        <f>SUM('9.1'!F2:K2)</f>
+        <v>25.042626000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="60">
         <v>1997</v>
       </c>
@@ -44128,8 +44390,16 @@
       <c r="D3" s="62">
         <v>23.689636999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="52">
+        <f>SUM('9.1'!C3:E3)</f>
+        <v>46.062024999999998</v>
+      </c>
+      <c r="F3" s="52">
+        <f>SUM('9.1'!F3:K3)</f>
+        <v>23.689636999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="60">
         <v>1997</v>
       </c>
@@ -44142,8 +44412,16 @@
       <c r="D4" s="62">
         <v>20.755146</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="52">
+        <f>SUM('9.1'!C4:E4)</f>
+        <v>47.431043000000003</v>
+      </c>
+      <c r="F4" s="52">
+        <f>SUM('9.1'!F4:K4)</f>
+        <v>20.755146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="60">
         <v>1997</v>
       </c>
@@ -44156,8 +44434,16 @@
       <c r="D5" s="62">
         <v>22.656091000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="52">
+        <f>SUM('9.1'!C5:E5)</f>
+        <v>59.483741000000002</v>
+      </c>
+      <c r="F5" s="52">
+        <f>SUM('9.1'!F5:K5)</f>
+        <v>22.656091000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="60">
         <v>1998</v>
       </c>
@@ -44170,8 +44456,16 @@
       <c r="D6" s="62">
         <v>25.352031999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="52">
+        <f>SUM('9.1'!C6:E6)</f>
+        <v>60.597006</v>
+      </c>
+      <c r="F6" s="52">
+        <f>SUM('9.1'!F6:K6)</f>
+        <v>25.352031999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="60">
         <v>1998</v>
       </c>
@@ -44184,8 +44478,16 @@
       <c r="D7" s="62">
         <v>22.242932</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="52">
+        <f>SUM('9.1'!C7:E7)</f>
+        <v>50.738194</v>
+      </c>
+      <c r="F7" s="52">
+        <f>SUM('9.1'!F7:K7)</f>
+        <v>22.242932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="60">
         <v>1998</v>
       </c>
@@ -44198,8 +44500,16 @@
       <c r="D8" s="62">
         <v>21.675391000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="52">
+        <f>SUM('9.1'!C8:E8)</f>
+        <v>50.274252000000004</v>
+      </c>
+      <c r="F8" s="52">
+        <f>SUM('9.1'!F8:K8)</f>
+        <v>21.675391000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="60">
         <v>1998</v>
       </c>
@@ -44212,8 +44522,16 @@
       <c r="D9" s="62">
         <v>25.991732333333335</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="52">
+        <f>SUM('9.1'!C9:E9)</f>
+        <v>59.183141000000006</v>
+      </c>
+      <c r="F9" s="52">
+        <f>SUM('9.1'!F9:K9)</f>
+        <v>25.991732333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="60">
         <v>1999</v>
       </c>
@@ -44226,8 +44544,16 @@
       <c r="D10" s="62">
         <v>25.909723</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="52">
+        <f>SUM('9.1'!C10:E10)</f>
+        <v>61.847920999999999</v>
+      </c>
+      <c r="F10" s="52">
+        <f>SUM('9.1'!F10:K10)</f>
+        <v>25.909723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="60">
         <v>1999</v>
       </c>
@@ -44240,8 +44566,16 @@
       <c r="D11" s="62">
         <v>23.723119999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="52">
+        <f>SUM('9.1'!C11:E11)</f>
+        <v>49.992102000000003</v>
+      </c>
+      <c r="F11" s="52">
+        <f>SUM('9.1'!F11:K11)</f>
+        <v>23.723119999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="60">
         <v>1999</v>
       </c>
@@ -44254,8 +44588,16 @@
       <c r="D12" s="62">
         <v>20.529277999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="52">
+        <f>SUM('9.1'!C12:E12)</f>
+        <v>50.611305999999999</v>
+      </c>
+      <c r="F12" s="52">
+        <f>SUM('9.1'!F12:K12)</f>
+        <v>20.529277999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="60">
         <v>1999</v>
       </c>
@@ -44268,8 +44610,16 @@
       <c r="D13" s="62">
         <v>22.493408000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="52">
+        <f>SUM('9.1'!C13:E13)</f>
+        <v>63.235697999999999</v>
+      </c>
+      <c r="F13" s="52">
+        <f>SUM('9.1'!F13:K13)</f>
+        <v>22.493408000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="60">
         <v>2000</v>
       </c>
@@ -44282,8 +44632,16 @@
       <c r="D14" s="62">
         <v>23.157974601999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="52">
+        <f>SUM('9.1'!C14:E14)</f>
+        <v>65.872368999999992</v>
+      </c>
+      <c r="F14" s="52">
+        <f>SUM('9.1'!F14:K14)</f>
+        <v>23.157974601999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="60">
         <v>2000</v>
       </c>
@@ -44296,8 +44654,16 @@
       <c r="D15" s="62">
         <v>20.096076752000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="52">
+        <f>SUM('9.1'!C15:E15)</f>
+        <v>55.748666999999998</v>
+      </c>
+      <c r="F15" s="52">
+        <f>SUM('9.1'!F15:K15)</f>
+        <v>20.096076752000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="60">
         <v>2000</v>
       </c>
@@ -44310,8 +44676,16 @@
       <c r="D16" s="62">
         <v>18.780427648</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="52">
+        <f>SUM('9.1'!C16:E16)</f>
+        <v>53.666561000000002</v>
+      </c>
+      <c r="F16" s="52">
+        <f>SUM('9.1'!F16:K16)</f>
+        <v>18.780427648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="60">
         <v>2000</v>
       </c>
@@ -44324,8 +44698,16 @@
       <c r="D17" s="62">
         <v>21.255315608</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="52">
+        <f>SUM('9.1'!C17:E17)</f>
+        <v>65.650492</v>
+      </c>
+      <c r="F17" s="52">
+        <f>SUM('9.1'!F17:K17)</f>
+        <v>21.255315608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="60">
         <v>2001</v>
       </c>
@@ -44338,8 +44720,16 @@
       <c r="D18" s="62">
         <v>21.967028394</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="52">
+        <f>SUM('9.1'!C18:E18)</f>
+        <v>71.924426000000011</v>
+      </c>
+      <c r="F18" s="52">
+        <f>SUM('9.1'!F18:K18)</f>
+        <v>21.967028394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="60">
         <v>2001</v>
       </c>
@@ -44352,8 +44742,16 @@
       <c r="D19" s="62">
         <v>19.157649974000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="52">
+        <f>SUM('9.1'!C19:E19)</f>
+        <v>58.661560000000001</v>
+      </c>
+      <c r="F19" s="52">
+        <f>SUM('9.1'!F19:K19)</f>
+        <v>19.157649974000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="60">
         <v>2001</v>
       </c>
@@ -44366,8 +44764,16 @@
       <c r="D20" s="62">
         <v>21.259752944999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="52">
+        <f>SUM('9.1'!C20:E20)</f>
+        <v>52.808014999999997</v>
+      </c>
+      <c r="F20" s="52">
+        <f>SUM('9.1'!F20:K20)</f>
+        <v>21.259752944999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="60">
         <v>2001</v>
       </c>
@@ -44380,8 +44786,16 @@
       <c r="D21" s="62">
         <v>24.487451817999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="52">
+        <f>SUM('9.1'!C21:E21)</f>
+        <v>64.384913000000012</v>
+      </c>
+      <c r="F21" s="52">
+        <f>SUM('9.1'!F21:K21)</f>
+        <v>24.487451817999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="60">
         <v>2002</v>
       </c>
@@ -44394,8 +44808,16 @@
       <c r="D22" s="62">
         <v>24.551197416999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="52">
+        <f>SUM('9.1'!C22:E22)</f>
+        <v>68.314986000000005</v>
+      </c>
+      <c r="F22" s="52">
+        <f>SUM('9.1'!F22:K22)</f>
+        <v>24.551197416999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="60">
         <v>2002</v>
       </c>
@@ -44408,8 +44830,16 @@
       <c r="D23" s="62">
         <v>21.006501058999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="52">
+        <f>SUM('9.1'!C23:E23)</f>
+        <v>56.313008999999994</v>
+      </c>
+      <c r="F23" s="52">
+        <f>SUM('9.1'!F23:K23)</f>
+        <v>21.006501058999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="60">
         <v>2002</v>
       </c>
@@ -44422,8 +44852,16 @@
       <c r="D24" s="62">
         <v>19.704804452999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="52">
+        <f>SUM('9.1'!C24:E24)</f>
+        <v>56.723686999999998</v>
+      </c>
+      <c r="F24" s="52">
+        <f>SUM('9.1'!F24:K24)</f>
+        <v>19.704804452999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="60">
         <v>2002</v>
       </c>
@@ -44436,8 +44874,16 @@
       <c r="D25" s="62">
         <v>20.543177311860212</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="52">
+        <f>SUM('9.1'!C25:E25)</f>
+        <v>68.528260000000003</v>
+      </c>
+      <c r="F25" s="52">
+        <f>SUM('9.1'!F25:K25)</f>
+        <v>20.543177311860212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="60">
         <v>2003</v>
       </c>
@@ -44450,8 +44896,16 @@
       <c r="D26" s="62">
         <v>23.709923995355375</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="52">
+        <f>SUM('9.1'!C26:E26)</f>
+        <v>69.983900503019242</v>
+      </c>
+      <c r="F26" s="52">
+        <f>SUM('9.1'!F26:K26)</f>
+        <v>23.709923995355375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="60">
         <v>2003</v>
       </c>
@@ -44464,8 +44918,16 @@
       <c r="D27" s="62">
         <v>21.503332136263722</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="52">
+        <f>SUM('9.1'!C27:E27)</f>
+        <v>58.380272758918096</v>
+      </c>
+      <c r="F27" s="52">
+        <f>SUM('9.1'!F27:K27)</f>
+        <v>21.503332136263722</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="60">
         <v>2003</v>
       </c>
@@ -44478,8 +44940,16 @@
       <c r="D28" s="62">
         <v>19.853031673706564</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="52">
+        <f>SUM('9.1'!C28:E28)</f>
+        <v>58.005589631293432</v>
+      </c>
+      <c r="F28" s="52">
+        <f>SUM('9.1'!F28:K28)</f>
+        <v>19.853031673706564</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="60">
         <v>2003</v>
       </c>
@@ -44492,8 +44962,16 @@
       <c r="D29" s="62">
         <v>20.462866740053673</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="52">
+        <f>SUM('9.1'!C29:E29)</f>
+        <v>71.313335763946341</v>
+      </c>
+      <c r="F29" s="52">
+        <f>SUM('9.1'!F29:K29)</f>
+        <v>20.462866740053673</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="60">
         <v>2004</v>
       </c>
@@ -44506,8 +44984,16 @@
       <c r="D30" s="62">
         <v>23.326055544904843</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="52">
+        <f>SUM('9.1'!C30:E30)</f>
+        <v>73.021052993221815</v>
+      </c>
+      <c r="F30" s="52">
+        <f>SUM('9.1'!F30:K30)</f>
+        <v>23.326055544904843</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="60">
         <v>2004</v>
       </c>
@@ -44520,8 +45006,16 @@
       <c r="D31" s="62">
         <v>17.971877365575988</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="52">
+        <f>SUM('9.1'!C31:E31)</f>
+        <v>56.916192643104807</v>
+      </c>
+      <c r="F31" s="52">
+        <f>SUM('9.1'!F31:K31)</f>
+        <v>17.971877365575988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="60">
         <v>2004</v>
       </c>
@@ -44534,8 +45028,16 @@
       <c r="D32" s="62">
         <v>18.24760159944233</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="52">
+        <f>SUM('9.1'!C32:E32)</f>
+        <v>59.072444813720878</v>
+      </c>
+      <c r="F32" s="52">
+        <f>SUM('9.1'!F32:K32)</f>
+        <v>18.24760159944233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="60">
         <v>2004</v>
       </c>
@@ -44548,8 +45050,16 @@
       <c r="D33" s="62">
         <v>19.404611120499286</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="52">
+        <f>SUM('9.1'!C33:E33)</f>
+        <v>72.212861424238</v>
+      </c>
+      <c r="F33" s="52">
+        <f>SUM('9.1'!F33:K33)</f>
+        <v>19.404611120499286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="60">
         <v>2005</v>
       </c>
@@ -44562,8 +45072,16 @@
       <c r="D34" s="62">
         <v>22.794001339922271</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="52">
+        <f>SUM('9.1'!C34:E34)</f>
+        <v>72.111130737289528</v>
+      </c>
+      <c r="F34" s="52">
+        <f>SUM('9.1'!F34:K34)</f>
+        <v>22.794001339922271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="60">
         <v>2005</v>
       </c>
@@ -44576,8 +45094,16 @@
       <c r="D35" s="62">
         <v>19.55767858919393</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="52">
+        <f>SUM('9.1'!C35:E35)</f>
+        <v>60.708703954385427</v>
+      </c>
+      <c r="F35" s="52">
+        <f>SUM('9.1'!F35:K35)</f>
+        <v>19.55767858919393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="60">
         <v>2005</v>
       </c>
@@ -44590,8 +45116,16 @@
       <c r="D36" s="62">
         <v>19.732487377626825</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="52">
+        <f>SUM('9.1'!C36:E36)</f>
+        <v>56.881442999420571</v>
+      </c>
+      <c r="F36" s="52">
+        <f>SUM('9.1'!F36:K36)</f>
+        <v>19.732487377626825</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="60">
         <v>2005</v>
       </c>
@@ -44604,8 +45138,16 @@
       <c r="D37" s="62">
         <v>19.395580547093154</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="52">
+        <f>SUM('9.1'!C37:E37)</f>
+        <v>71.989948417150416</v>
+      </c>
+      <c r="F37" s="52">
+        <f>SUM('9.1'!F37:K37)</f>
+        <v>19.395580547093154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="60">
         <v>2006</v>
       </c>
@@ -44618,8 +45160,16 @@
       <c r="D38" s="62">
         <v>22.256017437633531</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="52">
+        <f>SUM('9.1'!C38:E38)</f>
+        <v>74.378584115057919</v>
+      </c>
+      <c r="F38" s="52">
+        <f>SUM('9.1'!F38:K38)</f>
+        <v>22.256017437633531</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="60">
         <v>2006</v>
       </c>
@@ -44632,8 +45182,16 @@
       <c r="D39" s="62">
         <v>19.532751863014891</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="52">
+        <f>SUM('9.1'!C39:E39)</f>
+        <v>58.146634946854007</v>
+      </c>
+      <c r="F39" s="52">
+        <f>SUM('9.1'!F39:K39)</f>
+        <v>19.532751863014891</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="60">
         <v>2006</v>
       </c>
@@ -44646,8 +45204,16 @@
       <c r="D40" s="62">
         <v>18.254746496264588</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="52">
+        <f>SUM('9.1'!C40:E40)</f>
+        <v>58.674113112275094</v>
+      </c>
+      <c r="F40" s="52">
+        <f>SUM('9.1'!F40:K40)</f>
+        <v>18.254746496264588</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="60">
         <v>2006</v>
       </c>
@@ -44660,8 +45226,16 @@
       <c r="D41" s="62">
         <v>15.517467930861335</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="52">
+        <f>SUM('9.1'!C41:E41)</f>
+        <v>73.718267932051205</v>
+      </c>
+      <c r="F41" s="52">
+        <f>SUM('9.1'!F41:K41)</f>
+        <v>15.517467930861335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="60">
         <v>2007</v>
       </c>
@@ -44674,8 +45248,16 @@
       <c r="D42" s="62">
         <v>17.57482294127815</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="52">
+        <f>SUM('9.1'!C42:E42)</f>
+        <v>75.510421568419289</v>
+      </c>
+      <c r="F42" s="52">
+        <f>SUM('9.1'!F42:K42)</f>
+        <v>17.57482294127815</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="60">
         <v>2007</v>
       </c>
@@ -44688,8 +45270,16 @@
       <c r="D43" s="62">
         <v>15.457505108542282</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="52">
+        <f>SUM('9.1'!C43:E43)</f>
+        <v>63.187057112434616</v>
+      </c>
+      <c r="F43" s="52">
+        <f>SUM('9.1'!F43:K43)</f>
+        <v>15.457505108542282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="60">
         <v>2007</v>
       </c>
@@ -44702,8 +45292,16 @@
       <c r="D44" s="62">
         <v>17.679145903998087</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="52">
+        <f>SUM('9.1'!C44:E44)</f>
+        <v>58.227583428216093</v>
+      </c>
+      <c r="F44" s="52">
+        <f>SUM('9.1'!F44:K44)</f>
+        <v>17.679145903998087</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="60">
         <v>2007</v>
       </c>
@@ -44716,8 +45314,16 @@
       <c r="D45" s="62">
         <v>16.326283607741008</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="52">
+        <f>SUM('9.1'!C45:E45)</f>
+        <v>77.418861897591171</v>
+      </c>
+      <c r="F45" s="52">
+        <f>SUM('9.1'!F45:K45)</f>
+        <v>16.326283607741008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="60">
         <v>2008</v>
       </c>
@@ -44730,8 +45336,16 @@
       <c r="D46" s="62">
         <v>17.102432165772896</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="52">
+        <f>SUM('9.1'!C46:E46)</f>
+        <v>76.855114757534892</v>
+      </c>
+      <c r="F46" s="52">
+        <f>SUM('9.1'!F46:K46)</f>
+        <v>17.102432165772896</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="60">
         <v>2008</v>
       </c>
@@ -44744,8 +45358,16 @@
       <c r="D47" s="62">
         <v>13.257924041910529</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="52">
+        <f>SUM('9.1'!C47:E47)</f>
+        <v>64.581626986261128</v>
+      </c>
+      <c r="F47" s="52">
+        <f>SUM('9.1'!F47:K47)</f>
+        <v>13.257924041910529</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="60">
         <v>2008</v>
       </c>
@@ -44758,8 +45380,16 @@
       <c r="D48" s="62">
         <v>13.033929939206317</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="52">
+        <f>SUM('9.1'!C48:E48)</f>
+        <v>61.870264707474149</v>
+      </c>
+      <c r="F48" s="52">
+        <f>SUM('9.1'!F48:K48)</f>
+        <v>13.033929939206317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="60">
         <v>2008</v>
       </c>
@@ -44772,8 +45402,16 @@
       <c r="D49" s="62">
         <v>16.221791881816671</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="52">
+        <f>SUM('9.1'!C49:E49)</f>
+        <v>73.579204085616595</v>
+      </c>
+      <c r="F49" s="52">
+        <f>SUM('9.1'!F49:K49)</f>
+        <v>16.221791881816671</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="60">
         <v>2009</v>
       </c>
@@ -44786,8 +45424,16 @@
       <c r="D50" s="62">
         <v>19.279254814587816</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="52">
+        <f>SUM('9.1'!C50:E50)</f>
+        <v>71.783368577469844</v>
+      </c>
+      <c r="F50" s="52">
+        <f>SUM('9.1'!F50:K50)</f>
+        <v>19.279254814587816</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="60">
         <v>2009</v>
       </c>
@@ -44800,8 +45446,16 @@
       <c r="D51" s="62">
         <v>19.128215492403911</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="52">
+        <f>SUM('9.1'!C51:E51)</f>
+        <v>53.713363273323196</v>
+      </c>
+      <c r="F51" s="52">
+        <f>SUM('9.1'!F51:K51)</f>
+        <v>19.128215492403911</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="60">
         <v>2009</v>
       </c>
@@ -44814,8 +45468,16 @@
       <c r="D52" s="62">
         <v>18.985410002678769</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="52">
+        <f>SUM('9.1'!C52:E52)</f>
+        <v>54.068868379689135</v>
+      </c>
+      <c r="F52" s="52">
+        <f>SUM('9.1'!F52:K52)</f>
+        <v>18.985410002678769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="60">
         <v>2009</v>
       </c>
@@ -44828,8 +45490,16 @@
       <c r="D53" s="62">
         <v>18.589842085928165</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="52">
+        <f>SUM('9.1'!C53:E53)</f>
+        <v>68.039675996765467</v>
+      </c>
+      <c r="F53" s="52">
+        <f>SUM('9.1'!F53:K53)</f>
+        <v>18.589842085928165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="60">
         <v>2010</v>
       </c>
@@ -44842,8 +45512,16 @@
       <c r="D54" s="62">
         <v>19.808237835402256</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="52">
+        <f>SUM('9.1'!C54:E54)</f>
+        <v>74.39955812524498</v>
+      </c>
+      <c r="F54" s="52">
+        <f>SUM('9.1'!F54:K54)</f>
+        <v>19.808237835402256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="60">
         <v>2010</v>
       </c>
@@ -44856,8 +45534,16 @@
       <c r="D55" s="62">
         <v>15.061980025472749</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="52">
+        <f>SUM('9.1'!C55:E55)</f>
+        <v>59.424366462491946</v>
+      </c>
+      <c r="F55" s="52">
+        <f>SUM('9.1'!F55:K55)</f>
+        <v>15.061980025472749</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="60">
         <v>2010</v>
       </c>
@@ -44870,8 +45556,16 @@
       <c r="D56" s="62">
         <v>15.518445702838916</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" s="52">
+        <f>SUM('9.1'!C56:E56)</f>
+        <v>55.327615321583842</v>
+      </c>
+      <c r="F56" s="52">
+        <f>SUM('9.1'!F56:K56)</f>
+        <v>15.518445702838916</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="60">
         <v>2010</v>
       </c>
@@ -44884,8 +45578,16 @@
       <c r="D57" s="62">
         <v>20.119208410366578</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" s="52">
+        <f>SUM('9.1'!C57:E57)</f>
+        <v>70.406068685281241</v>
+      </c>
+      <c r="F57" s="52">
+        <f>SUM('9.1'!F57:K57)</f>
+        <v>20.119208410366578</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="60">
         <v>2011</v>
       </c>
@@ -44898,8 +45600,16 @@
       <c r="D58" s="62">
         <v>22.516230152269284</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" s="52">
+        <f>SUM('9.1'!C58:E58)</f>
+        <v>66.76662552193082</v>
+      </c>
+      <c r="F58" s="52">
+        <f>SUM('9.1'!F58:K58)</f>
+        <v>22.516230152269284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="60">
         <v>2011</v>
       </c>
@@ -44912,8 +45622,16 @@
       <c r="D59" s="62">
         <v>22.164983861192102</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="52">
+        <f>SUM('9.1'!C59:E59)</f>
+        <v>50.165265789254477</v>
+      </c>
+      <c r="F59" s="52">
+        <f>SUM('9.1'!F59:K59)</f>
+        <v>22.164983861192102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="60">
         <v>2011</v>
       </c>
@@ -44926,8 +45644,16 @@
       <c r="D60" s="62">
         <v>18.792046803560595</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" s="52">
+        <f>SUM('9.1'!C60:E60)</f>
+        <v>52.249074437127717</v>
+      </c>
+      <c r="F60" s="52">
+        <f>SUM('9.1'!F60:K60)</f>
+        <v>18.792046803560595</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="60">
         <v>2011</v>
       </c>
@@ -44940,8 +45666,16 @@
       <c r="D61" s="62">
         <v>20.848316077769738</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" s="52">
+        <f>SUM('9.1'!C61:E61)</f>
+        <v>61.653978553632456</v>
+      </c>
+      <c r="F61" s="52">
+        <f>SUM('9.1'!F61:K61)</f>
+        <v>20.848316077769738</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="60">
         <v>2012</v>
       </c>
@@ -44954,8 +45688,16 @@
       <c r="D62" s="62">
         <v>23.05350973472153</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" s="52">
+        <f>SUM('9.1'!C62:E62)</f>
+        <v>62.651286794922449</v>
+      </c>
+      <c r="F62" s="52">
+        <f>SUM('9.1'!F62:K62)</f>
+        <v>23.05350973472153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="60">
         <v>2012</v>
       </c>
@@ -44968,8 +45710,16 @@
       <c r="D63" s="62">
         <v>21.581799178796338</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" s="52">
+        <f>SUM('9.1'!C63:E63)</f>
+        <v>50.596068728448984</v>
+      </c>
+      <c r="F63" s="52">
+        <f>SUM('9.1'!F63:K63)</f>
+        <v>21.581799178796338</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="60">
         <v>2012</v>
       </c>
@@ -44982,8 +45732,16 @@
       <c r="D64" s="62">
         <v>22.193847791053493</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" s="52">
+        <f>SUM('9.1'!C64:E64)</f>
+        <v>46.235852648513756</v>
+      </c>
+      <c r="F64" s="52">
+        <f>SUM('9.1'!F64:K64)</f>
+        <v>22.193847791053493</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="60">
         <v>2012</v>
       </c>
@@ -44996,8 +45754,16 @@
       <c r="D65" s="62">
         <v>23.944533380653692</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" s="52">
+        <f>SUM('9.1'!C65:E65)</f>
+        <v>59.218351328376059</v>
+      </c>
+      <c r="F65" s="52">
+        <f>SUM('9.1'!F65:K65)</f>
+        <v>23.944533380653692</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="60">
         <v>2013</v>
       </c>
@@ -45010,8 +45776,16 @@
       <c r="D66" s="62">
         <v>25.17549525710589</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" s="52">
+        <f>SUM('9.1'!C66:E66)</f>
+        <v>62.55256821931912</v>
+      </c>
+      <c r="F66" s="52">
+        <f>SUM('9.1'!F66:K66)</f>
+        <v>25.29516616802589</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="60">
         <v>2013</v>
       </c>
@@ -45024,8 +45798,16 @@
       <c r="D67" s="62">
         <v>22.788368186489429</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" s="52">
+        <f>SUM('9.1'!C67:E67)</f>
+        <v>48.113523680425146</v>
+      </c>
+      <c r="F67" s="52">
+        <f>SUM('9.1'!F67:K67)</f>
+        <v>22.897149100159428</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="60">
         <v>2013</v>
       </c>
@@ -45038,8 +45820,16 @@
       <c r="D68" s="62">
         <v>23.491786077505456</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" s="52">
+        <f>SUM('9.1'!C68:E68)</f>
+        <v>43.613475971181003</v>
+      </c>
+      <c r="F68" s="52">
+        <f>SUM('9.1'!F68:K68)</f>
+        <v>23.614726501595456</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="60">
         <v>2013</v>
       </c>
@@ -45052,8 +45842,16 @@
       <c r="D69" s="62">
         <v>28.518015368163937</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" s="52">
+        <f>SUM('9.1'!C69:E69)</f>
+        <v>51.347490030814441</v>
+      </c>
+      <c r="F69" s="52">
+        <f>SUM('9.1'!F69:K69)</f>
+        <v>28.636338181783938</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="60">
         <v>2014</v>
       </c>
@@ -45066,8 +45864,16 @@
       <c r="D70" s="62">
         <v>28.094055258342507</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" s="52">
+        <f>SUM('9.1'!C70:E70)</f>
+        <v>51.117456185135445</v>
+      </c>
+      <c r="F70" s="52">
+        <f>SUM('9.1'!F70:K70)</f>
+        <v>28.207274073342507</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="60">
         <v>2014</v>
       </c>
@@ -45080,8 +45886,16 @@
       <c r="D71" s="62">
         <v>23.724857877243458</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" s="52">
+        <f>SUM('9.1'!C71:E71)</f>
+        <v>41.625762104028851</v>
+      </c>
+      <c r="F71" s="52">
+        <f>SUM('9.1'!F71:K71)</f>
+        <v>23.835171982243459</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="60">
         <v>2014</v>
       </c>
@@ -45094,8 +45908,16 @@
       <c r="D72" s="62">
         <v>22.144604721434945</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" s="52">
+        <f>SUM('9.1'!C72:E72)</f>
+        <v>41.011847072479981</v>
+      </c>
+      <c r="F72" s="52">
+        <f>SUM('9.1'!F72:K72)</f>
+        <v>22.272572461434944</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="60">
         <v>2014</v>
       </c>
@@ -45108,8 +45930,16 @@
       <c r="D73" s="62">
         <v>26.729797740473181</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" s="52">
+        <f>SUM('9.1'!C73:E73)</f>
+        <v>49.06751860566456</v>
+      </c>
+      <c r="F73" s="52">
+        <f>SUM('9.1'!F73:K73)</f>
+        <v>26.85331657547318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="60">
         <v>2015</v>
       </c>
@@ -45122,8 +45952,16 @@
       <c r="D74" s="62">
         <v>31.830385996280629</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" s="52">
+        <f>SUM('9.1'!C74:E74)</f>
+        <v>48.320278276202217</v>
+      </c>
+      <c r="F74" s="52">
+        <f>SUM('9.1'!F74:K74)</f>
+        <v>31.94964646628063</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="60">
         <v>2015</v>
       </c>
@@ -45136,8 +45974,16 @@
       <c r="D75" s="62">
         <v>27.701908839658959</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" s="52">
+        <f>SUM('9.1'!C75:E75)</f>
+        <v>35.647257280285736</v>
+      </c>
+      <c r="F75" s="52">
+        <f>SUM('9.1'!F75:K75)</f>
+        <v>27.818240439658958</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="60">
         <v>2015</v>
       </c>
@@ -45150,8 +45996,16 @@
       <c r="D76" s="62">
         <v>26.043345234263075</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" s="52">
+        <f>SUM('9.1'!C76:E76)</f>
+        <v>35.624284938341106</v>
+      </c>
+      <c r="F76" s="52">
+        <f>SUM('9.1'!F76:K76)</f>
+        <v>26.235007334263074</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="60">
         <v>2015</v>
       </c>
@@ -45164,8 +46018,16 @@
       <c r="D77" s="62">
         <v>33.786950511751535</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" s="52">
+        <f>SUM('9.1'!C77:E77)</f>
+        <v>39.868819459995265</v>
+      </c>
+      <c r="F77" s="52">
+        <f>SUM('9.1'!F77:K77)</f>
+        <v>33.979300311751537</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="60">
         <v>2016</v>
       </c>
@@ -45178,8 +46040,16 @@
       <c r="D78" s="62">
         <v>31.962138246039373</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" s="52">
+        <f>SUM('9.1'!C78:E78)</f>
+        <v>44.839879535440801</v>
+      </c>
+      <c r="F78" s="52">
+        <f>SUM('9.1'!F78:K78)</f>
+        <v>32.227451176039374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="60">
         <v>2016</v>
       </c>
@@ -45192,8 +46062,16 @@
       <c r="D79" s="62">
         <v>26.660040275209369</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" s="52">
+        <f>SUM('9.1'!C79:E79)</f>
+        <v>35.790075067458297</v>
+      </c>
+      <c r="F79" s="52">
+        <f>SUM('9.1'!F79:K79)</f>
+        <v>26.832000580209368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="60">
         <v>2016</v>
       </c>
@@ -45206,8 +46084,16 @@
       <c r="D80" s="62">
         <v>28.194698311322821</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" s="52">
+        <f>SUM('9.1'!C80:E80)</f>
+        <v>31.914902027915893</v>
+      </c>
+      <c r="F80" s="52">
+        <f>SUM('9.1'!F80:K80)</f>
+        <v>28.397349446322821</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="60">
         <v>2016</v>
       </c>
@@ -45220,8 +46106,16 @@
       <c r="D81" s="62">
         <v>30.670326122294981</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" s="52">
+        <f>SUM('9.1'!C81:E81)</f>
+        <v>46.744593735546545</v>
+      </c>
+      <c r="F81" s="52">
+        <f>SUM('9.1'!F81:K81)</f>
+        <v>30.901509070294981</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="60">
         <v>2017</v>
       </c>
@@ -45234,8 +46128,16 @@
       <c r="D82" s="62">
         <v>33.185644209861749</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" s="52">
+        <f>SUM('9.1'!C82:E82)</f>
+        <v>43.9354973134311</v>
+      </c>
+      <c r="F82" s="52">
+        <f>SUM('9.1'!F82:K82)</f>
+        <v>33.475988352361746</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="60">
         <v>2017</v>
       </c>
@@ -45248,8 +46150,16 @@
       <c r="D83" s="62">
         <v>30.112422014418357</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" s="52">
+        <f>SUM('9.1'!C83:E83)</f>
+        <v>29.97859758608697</v>
+      </c>
+      <c r="F83" s="52">
+        <f>SUM('9.1'!F83:K83)</f>
+        <v>30.370302952918358</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="60">
         <v>2017</v>
       </c>
@@ -45262,8 +46172,16 @@
       <c r="D84" s="62">
         <v>30.04769381039754</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" s="52">
+        <f>SUM('9.1'!C84:E84)</f>
+        <v>28.792997035236819</v>
+      </c>
+      <c r="F84" s="52">
+        <f>SUM('9.1'!F84:K84)</f>
+        <v>30.35539064789754</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="60">
         <v>2017</v>
       </c>
@@ -45276,8 +46194,16 @@
       <c r="D85" s="62">
         <v>34.619064384451754</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" s="52">
+        <f>SUM('9.1'!C85:E85)</f>
+        <v>41.350431118966618</v>
+      </c>
+      <c r="F85" s="52">
+        <f>SUM('9.1'!F85:K85)</f>
+        <v>34.910973664451753</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="60">
         <v>2018</v>
       </c>
@@ -45290,8 +46216,16 @@
       <c r="D86" s="62">
         <v>34.857047622256673</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" s="52">
+        <f>SUM('9.1'!C86:E86)</f>
+        <v>41.605118482451353</v>
+      </c>
+      <c r="F86" s="52">
+        <f>SUM('9.1'!F86:K86)</f>
+        <v>35.151475147256676</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="60">
         <v>2018</v>
       </c>
@@ -45304,8 +46238,16 @@
       <c r="D87" s="62">
         <v>30.197314208501982</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" s="52">
+        <f>SUM('9.1'!C87:E87)</f>
+        <v>29.739996299982295</v>
+      </c>
+      <c r="F87" s="52">
+        <f>SUM('9.1'!F87:K87)</f>
+        <v>30.465396756501981</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="60">
         <v>2018</v>
       </c>
@@ -45318,8 +46260,16 @@
       <c r="D88" s="62">
         <v>31.103212224404949</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" s="52">
+        <f>SUM('9.1'!C88:E88)</f>
+        <v>27.68239220153054</v>
+      </c>
+      <c r="F88" s="52">
+        <f>SUM('9.1'!F88:K88)</f>
+        <v>31.355212693404948</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="60">
         <v>2018</v>
       </c>
@@ -45332,8 +46282,16 @@
       <c r="D89" s="62">
         <v>36.522895614357033</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" s="52">
+        <f>SUM('9.1'!C89:E89)</f>
+        <v>35.024176260176745</v>
+      </c>
+      <c r="F89" s="52">
+        <f>SUM('9.1'!F89:K89)</f>
+        <v>36.72638265585703</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="60">
         <v>2019</v>
       </c>
@@ -45346,8 +46304,16 @@
       <c r="D90" s="62">
         <v>34.716640489926412</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" s="52">
+        <f>SUM('9.1'!C90:E90)</f>
+        <v>35.868061617577347</v>
+      </c>
+      <c r="F90" s="52">
+        <f>SUM('9.1'!F90:K90)</f>
+        <v>34.934951342426409</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="60">
         <v>2019</v>
       </c>
@@ -45360,8 +46326,16 @@
       <c r="D91" s="62">
         <v>28.759251436991132</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" s="52">
+        <f>SUM('9.1'!C91:E91)</f>
+        <v>29.591328810166925</v>
+      </c>
+      <c r="F91" s="52">
+        <f>SUM('9.1'!F91:K91)</f>
+        <v>28.998389443491131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="60">
         <v>2019</v>
       </c>
@@ -45374,8 +46348,16 @@
       <c r="D92" s="62">
         <v>31.247336901041358</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" s="52">
+        <f>SUM('9.1'!C92:E92)</f>
+        <v>25.828483263575155</v>
+      </c>
+      <c r="F92" s="52">
+        <f>SUM('9.1'!F92:K92)</f>
+        <v>31.526413964541359</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="60">
         <v>2019</v>
       </c>
@@ -45388,8 +46370,16 @@
       <c r="D93" s="62">
         <v>38.162217792615969</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" s="52">
+        <f>SUM('9.1'!C93:E93)</f>
+        <v>32.373900027453985</v>
+      </c>
+      <c r="F93" s="52">
+        <f>SUM('9.1'!F93:K93)</f>
+        <v>38.471311940115967</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="60">
         <v>2020</v>
       </c>
@@ -45402,8 +46392,16 @@
       <c r="D94" s="62">
         <v>42.348804550421114</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" s="52">
+        <f>SUM('9.1'!C94:E94)</f>
+        <v>26.806389419133769</v>
+      </c>
+      <c r="F94" s="52">
+        <f>SUM('9.1'!F94:K94)</f>
+        <v>42.718861575457481</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="60">
         <v>2020</v>
       </c>
@@ -45415,6 +46413,14 @@
       </c>
       <c r="D95" s="62">
         <v>30.135003795038401</v>
+      </c>
+      <c r="E95" s="52">
+        <f>SUM('9.1'!C95:E95)</f>
+        <v>19.836441858481642</v>
+      </c>
+      <c r="F95" s="52">
+        <f>SUM('9.1'!F95:K95)</f>
+        <v>30.475688269715985</v>
       </c>
     </row>
   </sheetData>
@@ -45422,12 +46428,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55480FB2-8C6B-5C42-9FA3-459C4F024B62}">
   <dimension ref="A1:D283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -49403,12 +50409,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5CDC85-2BF7-3E48-8159-BA636C29463F}">
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -52755,7 +53761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BF825A-D0FA-8F40-AE34-FAE0B0C8E26D}">
   <dimension ref="A1:K283"/>
   <sheetViews>

--- a/data/electricity_clean.xlsx
+++ b/data/electricity_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robyn/PycharmProjects/cfg-big-data-challenge/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED2EA7F-E241-6243-BB5B-360BF0F183ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E5CD68-4AE8-8B4C-B241-E5EA774990FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23300" yWindow="460" windowWidth="15100" windowHeight="19540" xr2:uid="{D3D9E6EF-7CDD-2D4C-979A-3E58E75DD25C}"/>
+    <workbookView xWindow="20200" yWindow="460" windowWidth="18200" windowHeight="19540" xr2:uid="{D3D9E6EF-7CDD-2D4C-979A-3E58E75DD25C}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="2" r:id="rId1"/>
@@ -3184,7 +3184,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3420,7 +3420,7 @@
         <v>65</v>
       </c>
       <c r="D15">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="E15" t="s">
         <v>66</v>
@@ -3437,7 +3437,7 @@
         <v>67</v>
       </c>
       <c r="D16">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="E16" t="s">
         <v>66</v>
@@ -25434,7 +25434,7 @@
   <dimension ref="A1:C307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26142,7 +26142,7 @@
         <v>2000</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C64" s="56">
         <v>33.506999999999998</v>
@@ -28012,7 +28012,7 @@
         <v>2014</v>
       </c>
       <c r="B234" s="55" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C234" s="57">
         <v>25.032112687202414</v>

--- a/data/electricity_clean.xlsx
+++ b/data/electricity_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robyn/PycharmProjects/cfg-big-data-challenge/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E5CD68-4AE8-8B4C-B241-E5EA774990FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC7A2E0-10D1-3F44-B8D5-D3282C87FA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20200" yWindow="460" windowWidth="18200" windowHeight="19540" xr2:uid="{D3D9E6EF-7CDD-2D4C-979A-3E58E75DD25C}"/>
+    <workbookView xWindow="20200" yWindow="460" windowWidth="18200" windowHeight="19540" firstSheet="16" activeTab="22" xr2:uid="{D3D9E6EF-7CDD-2D4C-979A-3E58E75DD25C}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="2" r:id="rId1"/>
@@ -302,13 +302,13 @@
     <t>This is actually fossil vs non-fossil fuels as nuclear is included in renewable but it isn't technically classed as renewable energy</t>
   </si>
   <si>
-    <t>fossil</t>
+    <t>6.0</t>
   </si>
   <si>
-    <t>non-fossil</t>
+    <t>renewable</t>
   </si>
   <si>
-    <t>6.0</t>
+    <t>non-renewable</t>
   </si>
 </sst>
 </file>
@@ -3183,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFC29EB-9B4F-DD45-814A-1F378276BC8C}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="64" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -44330,7 +44330,7 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -44349,7 +44349,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>81</v>
@@ -44363,19 +44363,15 @@
         <v>1</v>
       </c>
       <c r="C2" s="62">
-        <v>61.12565</v>
+        <f>SUM('9.1'!C2:F2,'9.1'!K2)</f>
+        <v>85.041349999999994</v>
       </c>
       <c r="D2" s="62">
-        <v>25.042626000000002</v>
-      </c>
-      <c r="E2" s="52">
-        <f>SUM('9.1'!C2:E2)</f>
-        <v>61.12565</v>
-      </c>
-      <c r="F2" s="52">
-        <f>SUM('9.1'!F2:K2)</f>
-        <v>25.042626000000002</v>
-      </c>
+        <f>SUM('9.1'!G2:J2)</f>
+        <v>1.1269260000000001</v>
+      </c>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="60">
@@ -44385,19 +44381,15 @@
         <v>2</v>
       </c>
       <c r="C3" s="62">
-        <v>46.062024999999998</v>
+        <f>SUM('9.1'!C3:F3,'9.1'!K3)</f>
+        <v>69.178894999999997</v>
       </c>
       <c r="D3" s="62">
-        <v>23.689636999999998</v>
-      </c>
-      <c r="E3" s="52">
-        <f>SUM('9.1'!C3:E3)</f>
-        <v>46.062024999999998</v>
-      </c>
-      <c r="F3" s="52">
-        <f>SUM('9.1'!F3:K3)</f>
-        <v>23.689636999999998</v>
-      </c>
+        <f>SUM('9.1'!G3:J3)</f>
+        <v>0.57276700000000003</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="60">
@@ -44407,19 +44399,15 @@
         <v>3</v>
       </c>
       <c r="C4" s="62">
-        <v>47.431043000000003</v>
+        <f>SUM('9.1'!C4:F4,'9.1'!K4)</f>
+        <v>67.791073000000011</v>
       </c>
       <c r="D4" s="62">
-        <v>20.755146</v>
-      </c>
-      <c r="E4" s="52">
-        <f>SUM('9.1'!C4:E4)</f>
-        <v>47.431043000000003</v>
-      </c>
-      <c r="F4" s="52">
-        <f>SUM('9.1'!F4:K4)</f>
-        <v>20.755146</v>
-      </c>
+        <f>SUM('9.1'!G4:J4)</f>
+        <v>0.39511600000000002</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="60">
@@ -44429,19 +44417,15 @@
         <v>4</v>
       </c>
       <c r="C5" s="62">
-        <v>59.483741000000002</v>
+        <f>SUM('9.1'!C5:F5,'9.1'!K5)</f>
+        <v>81.431680999999998</v>
       </c>
       <c r="D5" s="62">
-        <v>22.656091000000004</v>
-      </c>
-      <c r="E5" s="52">
-        <f>SUM('9.1'!C5:E5)</f>
-        <v>59.483741000000002</v>
-      </c>
-      <c r="F5" s="52">
-        <f>SUM('9.1'!F5:K5)</f>
-        <v>22.656091000000004</v>
-      </c>
+        <f>SUM('9.1'!G5:J5)</f>
+        <v>0.70815100000000009</v>
+      </c>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="60">
@@ -44451,19 +44435,15 @@
         <v>1</v>
       </c>
       <c r="C6" s="62">
-        <v>60.597006</v>
+        <f>SUM('9.1'!C6:F6,'9.1'!K6)</f>
+        <v>84.232635000000002</v>
       </c>
       <c r="D6" s="62">
-        <v>25.352031999999998</v>
-      </c>
-      <c r="E6" s="52">
-        <f>SUM('9.1'!C6:E6)</f>
-        <v>60.597006</v>
-      </c>
-      <c r="F6" s="52">
-        <f>SUM('9.1'!F6:K6)</f>
-        <v>25.352031999999998</v>
-      </c>
+        <f>SUM('9.1'!G6:J6)</f>
+        <v>1.7164029999999999</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="60">
@@ -44473,19 +44453,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="62">
-        <v>50.738194</v>
+        <f>SUM('9.1'!C7:F7,'9.1'!K7)</f>
+        <v>72.255279999999999</v>
       </c>
       <c r="D7" s="62">
-        <v>22.242932</v>
-      </c>
-      <c r="E7" s="52">
-        <f>SUM('9.1'!C7:E7)</f>
-        <v>50.738194</v>
-      </c>
-      <c r="F7" s="52">
-        <f>SUM('9.1'!F7:K7)</f>
-        <v>22.242932</v>
-      </c>
+        <f>SUM('9.1'!G7:J7)</f>
+        <v>0.72584599999999999</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="60">
@@ -44495,19 +44471,15 @@
         <v>3</v>
       </c>
       <c r="C8" s="62">
-        <v>50.274252000000004</v>
+        <f>SUM('9.1'!C8:F8,'9.1'!K8)</f>
+        <v>71.155159999999995</v>
       </c>
       <c r="D8" s="62">
-        <v>21.675391000000001</v>
-      </c>
-      <c r="E8" s="52">
-        <f>SUM('9.1'!C8:E8)</f>
-        <v>50.274252000000004</v>
-      </c>
-      <c r="F8" s="52">
-        <f>SUM('9.1'!F8:K8)</f>
-        <v>21.675391000000001</v>
-      </c>
+        <f>SUM('9.1'!G8:J8)</f>
+        <v>0.79448299999999994</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="60">
@@ -44517,19 +44489,15 @@
         <v>4</v>
       </c>
       <c r="C9" s="62">
-        <v>59.183141000000006</v>
+        <f>SUM('9.1'!C9:F9,'9.1'!K9)</f>
+        <v>83.739528000000007</v>
       </c>
       <c r="D9" s="62">
-        <v>25.991732333333335</v>
-      </c>
-      <c r="E9" s="52">
-        <f>SUM('9.1'!C9:E9)</f>
-        <v>59.183141000000006</v>
-      </c>
-      <c r="F9" s="52">
-        <f>SUM('9.1'!F9:K9)</f>
-        <v>25.991732333333335</v>
-      </c>
+        <f>SUM('9.1'!G9:J9)</f>
+        <v>1.4353453333333333</v>
+      </c>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="60">
@@ -44539,19 +44507,15 @@
         <v>1</v>
       </c>
       <c r="C10" s="62">
-        <v>61.847920999999999</v>
+        <f>SUM('9.1'!C10:F10,'9.1'!K10)</f>
+        <v>86.030370000000005</v>
       </c>
       <c r="D10" s="62">
-        <v>25.909723</v>
-      </c>
-      <c r="E10" s="52">
-        <f>SUM('9.1'!C10:E10)</f>
-        <v>61.847920999999999</v>
-      </c>
-      <c r="F10" s="52">
-        <f>SUM('9.1'!F10:K10)</f>
-        <v>25.909723</v>
-      </c>
+        <f>SUM('9.1'!G10:J10)</f>
+        <v>1.727274</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="60">
@@ -44561,19 +44525,15 @@
         <v>2</v>
       </c>
       <c r="C11" s="62">
-        <v>49.992102000000003</v>
+        <f>SUM('9.1'!C11:F11,'9.1'!K11)</f>
+        <v>72.709192000000002</v>
       </c>
       <c r="D11" s="62">
-        <v>23.723119999999998</v>
-      </c>
-      <c r="E11" s="52">
-        <f>SUM('9.1'!C11:E11)</f>
-        <v>49.992102000000003</v>
-      </c>
-      <c r="F11" s="52">
-        <f>SUM('9.1'!F11:K11)</f>
-        <v>23.723119999999998</v>
-      </c>
+        <f>SUM('9.1'!G11:J11)</f>
+        <v>1.00603</v>
+      </c>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="60">
@@ -44583,19 +44543,15 @@
         <v>3</v>
       </c>
       <c r="C12" s="62">
-        <v>50.611305999999999</v>
+        <f>SUM('9.1'!C12:F12,'9.1'!K12)</f>
+        <v>70.427272000000002</v>
       </c>
       <c r="D12" s="62">
-        <v>20.529277999999998</v>
-      </c>
-      <c r="E12" s="52">
-        <f>SUM('9.1'!C12:E12)</f>
-        <v>50.611305999999999</v>
-      </c>
-      <c r="F12" s="52">
-        <f>SUM('9.1'!F12:K12)</f>
-        <v>20.529277999999998</v>
-      </c>
+        <f>SUM('9.1'!G12:J12)</f>
+        <v>0.71331199999999995</v>
+      </c>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60">
@@ -44605,19 +44561,15 @@
         <v>4</v>
       </c>
       <c r="C13" s="62">
-        <v>63.235697999999999</v>
+        <f>SUM('9.1'!C13:F13,'9.1'!K13)</f>
+        <v>84.192245</v>
       </c>
       <c r="D13" s="62">
-        <v>22.493408000000002</v>
-      </c>
-      <c r="E13" s="52">
-        <f>SUM('9.1'!C13:E13)</f>
-        <v>63.235697999999999</v>
-      </c>
-      <c r="F13" s="52">
-        <f>SUM('9.1'!F13:K13)</f>
-        <v>22.493408000000002</v>
-      </c>
+        <f>SUM('9.1'!G13:J13)</f>
+        <v>1.536861</v>
+      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="60">
@@ -44627,19 +44579,15 @@
         <v>1</v>
       </c>
       <c r="C14" s="62">
-        <v>65.872368999999992</v>
+        <f>SUM('9.1'!C14:F14,'9.1'!K14)</f>
+        <v>87.027647999999999</v>
       </c>
       <c r="D14" s="62">
-        <v>23.157974601999999</v>
-      </c>
-      <c r="E14" s="52">
-        <f>SUM('9.1'!C14:E14)</f>
-        <v>65.872368999999992</v>
-      </c>
-      <c r="F14" s="52">
-        <f>SUM('9.1'!F14:K14)</f>
-        <v>23.157974601999999</v>
-      </c>
+        <f>SUM('9.1'!G14:J14)</f>
+        <v>2.0026956020000002</v>
+      </c>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="60">
@@ -44649,19 +44597,15 @@
         <v>2</v>
       </c>
       <c r="C15" s="62">
-        <v>55.748666999999998</v>
+        <f>SUM('9.1'!C15:F15,'9.1'!K15)</f>
+        <v>75.154657999999998</v>
       </c>
       <c r="D15" s="62">
-        <v>20.096076752000002</v>
-      </c>
-      <c r="E15" s="52">
-        <f>SUM('9.1'!C15:E15)</f>
-        <v>55.748666999999998</v>
-      </c>
-      <c r="F15" s="52">
-        <f>SUM('9.1'!F15:K15)</f>
-        <v>20.096076752000002</v>
-      </c>
+        <f>SUM('9.1'!G15:J15)</f>
+        <v>0.69008575199999989</v>
+      </c>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="60">
@@ -44671,19 +44615,15 @@
         <v>3</v>
       </c>
       <c r="C16" s="62">
-        <v>53.666561000000002</v>
+        <f>SUM('9.1'!C16:F16,'9.1'!K16)</f>
+        <v>71.813431000000008</v>
       </c>
       <c r="D16" s="62">
-        <v>18.780427648</v>
-      </c>
-      <c r="E16" s="52">
-        <f>SUM('9.1'!C16:E16)</f>
-        <v>53.666561000000002</v>
-      </c>
-      <c r="F16" s="52">
-        <f>SUM('9.1'!F16:K16)</f>
-        <v>18.780427648</v>
-      </c>
+        <f>SUM('9.1'!G16:J16)</f>
+        <v>0.63355764800000003</v>
+      </c>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="60">
@@ -44693,19 +44633,15 @@
         <v>4</v>
       </c>
       <c r="C17" s="62">
-        <v>65.650492</v>
+        <f>SUM('9.1'!C17:F17,'9.1'!K17)</f>
+        <v>85.276237000000009</v>
       </c>
       <c r="D17" s="62">
-        <v>21.255315608</v>
-      </c>
-      <c r="E17" s="52">
-        <f>SUM('9.1'!C17:E17)</f>
-        <v>65.650492</v>
-      </c>
-      <c r="F17" s="52">
-        <f>SUM('9.1'!F17:K17)</f>
-        <v>21.255315608</v>
-      </c>
+        <f>SUM('9.1'!G17:J17)</f>
+        <v>1.6295706080000001</v>
+      </c>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="60">
@@ -44715,19 +44651,15 @@
         <v>1</v>
       </c>
       <c r="C18" s="62">
-        <v>71.924426000000011</v>
+        <f>SUM('9.1'!C18:F18,'9.1'!K18)</f>
+        <v>92.907368000000019</v>
       </c>
       <c r="D18" s="62">
-        <v>21.967028394</v>
-      </c>
-      <c r="E18" s="52">
-        <f>SUM('9.1'!C18:E18)</f>
-        <v>71.924426000000011</v>
-      </c>
-      <c r="F18" s="52">
-        <f>SUM('9.1'!F18:K18)</f>
-        <v>21.967028394</v>
-      </c>
+        <f>SUM('9.1'!G18:J18)</f>
+        <v>0.98408639399999998</v>
+      </c>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="60">
@@ -44737,19 +44669,15 @@
         <v>2</v>
       </c>
       <c r="C19" s="62">
-        <v>58.661560000000001</v>
+        <f>SUM('9.1'!C19:F19,'9.1'!K19)</f>
+        <v>77.252672000000004</v>
       </c>
       <c r="D19" s="62">
-        <v>19.157649974000002</v>
-      </c>
-      <c r="E19" s="52">
-        <f>SUM('9.1'!C19:E19)</f>
-        <v>58.661560000000001</v>
-      </c>
-      <c r="F19" s="52">
-        <f>SUM('9.1'!F19:K19)</f>
-        <v>19.157649974000002</v>
-      </c>
+        <f>SUM('9.1'!G19:J19)</f>
+        <v>0.56653797400000006</v>
+      </c>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="60">
@@ -44759,19 +44687,15 @@
         <v>3</v>
       </c>
       <c r="C20" s="62">
-        <v>52.808014999999997</v>
+        <f>SUM('9.1'!C20:F20,'9.1'!K20)</f>
+        <v>73.425537999999989</v>
       </c>
       <c r="D20" s="62">
-        <v>21.259752944999999</v>
-      </c>
-      <c r="E20" s="52">
-        <f>SUM('9.1'!C20:E20)</f>
-        <v>52.808014999999997</v>
-      </c>
-      <c r="F20" s="52">
-        <f>SUM('9.1'!F20:K20)</f>
-        <v>21.259752944999999</v>
-      </c>
+        <f>SUM('9.1'!G20:J20)</f>
+        <v>0.64222994499999997</v>
+      </c>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="60">
@@ -44781,19 +44705,15 @@
         <v>4</v>
       </c>
       <c r="C21" s="62">
-        <v>64.384913000000012</v>
+        <f>SUM('9.1'!C21:F21,'9.1'!K21)</f>
+        <v>87.178350000000009</v>
       </c>
       <c r="D21" s="62">
-        <v>24.487451817999997</v>
-      </c>
-      <c r="E21" s="52">
-        <f>SUM('9.1'!C21:E21)</f>
-        <v>64.384913000000012</v>
-      </c>
-      <c r="F21" s="52">
-        <f>SUM('9.1'!F21:K21)</f>
-        <v>24.487451817999997</v>
-      </c>
+        <f>SUM('9.1'!G21:J21)</f>
+        <v>1.6940148179999999</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="60">
@@ -44803,19 +44723,15 @@
         <v>1</v>
       </c>
       <c r="C22" s="62">
-        <v>68.314986000000005</v>
+        <f>SUM('9.1'!C22:F22,'9.1'!K22)</f>
+        <v>90.976258000000001</v>
       </c>
       <c r="D22" s="62">
-        <v>24.551197416999997</v>
-      </c>
-      <c r="E22" s="52">
-        <f>SUM('9.1'!C22:E22)</f>
-        <v>68.314986000000005</v>
-      </c>
-      <c r="F22" s="52">
-        <f>SUM('9.1'!F22:K22)</f>
-        <v>24.551197416999997</v>
-      </c>
+        <f>SUM('9.1'!G22:J22)</f>
+        <v>1.8899254169999999</v>
+      </c>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="60">
@@ -44825,19 +44741,15 @@
         <v>2</v>
       </c>
       <c r="C23" s="62">
-        <v>56.313008999999994</v>
+        <f>SUM('9.1'!C23:F23,'9.1'!K23)</f>
+        <v>76.20492999999999</v>
       </c>
       <c r="D23" s="62">
-        <v>21.006501058999998</v>
-      </c>
-      <c r="E23" s="52">
-        <f>SUM('9.1'!C23:E23)</f>
-        <v>56.313008999999994</v>
-      </c>
-      <c r="F23" s="52">
-        <f>SUM('9.1'!F23:K23)</f>
-        <v>21.006501058999998</v>
-      </c>
+        <f>SUM('9.1'!G23:J23)</f>
+        <v>1.1145800589999999</v>
+      </c>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="60">
@@ -44847,19 +44759,15 @@
         <v>3</v>
       </c>
       <c r="C24" s="62">
-        <v>56.723686999999998</v>
+        <f>SUM('9.1'!C24:F24,'9.1'!K24)</f>
+        <v>75.760688000000002</v>
       </c>
       <c r="D24" s="62">
-        <v>19.704804452999998</v>
-      </c>
-      <c r="E24" s="52">
-        <f>SUM('9.1'!C24:E24)</f>
-        <v>56.723686999999998</v>
-      </c>
-      <c r="F24" s="52">
-        <f>SUM('9.1'!F24:K24)</f>
-        <v>19.704804452999998</v>
-      </c>
+        <f>SUM('9.1'!G24:J24)</f>
+        <v>0.66780345299999999</v>
+      </c>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="60">
@@ -44869,19 +44777,15 @@
         <v>4</v>
       </c>
       <c r="C25" s="62">
-        <v>68.528260000000003</v>
+        <f>SUM('9.1'!C25:F25,'9.1'!K25)</f>
+        <v>88.028379000000001</v>
       </c>
       <c r="D25" s="62">
-        <v>20.543177311860212</v>
-      </c>
-      <c r="E25" s="52">
-        <f>SUM('9.1'!C25:E25)</f>
-        <v>68.528260000000003</v>
-      </c>
-      <c r="F25" s="52">
-        <f>SUM('9.1'!F25:K25)</f>
-        <v>20.543177311860212</v>
-      </c>
+        <f>SUM('9.1'!G25:J25)</f>
+        <v>1.0430583118602152</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="60">
@@ -44891,19 +44795,15 @@
         <v>1</v>
       </c>
       <c r="C26" s="62">
-        <v>69.983900503019242</v>
+        <f>SUM('9.1'!C26:F26,'9.1'!K26)</f>
+        <v>92.628650503019244</v>
       </c>
       <c r="D26" s="62">
-        <v>23.709923995355375</v>
-      </c>
-      <c r="E26" s="52">
-        <f>SUM('9.1'!C26:E26)</f>
-        <v>69.983900503019242</v>
-      </c>
-      <c r="F26" s="52">
-        <f>SUM('9.1'!F26:K26)</f>
-        <v>23.709923995355375</v>
-      </c>
+        <f>SUM('9.1'!G26:J26)</f>
+        <v>1.0651739953553727</v>
+      </c>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="60">
@@ -44913,19 +44813,15 @@
         <v>2</v>
       </c>
       <c r="C27" s="62">
-        <v>58.380272758918096</v>
+        <f>SUM('9.1'!C27:F27,'9.1'!K27)</f>
+        <v>79.109926758918093</v>
       </c>
       <c r="D27" s="62">
-        <v>21.503332136263722</v>
-      </c>
-      <c r="E27" s="52">
-        <f>SUM('9.1'!C27:E27)</f>
-        <v>58.380272758918096</v>
-      </c>
-      <c r="F27" s="52">
-        <f>SUM('9.1'!F27:K27)</f>
-        <v>21.503332136263722</v>
-      </c>
+        <f>SUM('9.1'!G27:J27)</f>
+        <v>0.77367813626372139</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="60">
@@ -44935,19 +44831,15 @@
         <v>3</v>
       </c>
       <c r="C28" s="62">
-        <v>58.005589631293432</v>
+        <f>SUM('9.1'!C28:F28,'9.1'!K28)</f>
+        <v>77.246154631293436</v>
       </c>
       <c r="D28" s="62">
-        <v>19.853031673706564</v>
-      </c>
-      <c r="E28" s="52">
-        <f>SUM('9.1'!C28:E28)</f>
-        <v>58.005589631293432</v>
-      </c>
-      <c r="F28" s="52">
-        <f>SUM('9.1'!F28:K28)</f>
-        <v>19.853031673706564</v>
-      </c>
+        <f>SUM('9.1'!G28:J28)</f>
+        <v>0.61246667370656216</v>
+      </c>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="60">
@@ -44957,19 +44849,15 @@
         <v>4</v>
       </c>
       <c r="C29" s="62">
-        <v>71.313335763946341</v>
+        <f>SUM('9.1'!C29:F29,'9.1'!K29)</f>
+        <v>90.609742763946343</v>
       </c>
       <c r="D29" s="62">
-        <v>20.462866740053673</v>
-      </c>
-      <c r="E29" s="52">
-        <f>SUM('9.1'!C29:E29)</f>
-        <v>71.313335763946341</v>
-      </c>
-      <c r="F29" s="52">
-        <f>SUM('9.1'!F29:K29)</f>
-        <v>20.462866740053673</v>
-      </c>
+        <f>SUM('9.1'!G29:J29)</f>
+        <v>1.1664597400536703</v>
+      </c>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="60">
@@ -44979,19 +44867,15 @@
         <v>1</v>
       </c>
       <c r="C30" s="62">
-        <v>73.021052993221815</v>
+        <f>SUM('9.1'!C30:F30,'9.1'!K30)</f>
+        <v>94.698384993221822</v>
       </c>
       <c r="D30" s="62">
-        <v>23.326055544904843</v>
-      </c>
-      <c r="E30" s="52">
-        <f>SUM('9.1'!C30:E30)</f>
-        <v>73.021052993221815</v>
-      </c>
-      <c r="F30" s="52">
-        <f>SUM('9.1'!F30:K30)</f>
-        <v>23.326055544904843</v>
-      </c>
+        <f>SUM('9.1'!G30:J30)</f>
+        <v>1.6487235449048427</v>
+      </c>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="60">
@@ -45001,19 +44885,15 @@
         <v>2</v>
       </c>
       <c r="C31" s="62">
-        <v>56.916192643104807</v>
+        <f>SUM('9.1'!C31:F31,'9.1'!K31)</f>
+        <v>74.049911327315328</v>
       </c>
       <c r="D31" s="62">
-        <v>17.971877365575988</v>
-      </c>
-      <c r="E31" s="52">
-        <f>SUM('9.1'!C31:E31)</f>
-        <v>56.916192643104807</v>
-      </c>
-      <c r="F31" s="52">
-        <f>SUM('9.1'!F31:K31)</f>
-        <v>17.971877365575988</v>
-      </c>
+        <f>SUM('9.1'!G31:J31)</f>
+        <v>0.83815868136546223</v>
+      </c>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="60">
@@ -45023,19 +44903,15 @@
         <v>3</v>
       </c>
       <c r="C32" s="62">
-        <v>59.072444813720878</v>
+        <f>SUM('9.1'!C32:F32,'9.1'!K32)</f>
+        <v>76.268866813720877</v>
       </c>
       <c r="D32" s="62">
-        <v>18.24760159944233</v>
-      </c>
-      <c r="E32" s="52">
-        <f>SUM('9.1'!C32:E32)</f>
-        <v>59.072444813720878</v>
-      </c>
-      <c r="F32" s="52">
-        <f>SUM('9.1'!F32:K32)</f>
-        <v>18.24760159944233</v>
-      </c>
+        <f>SUM('9.1'!G32:J32)</f>
+        <v>1.051179599442333</v>
+      </c>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="60">
@@ -45045,19 +44921,15 @@
         <v>4</v>
       </c>
       <c r="C33" s="62">
-        <v>72.212861424238</v>
+        <f>SUM('9.1'!C33:F33,'9.1'!K33)</f>
+        <v>89.887030424237992</v>
       </c>
       <c r="D33" s="62">
-        <v>19.404611120499286</v>
-      </c>
-      <c r="E33" s="52">
-        <f>SUM('9.1'!C33:E33)</f>
-        <v>72.212861424238</v>
-      </c>
-      <c r="F33" s="52">
-        <f>SUM('9.1'!F33:K33)</f>
-        <v>19.404611120499286</v>
-      </c>
+        <f>SUM('9.1'!G33:J33)</f>
+        <v>1.7304421204992866</v>
+      </c>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="60">
@@ -45067,19 +44939,15 @@
         <v>1</v>
       </c>
       <c r="C34" s="62">
-        <v>72.111130737289528</v>
+        <f>SUM('9.1'!C34:F34,'9.1'!K34)</f>
+        <v>92.798711737289523</v>
       </c>
       <c r="D34" s="62">
-        <v>22.794001339922271</v>
-      </c>
-      <c r="E34" s="52">
-        <f>SUM('9.1'!C34:E34)</f>
-        <v>72.111130737289528</v>
-      </c>
-      <c r="F34" s="52">
-        <f>SUM('9.1'!F34:K34)</f>
-        <v>22.794001339922271</v>
-      </c>
+        <f>SUM('9.1'!G34:J34)</f>
+        <v>2.106420339922269</v>
+      </c>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="60">
@@ -45089,19 +44957,15 @@
         <v>2</v>
       </c>
       <c r="C35" s="62">
-        <v>60.708703954385427</v>
+        <f>SUM('9.1'!C35:F35,'9.1'!K35)</f>
+        <v>78.944861954385431</v>
       </c>
       <c r="D35" s="62">
-        <v>19.55767858919393</v>
-      </c>
-      <c r="E35" s="52">
-        <f>SUM('9.1'!C35:E35)</f>
-        <v>60.708703954385427</v>
-      </c>
-      <c r="F35" s="52">
-        <f>SUM('9.1'!F35:K35)</f>
-        <v>19.55767858919393</v>
-      </c>
+        <f>SUM('9.1'!G35:J35)</f>
+        <v>1.3215205891939303</v>
+      </c>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="60">
@@ -45111,19 +44975,15 @@
         <v>3</v>
       </c>
       <c r="C36" s="62">
-        <v>56.881442999420571</v>
+        <f>SUM('9.1'!C36:F36,'9.1'!K36)</f>
+        <v>75.646207999420568</v>
       </c>
       <c r="D36" s="62">
-        <v>19.732487377626825</v>
-      </c>
-      <c r="E36" s="52">
-        <f>SUM('9.1'!C36:E36)</f>
-        <v>56.881442999420571</v>
-      </c>
-      <c r="F36" s="52">
-        <f>SUM('9.1'!F36:K36)</f>
-        <v>19.732487377626825</v>
-      </c>
+        <f>SUM('9.1'!G36:J36)</f>
+        <v>0.96772237762682589</v>
+      </c>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="60">
@@ -45133,19 +44993,15 @@
         <v>4</v>
       </c>
       <c r="C37" s="62">
-        <v>71.989948417150416</v>
+        <f>SUM('9.1'!C37:F37,'9.1'!K37)</f>
+        <v>89.474232417150418</v>
       </c>
       <c r="D37" s="62">
-        <v>19.395580547093154</v>
-      </c>
-      <c r="E37" s="52">
-        <f>SUM('9.1'!C37:E37)</f>
-        <v>71.989948417150416</v>
-      </c>
-      <c r="F37" s="52">
-        <f>SUM('9.1'!F37:K37)</f>
-        <v>19.395580547093154</v>
-      </c>
+        <f>SUM('9.1'!G37:J37)</f>
+        <v>1.911296547093154</v>
+      </c>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="60">
@@ -45155,19 +45011,15 @@
         <v>1</v>
       </c>
       <c r="C38" s="62">
-        <v>74.378584115057919</v>
+        <f>SUM('9.1'!C38:F38,'9.1'!K38)</f>
+        <v>94.903168115057923</v>
       </c>
       <c r="D38" s="62">
-        <v>22.256017437633531</v>
-      </c>
-      <c r="E38" s="52">
-        <f>SUM('9.1'!C38:E38)</f>
-        <v>74.378584115057919</v>
-      </c>
-      <c r="F38" s="52">
-        <f>SUM('9.1'!F38:K38)</f>
-        <v>22.256017437633531</v>
-      </c>
+        <f>SUM('9.1'!G38:J38)</f>
+        <v>1.7314334376335316</v>
+      </c>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="60">
@@ -45177,19 +45029,15 @@
         <v>2</v>
       </c>
       <c r="C39" s="62">
-        <v>58.146634946854007</v>
+        <f>SUM('9.1'!C39:F39,'9.1'!K39)</f>
+        <v>76.351703946854002</v>
       </c>
       <c r="D39" s="62">
-        <v>19.532751863014891</v>
-      </c>
-      <c r="E39" s="52">
-        <f>SUM('9.1'!C39:E39)</f>
-        <v>58.146634946854007</v>
-      </c>
-      <c r="F39" s="52">
-        <f>SUM('9.1'!F39:K39)</f>
-        <v>19.532751863014891</v>
-      </c>
+        <f>SUM('9.1'!G39:J39)</f>
+        <v>1.3276828630148898</v>
+      </c>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="60">
@@ -45199,19 +45047,15 @@
         <v>3</v>
       </c>
       <c r="C40" s="62">
-        <v>58.674113112275094</v>
+        <f>SUM('9.1'!C40:F40,'9.1'!K40)</f>
+        <v>75.918266112275091</v>
       </c>
       <c r="D40" s="62">
-        <v>18.254746496264588</v>
-      </c>
-      <c r="E40" s="52">
-        <f>SUM('9.1'!C40:E40)</f>
-        <v>58.674113112275094</v>
-      </c>
-      <c r="F40" s="52">
-        <f>SUM('9.1'!F40:K40)</f>
-        <v>18.254746496264588</v>
-      </c>
+        <f>SUM('9.1'!G40:J40)</f>
+        <v>1.0105934962645911</v>
+      </c>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="60">
@@ -45221,19 +45065,15 @@
         <v>4</v>
       </c>
       <c r="C41" s="62">
-        <v>73.718267932051205</v>
+        <f>SUM('9.1'!C41:F41,'9.1'!K41)</f>
+        <v>86.981617932051208</v>
       </c>
       <c r="D41" s="62">
-        <v>15.517467930861335</v>
-      </c>
-      <c r="E41" s="52">
-        <f>SUM('9.1'!C41:E41)</f>
-        <v>73.718267932051205</v>
-      </c>
-      <c r="F41" s="52">
-        <f>SUM('9.1'!F41:K41)</f>
-        <v>15.517467930861335</v>
-      </c>
+        <f>SUM('9.1'!G41:J41)</f>
+        <v>2.2541179308613351</v>
+      </c>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="60">
@@ -45243,19 +45083,15 @@
         <v>1</v>
       </c>
       <c r="C42" s="62">
-        <v>75.510421568419289</v>
+        <f>SUM('9.1'!C42:F42,'9.1'!K42)</f>
+        <v>89.632426568419291</v>
       </c>
       <c r="D42" s="62">
-        <v>17.57482294127815</v>
-      </c>
-      <c r="E42" s="52">
-        <f>SUM('9.1'!C42:E42)</f>
-        <v>75.510421568419289</v>
-      </c>
-      <c r="F42" s="52">
-        <f>SUM('9.1'!F42:K42)</f>
-        <v>17.57482294127815</v>
-      </c>
+        <f>SUM('9.1'!G42:J42)</f>
+        <v>3.4528179412781492</v>
+      </c>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="60">
@@ -45265,19 +45101,15 @@
         <v>2</v>
       </c>
       <c r="C43" s="62">
-        <v>63.187057112434616</v>
+        <f>SUM('9.1'!C43:F43,'9.1'!K43)</f>
+        <v>76.917035112434618</v>
       </c>
       <c r="D43" s="62">
-        <v>15.457505108542282</v>
-      </c>
-      <c r="E43" s="52">
-        <f>SUM('9.1'!C43:E43)</f>
-        <v>63.187057112434616</v>
-      </c>
-      <c r="F43" s="52">
-        <f>SUM('9.1'!F43:K43)</f>
-        <v>15.457505108542282</v>
-      </c>
+        <f>SUM('9.1'!G43:J43)</f>
+        <v>1.7275271085422832</v>
+      </c>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="60">
@@ -45287,19 +45119,15 @@
         <v>3</v>
       </c>
       <c r="C44" s="62">
-        <v>58.227583428216093</v>
+        <f>SUM('9.1'!C44:F44,'9.1'!K44)</f>
+        <v>73.962043428216091</v>
       </c>
       <c r="D44" s="62">
-        <v>17.679145903998087</v>
-      </c>
-      <c r="E44" s="52">
-        <f>SUM('9.1'!C44:E44)</f>
-        <v>58.227583428216093</v>
-      </c>
-      <c r="F44" s="52">
-        <f>SUM('9.1'!F44:K44)</f>
-        <v>17.679145903998087</v>
-      </c>
+        <f>SUM('9.1'!G44:J44)</f>
+        <v>1.9446859039980837</v>
+      </c>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="60">
@@ -45309,19 +45137,15 @@
         <v>4</v>
       </c>
       <c r="C45" s="62">
-        <v>77.418861897591171</v>
+        <f>SUM('9.1'!C45:F45,'9.1'!K45)</f>
+        <v>91.081313897591173</v>
       </c>
       <c r="D45" s="62">
-        <v>16.326283607741008</v>
-      </c>
-      <c r="E45" s="52">
-        <f>SUM('9.1'!C45:E45)</f>
-        <v>77.418861897591171</v>
-      </c>
-      <c r="F45" s="52">
-        <f>SUM('9.1'!F45:K45)</f>
-        <v>16.326283607741008</v>
-      </c>
+        <f>SUM('9.1'!G45:J45)</f>
+        <v>2.6638316077410096</v>
+      </c>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="60">
@@ -45331,19 +45155,15 @@
         <v>1</v>
       </c>
       <c r="C46" s="62">
-        <v>76.855114757534892</v>
+        <f>SUM('9.1'!C46:F46,'9.1'!K46)</f>
+        <v>89.994110757534898</v>
       </c>
       <c r="D46" s="62">
-        <v>17.102432165772896</v>
-      </c>
-      <c r="E46" s="52">
-        <f>SUM('9.1'!C46:E46)</f>
-        <v>76.855114757534892</v>
-      </c>
-      <c r="F46" s="52">
-        <f>SUM('9.1'!F46:K46)</f>
-        <v>17.102432165772896</v>
-      </c>
+        <f>SUM('9.1'!G46:J46)</f>
+        <v>3.9634361657728947</v>
+      </c>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="60">
@@ -45353,19 +45173,15 @@
         <v>2</v>
       </c>
       <c r="C47" s="62">
-        <v>64.581626986261128</v>
+        <f>SUM('9.1'!C47:F47,'9.1'!K47)</f>
+        <v>75.661244986261124</v>
       </c>
       <c r="D47" s="62">
-        <v>13.257924041910529</v>
-      </c>
-      <c r="E47" s="52">
-        <f>SUM('9.1'!C47:E47)</f>
-        <v>64.581626986261128</v>
-      </c>
-      <c r="F47" s="52">
-        <f>SUM('9.1'!F47:K47)</f>
-        <v>13.257924041910529</v>
-      </c>
+        <f>SUM('9.1'!G47:J47)</f>
+        <v>2.1783060419105285</v>
+      </c>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="60">
@@ -45375,19 +45191,15 @@
         <v>3</v>
       </c>
       <c r="C48" s="62">
-        <v>61.870264707474149</v>
+        <f>SUM('9.1'!C48:F48,'9.1'!K48)</f>
+        <v>72.834109707474141</v>
       </c>
       <c r="D48" s="62">
-        <v>13.033929939206317</v>
-      </c>
-      <c r="E48" s="52">
-        <f>SUM('9.1'!C48:E48)</f>
-        <v>61.870264707474149</v>
-      </c>
-      <c r="F48" s="52">
-        <f>SUM('9.1'!F48:K48)</f>
-        <v>13.033929939206317</v>
-      </c>
+        <f>SUM('9.1'!G48:J48)</f>
+        <v>2.0700849392063176</v>
+      </c>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="60">
@@ -45397,19 +45209,15 @@
         <v>4</v>
       </c>
       <c r="C49" s="62">
-        <v>73.579204085616595</v>
+        <f>SUM('9.1'!C49:F49,'9.1'!K49)</f>
+        <v>86.069814085616599</v>
       </c>
       <c r="D49" s="62">
-        <v>16.221791881816671</v>
-      </c>
-      <c r="E49" s="52">
-        <f>SUM('9.1'!C49:E49)</f>
-        <v>73.579204085616595</v>
-      </c>
-      <c r="F49" s="52">
-        <f>SUM('9.1'!F49:K49)</f>
-        <v>16.221791881816671</v>
-      </c>
+        <f>SUM('9.1'!G49:J49)</f>
+        <v>3.7311818818166707</v>
+      </c>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="60">
@@ -45419,19 +45227,15 @@
         <v>1</v>
       </c>
       <c r="C50" s="62">
-        <v>71.783368577469844</v>
+        <f>SUM('9.1'!C50:F50,'9.1'!K50)</f>
+        <v>87.181916577469849</v>
       </c>
       <c r="D50" s="62">
-        <v>19.279254814587816</v>
-      </c>
-      <c r="E50" s="52">
-        <f>SUM('9.1'!C50:E50)</f>
-        <v>71.783368577469844</v>
-      </c>
-      <c r="F50" s="52">
-        <f>SUM('9.1'!F50:K50)</f>
-        <v>19.279254814587816</v>
-      </c>
+        <f>SUM('9.1'!G50:J50)</f>
+        <v>3.8807068145878176</v>
+      </c>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="60">
@@ -45441,19 +45245,15 @@
         <v>2</v>
       </c>
       <c r="C51" s="62">
-        <v>53.713363273323196</v>
+        <f>SUM('9.1'!C51:F51,'9.1'!K51)</f>
+        <v>70.164244273323192</v>
       </c>
       <c r="D51" s="62">
-        <v>19.128215492403911</v>
-      </c>
-      <c r="E51" s="52">
-        <f>SUM('9.1'!C51:E51)</f>
-        <v>53.713363273323196</v>
-      </c>
-      <c r="F51" s="52">
-        <f>SUM('9.1'!F51:K51)</f>
-        <v>19.128215492403911</v>
-      </c>
+        <f>SUM('9.1'!G51:J51)</f>
+        <v>2.6773344924039097</v>
+      </c>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="60">
@@ -45463,19 +45263,15 @@
         <v>3</v>
       </c>
       <c r="C52" s="62">
-        <v>54.068868379689135</v>
+        <f>SUM('9.1'!C52:F52,'9.1'!K52)</f>
+        <v>70.172046379689135</v>
       </c>
       <c r="D52" s="62">
-        <v>18.985410002678769</v>
-      </c>
-      <c r="E52" s="52">
-        <f>SUM('9.1'!C52:E52)</f>
-        <v>54.068868379689135</v>
-      </c>
-      <c r="F52" s="52">
-        <f>SUM('9.1'!F52:K52)</f>
-        <v>18.985410002678769</v>
-      </c>
+        <f>SUM('9.1'!G52:J52)</f>
+        <v>2.8822320026787684</v>
+      </c>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="60">
@@ -45485,19 +45281,15 @@
         <v>4</v>
       </c>
       <c r="C53" s="62">
-        <v>68.039675996765467</v>
+        <f>SUM('9.1'!C53:F53,'9.1'!K53)</f>
+        <v>82.848778996765461</v>
       </c>
       <c r="D53" s="62">
-        <v>18.589842085928165</v>
-      </c>
-      <c r="E53" s="52">
-        <f>SUM('9.1'!C53:E53)</f>
-        <v>68.039675996765467</v>
-      </c>
-      <c r="F53" s="52">
-        <f>SUM('9.1'!F53:K53)</f>
-        <v>18.589842085928165</v>
-      </c>
+        <f>SUM('9.1'!G53:J53)</f>
+        <v>3.7807390859281678</v>
+      </c>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="60">
@@ -45507,19 +45299,15 @@
         <v>1</v>
       </c>
       <c r="C54" s="62">
-        <v>74.39955812524498</v>
+        <f>SUM('9.1'!C54:F54,'9.1'!K54)</f>
+        <v>90.921749373144976</v>
       </c>
       <c r="D54" s="62">
-        <v>19.808237835402256</v>
-      </c>
-      <c r="E54" s="52">
-        <f>SUM('9.1'!C54:E54)</f>
-        <v>74.39955812524498</v>
-      </c>
-      <c r="F54" s="52">
-        <f>SUM('9.1'!F54:K54)</f>
-        <v>19.808237835402256</v>
-      </c>
+        <f>SUM('9.1'!G54:J54)</f>
+        <v>3.2860465875022538</v>
+      </c>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="60">
@@ -45529,19 +45317,15 @@
         <v>2</v>
       </c>
       <c r="C55" s="62">
-        <v>59.424366462491946</v>
+        <f>SUM('9.1'!C55:F55,'9.1'!K55)</f>
+        <v>72.031396462491941</v>
       </c>
       <c r="D55" s="62">
-        <v>15.061980025472749</v>
-      </c>
-      <c r="E55" s="52">
-        <f>SUM('9.1'!C55:E55)</f>
-        <v>59.424366462491946</v>
-      </c>
-      <c r="F55" s="52">
-        <f>SUM('9.1'!F55:K55)</f>
-        <v>15.061980025472749</v>
-      </c>
+        <f>SUM('9.1'!G55:J55)</f>
+        <v>2.4549500254727503</v>
+      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="60">
@@ -45551,19 +45335,15 @@
         <v>3</v>
       </c>
       <c r="C56" s="62">
-        <v>55.327615321583842</v>
+        <f>SUM('9.1'!C56:F56,'9.1'!K56)</f>
+        <v>67.151079073683846</v>
       </c>
       <c r="D56" s="62">
-        <v>15.518445702838916</v>
-      </c>
-      <c r="E56" s="52">
-        <f>SUM('9.1'!C56:E56)</f>
-        <v>55.327615321583842</v>
-      </c>
-      <c r="F56" s="52">
-        <f>SUM('9.1'!F56:K56)</f>
-        <v>15.518445702838916</v>
-      </c>
+        <f>SUM('9.1'!G56:J56)</f>
+        <v>3.6949819507389172</v>
+      </c>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="60">
@@ -45573,19 +45353,15 @@
         <v>4</v>
       </c>
       <c r="C57" s="62">
-        <v>70.406068685281241</v>
+        <f>SUM('9.1'!C57:F57,'9.1'!K57)</f>
+        <v>85.895096685281231</v>
       </c>
       <c r="D57" s="62">
-        <v>20.119208410366578</v>
-      </c>
-      <c r="E57" s="52">
-        <f>SUM('9.1'!C57:E57)</f>
-        <v>70.406068685281241</v>
-      </c>
-      <c r="F57" s="52">
-        <f>SUM('9.1'!F57:K57)</f>
-        <v>20.119208410366578</v>
-      </c>
+        <f>SUM('9.1'!G57:J57)</f>
+        <v>4.6301804103665809</v>
+      </c>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="60">
@@ -45595,19 +45371,15 @@
         <v>1</v>
       </c>
       <c r="C58" s="62">
-        <v>66.76662552193082</v>
+        <f>SUM('9.1'!C58:F58,'9.1'!K58)</f>
+        <v>84.434611521930819</v>
       </c>
       <c r="D58" s="62">
-        <v>22.516230152269284</v>
-      </c>
-      <c r="E58" s="52">
-        <f>SUM('9.1'!C58:E58)</f>
-        <v>66.76662552193082</v>
-      </c>
-      <c r="F58" s="52">
-        <f>SUM('9.1'!F58:K58)</f>
-        <v>22.516230152269284</v>
-      </c>
+        <f>SUM('9.1'!G58:J58)</f>
+        <v>4.848244152269281</v>
+      </c>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="60">
@@ -45617,19 +45389,15 @@
         <v>2</v>
       </c>
       <c r="C59" s="62">
-        <v>50.165265789254477</v>
+        <f>SUM('9.1'!C59:F59,'9.1'!K59)</f>
+        <v>67.563472789254476</v>
       </c>
       <c r="D59" s="62">
-        <v>22.164983861192102</v>
-      </c>
-      <c r="E59" s="52">
-        <f>SUM('9.1'!C59:E59)</f>
-        <v>50.165265789254477</v>
-      </c>
-      <c r="F59" s="52">
-        <f>SUM('9.1'!F59:K59)</f>
-        <v>22.164983861192102</v>
-      </c>
+        <f>SUM('9.1'!G59:J59)</f>
+        <v>4.7667768611921035</v>
+      </c>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="60">
@@ -45639,19 +45407,15 @@
         <v>3</v>
       </c>
       <c r="C60" s="62">
-        <v>52.249074437127717</v>
+        <f>SUM('9.1'!C60:F60,'9.1'!K60)</f>
+        <v>66.562220437127721</v>
       </c>
       <c r="D60" s="62">
-        <v>18.792046803560595</v>
-      </c>
-      <c r="E60" s="52">
-        <f>SUM('9.1'!C60:E60)</f>
-        <v>52.249074437127717</v>
-      </c>
-      <c r="F60" s="52">
-        <f>SUM('9.1'!F60:K60)</f>
-        <v>18.792046803560595</v>
-      </c>
+        <f>SUM('9.1'!G60:J60)</f>
+        <v>4.4789008035605953</v>
+      </c>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="60">
@@ -45661,19 +45425,15 @@
         <v>4</v>
       </c>
       <c r="C61" s="62">
-        <v>61.653978553632456</v>
+        <f>SUM('9.1'!C61:F61,'9.1'!K61)</f>
+        <v>74.929856553632447</v>
       </c>
       <c r="D61" s="62">
-        <v>20.848316077769738</v>
-      </c>
-      <c r="E61" s="52">
-        <f>SUM('9.1'!C61:E61)</f>
-        <v>61.653978553632456</v>
-      </c>
-      <c r="F61" s="52">
-        <f>SUM('9.1'!F61:K61)</f>
-        <v>20.848316077769738</v>
-      </c>
+        <f>SUM('9.1'!G61:J61)</f>
+        <v>7.5724380777697391</v>
+      </c>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="60">
@@ -45683,19 +45443,15 @@
         <v>1</v>
       </c>
       <c r="C62" s="62">
-        <v>62.651286794922449</v>
+        <f>SUM('9.1'!C62:F62,'9.1'!K62)</f>
+        <v>78.273109794922448</v>
       </c>
       <c r="D62" s="62">
-        <v>23.05350973472153</v>
-      </c>
-      <c r="E62" s="52">
-        <f>SUM('9.1'!C62:E62)</f>
-        <v>62.651286794922449</v>
-      </c>
-      <c r="F62" s="52">
-        <f>SUM('9.1'!F62:K62)</f>
-        <v>23.05350973472153</v>
-      </c>
+        <f>SUM('9.1'!G62:J62)</f>
+        <v>7.4316867347215254</v>
+      </c>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="60">
@@ -45705,19 +45461,15 @@
         <v>2</v>
       </c>
       <c r="C63" s="62">
-        <v>50.596068728448984</v>
+        <f>SUM('9.1'!C63:F63,'9.1'!K63)</f>
+        <v>67.422975728448989</v>
       </c>
       <c r="D63" s="62">
-        <v>21.581799178796338</v>
-      </c>
-      <c r="E63" s="52">
-        <f>SUM('9.1'!C63:E63)</f>
-        <v>50.596068728448984</v>
-      </c>
-      <c r="F63" s="52">
-        <f>SUM('9.1'!F63:K63)</f>
-        <v>21.581799178796338</v>
-      </c>
+        <f>SUM('9.1'!G63:J63)</f>
+        <v>4.7548921787963403</v>
+      </c>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="60">
@@ -45727,19 +45479,15 @@
         <v>3</v>
       </c>
       <c r="C64" s="62">
-        <v>46.235852648513756</v>
+        <f>SUM('9.1'!C64:F64,'9.1'!K64)</f>
+        <v>62.613421648513757</v>
       </c>
       <c r="D64" s="62">
-        <v>22.193847791053493</v>
-      </c>
-      <c r="E64" s="52">
-        <f>SUM('9.1'!C64:E64)</f>
-        <v>46.235852648513756</v>
-      </c>
-      <c r="F64" s="52">
-        <f>SUM('9.1'!F64:K64)</f>
-        <v>22.193847791053493</v>
-      </c>
+        <f>SUM('9.1'!G64:J64)</f>
+        <v>5.8162787910534925</v>
+      </c>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="60">
@@ -45749,19 +45497,15 @@
         <v>4</v>
       </c>
       <c r="C65" s="62">
-        <v>59.218351328376059</v>
+        <f>SUM('9.1'!C65:F65,'9.1'!K65)</f>
+        <v>74.341257328376059</v>
       </c>
       <c r="D65" s="62">
-        <v>23.944533380653692</v>
-      </c>
-      <c r="E65" s="52">
-        <f>SUM('9.1'!C65:E65)</f>
-        <v>59.218351328376059</v>
-      </c>
-      <c r="F65" s="52">
-        <f>SUM('9.1'!F65:K65)</f>
-        <v>23.944533380653692</v>
-      </c>
+        <f>SUM('9.1'!G65:J65)</f>
+        <v>8.8216273806536893</v>
+      </c>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="60">
@@ -45771,19 +45515,15 @@
         <v>1</v>
       </c>
       <c r="C66" s="62">
-        <v>62.91158095207912</v>
+        <f>SUM('9.1'!C66:F66,'9.1'!K66)</f>
+        <v>79.280425130239109</v>
       </c>
       <c r="D66" s="62">
-        <v>25.17549525710589</v>
-      </c>
-      <c r="E66" s="52">
-        <f>SUM('9.1'!C66:E66)</f>
-        <v>62.55256821931912</v>
-      </c>
-      <c r="F66" s="52">
-        <f>SUM('9.1'!F66:K66)</f>
-        <v>25.29516616802589</v>
-      </c>
+        <f>SUM('9.1'!G66:J66)</f>
+        <v>8.567309257105892</v>
+      </c>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="60">
@@ -45793,19 +45533,15 @@
         <v>2</v>
       </c>
       <c r="C67" s="62">
-        <v>48.439866421435141</v>
+        <f>SUM('9.1'!C67:F67,'9.1'!K67)</f>
+        <v>62.274026594095147</v>
       </c>
       <c r="D67" s="62">
-        <v>22.788368186489429</v>
-      </c>
-      <c r="E67" s="52">
-        <f>SUM('9.1'!C67:E67)</f>
-        <v>48.113523680425146</v>
-      </c>
-      <c r="F67" s="52">
-        <f>SUM('9.1'!F67:K67)</f>
-        <v>22.897149100159428</v>
-      </c>
+        <f>SUM('9.1'!G67:J67)</f>
+        <v>8.7366461864894305</v>
+      </c>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="60">
@@ -45815,19 +45551,15 @@
         <v>3</v>
       </c>
       <c r="C68" s="62">
-        <v>43.982297243451008</v>
+        <f>SUM('9.1'!C68:F68,'9.1'!K68)</f>
+        <v>60.710455395271005</v>
       </c>
       <c r="D68" s="62">
-        <v>23.491786077505456</v>
-      </c>
-      <c r="E68" s="52">
-        <f>SUM('9.1'!C68:E68)</f>
-        <v>43.613475971181003</v>
-      </c>
-      <c r="F68" s="52">
-        <f>SUM('9.1'!F68:K68)</f>
-        <v>23.614726501595456</v>
-      </c>
+        <f>SUM('9.1'!G68:J68)</f>
+        <v>6.5177470775054518</v>
+      </c>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="60">
@@ -45837,19 +45569,15 @@
         <v>4</v>
       </c>
       <c r="C69" s="62">
-        <v>51.70245847167444</v>
+        <f>SUM('9.1'!C69:F69,'9.1'!K69)</f>
+        <v>67.964373844434434</v>
       </c>
       <c r="D69" s="62">
-        <v>28.518015368163937</v>
-      </c>
-      <c r="E69" s="52">
-        <f>SUM('9.1'!C69:E69)</f>
-        <v>51.347490030814441</v>
-      </c>
-      <c r="F69" s="52">
-        <f>SUM('9.1'!F69:K69)</f>
-        <v>28.636338181783938</v>
-      </c>
+        <f>SUM('9.1'!G69:J69)</f>
+        <v>12.019454368163936</v>
+      </c>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="60">
@@ -45859,19 +45587,15 @@
         <v>1</v>
       </c>
       <c r="C70" s="62">
-        <v>51.457112630135441</v>
+        <f>SUM('9.1'!C70:F70,'9.1'!K70)</f>
+        <v>66.241479000135442</v>
       </c>
       <c r="D70" s="62">
-        <v>28.094055258342507</v>
-      </c>
-      <c r="E70" s="52">
-        <f>SUM('9.1'!C70:E70)</f>
-        <v>51.117456185135445</v>
-      </c>
-      <c r="F70" s="52">
-        <f>SUM('9.1'!F70:K70)</f>
-        <v>28.207274073342507</v>
-      </c>
+        <f>SUM('9.1'!G70:J70)</f>
+        <v>13.083251258342507</v>
+      </c>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="60">
@@ -45881,19 +45605,15 @@
         <v>2</v>
       </c>
       <c r="C71" s="62">
-        <v>41.956704419028853</v>
+        <f>SUM('9.1'!C71:F71,'9.1'!K71)</f>
+        <v>57.634393209028858</v>
       </c>
       <c r="D71" s="62">
-        <v>23.724857877243458</v>
-      </c>
-      <c r="E71" s="52">
-        <f>SUM('9.1'!C71:E71)</f>
-        <v>41.625762104028851</v>
-      </c>
-      <c r="F71" s="52">
-        <f>SUM('9.1'!F71:K71)</f>
-        <v>23.835171982243459</v>
-      </c>
+        <f>SUM('9.1'!G71:J71)</f>
+        <v>7.8265408772434579</v>
+      </c>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="60">
@@ -45903,19 +45623,15 @@
         <v>3</v>
       </c>
       <c r="C72" s="62">
-        <v>41.395750292479974</v>
+        <f>SUM('9.1'!C72:F72,'9.1'!K72)</f>
+        <v>55.363695812479982</v>
       </c>
       <c r="D72" s="62">
-        <v>22.144604721434945</v>
-      </c>
-      <c r="E72" s="52">
-        <f>SUM('9.1'!C72:E72)</f>
-        <v>41.011847072479981</v>
-      </c>
-      <c r="F72" s="52">
-        <f>SUM('9.1'!F72:K72)</f>
-        <v>22.272572461434944</v>
-      </c>
+        <f>SUM('9.1'!G72:J72)</f>
+        <v>7.9207237214349444</v>
+      </c>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="60">
@@ -45925,19 +45641,15 @@
         <v>4</v>
       </c>
       <c r="C73" s="62">
-        <v>49.438075110664563</v>
+        <f>SUM('9.1'!C73:F73,'9.1'!K73)</f>
+        <v>61.960556440664561</v>
       </c>
       <c r="D73" s="62">
-        <v>26.729797740473181</v>
-      </c>
-      <c r="E73" s="52">
-        <f>SUM('9.1'!C73:E73)</f>
-        <v>49.06751860566456</v>
-      </c>
-      <c r="F73" s="52">
-        <f>SUM('9.1'!F73:K73)</f>
-        <v>26.85331657547318</v>
-      </c>
+        <f>SUM('9.1'!G73:J73)</f>
+        <v>13.96027874047318</v>
+      </c>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="60">
@@ -45947,19 +45659,15 @@
         <v>1</v>
       </c>
       <c r="C74" s="62">
-        <v>48.678059686202218</v>
+        <f>SUM('9.1'!C74:F74,'9.1'!K74)</f>
+        <v>64.946520746202225</v>
       </c>
       <c r="D74" s="62">
-        <v>31.830385996280629</v>
-      </c>
-      <c r="E74" s="52">
-        <f>SUM('9.1'!C74:E74)</f>
-        <v>48.320278276202217</v>
-      </c>
-      <c r="F74" s="52">
-        <f>SUM('9.1'!F74:K74)</f>
-        <v>31.94964646628063</v>
-      </c>
+        <f>SUM('9.1'!G74:J74)</f>
+        <v>15.323403996280629</v>
+      </c>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="60">
@@ -45969,19 +45677,15 @@
         <v>2</v>
       </c>
       <c r="C75" s="62">
-        <v>35.996252080285736</v>
+        <f>SUM('9.1'!C75:F75,'9.1'!K75)</f>
+        <v>51.131444880285734</v>
       </c>
       <c r="D75" s="62">
-        <v>27.701908839658959</v>
-      </c>
-      <c r="E75" s="52">
-        <f>SUM('9.1'!C75:E75)</f>
-        <v>35.647257280285736</v>
-      </c>
-      <c r="F75" s="52">
-        <f>SUM('9.1'!F75:K75)</f>
-        <v>27.818240439658958</v>
-      </c>
+        <f>SUM('9.1'!G75:J75)</f>
+        <v>12.334052839658959</v>
+      </c>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="60">
@@ -45991,19 +45695,15 @@
         <v>3</v>
       </c>
       <c r="C76" s="62">
-        <v>36.199271238341112</v>
+        <f>SUM('9.1'!C76:F76,'9.1'!K76)</f>
+        <v>50.859287038341108</v>
       </c>
       <c r="D76" s="62">
-        <v>26.043345234263075</v>
-      </c>
-      <c r="E76" s="52">
-        <f>SUM('9.1'!C76:E76)</f>
-        <v>35.624284938341106</v>
-      </c>
-      <c r="F76" s="52">
-        <f>SUM('9.1'!F76:K76)</f>
-        <v>26.235007334263074</v>
-      </c>
+        <f>SUM('9.1'!G76:J76)</f>
+        <v>11.000005234263078</v>
+      </c>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="60">
@@ -46013,19 +45713,15 @@
         <v>4</v>
       </c>
       <c r="C77" s="62">
-        <v>40.445868859995258</v>
+        <f>SUM('9.1'!C77:F77,'9.1'!K77)</f>
+        <v>57.037546259995267</v>
       </c>
       <c r="D77" s="62">
-        <v>33.786950511751535</v>
-      </c>
-      <c r="E77" s="52">
-        <f>SUM('9.1'!C77:E77)</f>
-        <v>39.868819459995265</v>
-      </c>
-      <c r="F77" s="52">
-        <f>SUM('9.1'!F77:K77)</f>
-        <v>33.979300311751537</v>
-      </c>
+        <f>SUM('9.1'!G77:J77)</f>
+        <v>16.810573511751535</v>
+      </c>
+      <c r="E77" s="52"/>
+      <c r="F77" s="52"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="60">
@@ -46035,19 +45731,15 @@
         <v>1</v>
       </c>
       <c r="C78" s="62">
-        <v>45.635818325440802</v>
+        <f>SUM('9.1'!C78:F78,'9.1'!K78)</f>
+        <v>60.853530465440805</v>
       </c>
       <c r="D78" s="62">
-        <v>31.962138246039373</v>
-      </c>
-      <c r="E78" s="52">
-        <f>SUM('9.1'!C78:E78)</f>
-        <v>44.839879535440801</v>
-      </c>
-      <c r="F78" s="52">
-        <f>SUM('9.1'!F78:K78)</f>
-        <v>32.227451176039374</v>
-      </c>
+        <f>SUM('9.1'!G78:J78)</f>
+        <v>16.213800246039376</v>
+      </c>
+      <c r="E78" s="52"/>
+      <c r="F78" s="52"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="60">
@@ -46057,19 +45749,15 @@
         <v>2</v>
       </c>
       <c r="C79" s="62">
-        <v>36.305955982458293</v>
+        <f>SUM('9.1'!C79:F79,'9.1'!K79)</f>
+        <v>51.092303372458296</v>
       </c>
       <c r="D79" s="62">
-        <v>26.660040275209369</v>
-      </c>
-      <c r="E79" s="52">
-        <f>SUM('9.1'!C79:E79)</f>
-        <v>35.790075067458297</v>
-      </c>
-      <c r="F79" s="52">
-        <f>SUM('9.1'!F79:K79)</f>
-        <v>26.832000580209368</v>
-      </c>
+        <f>SUM('9.1'!G79:J79)</f>
+        <v>11.529772275209368</v>
+      </c>
+      <c r="E79" s="52"/>
+      <c r="F79" s="52"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="60">
@@ -46079,19 +45767,15 @@
         <v>3</v>
       </c>
       <c r="C80" s="62">
-        <v>32.522855432915897</v>
+        <f>SUM('9.1'!C80:F80,'9.1'!K80)</f>
+        <v>49.246374162915885</v>
       </c>
       <c r="D80" s="62">
-        <v>28.194698311322821</v>
-      </c>
-      <c r="E80" s="52">
-        <f>SUM('9.1'!C80:E80)</f>
-        <v>31.914902027915893</v>
-      </c>
-      <c r="F80" s="52">
-        <f>SUM('9.1'!F80:K80)</f>
-        <v>28.397349446322821</v>
-      </c>
+        <f>SUM('9.1'!G80:J80)</f>
+        <v>11.065877311322824</v>
+      </c>
+      <c r="E80" s="52"/>
+      <c r="F80" s="52"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="60">
@@ -46101,19 +45785,15 @@
         <v>4</v>
       </c>
       <c r="C81" s="62">
-        <v>47.438142579546543</v>
+        <f>SUM('9.1'!C81:F81,'9.1'!K81)</f>
+        <v>64.117434683546549</v>
       </c>
       <c r="D81" s="62">
-        <v>30.670326122294981</v>
-      </c>
-      <c r="E81" s="52">
-        <f>SUM('9.1'!C81:E81)</f>
-        <v>46.744593735546545</v>
-      </c>
-      <c r="F81" s="52">
-        <f>SUM('9.1'!F81:K81)</f>
-        <v>30.901509070294981</v>
-      </c>
+        <f>SUM('9.1'!G81:J81)</f>
+        <v>13.528668122294981</v>
+      </c>
+      <c r="E81" s="52"/>
+      <c r="F81" s="52"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="60">
@@ -46123,19 +45803,15 @@
         <v>1</v>
       </c>
       <c r="C82" s="62">
-        <v>44.806529740931097</v>
+        <f>SUM('9.1'!C82:F82,'9.1'!K82)</f>
+        <v>60.252092218667094</v>
       </c>
       <c r="D82" s="62">
-        <v>33.185644209861749</v>
-      </c>
-      <c r="E82" s="52">
-        <f>SUM('9.1'!C82:E82)</f>
-        <v>43.9354973134311</v>
-      </c>
-      <c r="F82" s="52">
-        <f>SUM('9.1'!F82:K82)</f>
-        <v>33.475988352361746</v>
-      </c>
+        <f>SUM('9.1'!G82:J82)</f>
+        <v>17.159393447125744</v>
+      </c>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="60">
@@ -46145,19 +45821,15 @@
         <v>2</v>
       </c>
       <c r="C83" s="62">
-        <v>30.75224040158697</v>
+        <f>SUM('9.1'!C83:F83,'9.1'!K83)</f>
+        <v>46.433740946390976</v>
       </c>
       <c r="D83" s="62">
-        <v>30.112422014418357</v>
-      </c>
-      <c r="E83" s="52">
-        <f>SUM('9.1'!C83:E83)</f>
-        <v>29.97859758608697</v>
-      </c>
-      <c r="F83" s="52">
-        <f>SUM('9.1'!F83:K83)</f>
-        <v>30.370302952918358</v>
-      </c>
+        <f>SUM('9.1'!G83:J83)</f>
+        <v>13.915159592614355</v>
+      </c>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="60">
@@ -46167,19 +45839,15 @@
         <v>3</v>
       </c>
       <c r="C84" s="62">
-        <v>29.716087547736819</v>
+        <f>SUM('9.1'!C84:F84,'9.1'!K84)</f>
+        <v>45.606398482764824</v>
       </c>
       <c r="D84" s="62">
-        <v>30.04769381039754</v>
-      </c>
-      <c r="E84" s="52">
-        <f>SUM('9.1'!C84:E84)</f>
-        <v>28.792997035236819</v>
-      </c>
-      <c r="F84" s="52">
-        <f>SUM('9.1'!F84:K84)</f>
-        <v>30.35539064789754</v>
-      </c>
+        <f>SUM('9.1'!G84:J84)</f>
+        <v>13.541989200369535</v>
+      </c>
+      <c r="E84" s="52"/>
+      <c r="F84" s="52"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="60">
@@ -46189,19 +45857,15 @@
         <v>4</v>
       </c>
       <c r="C85" s="62">
-        <v>42.226158958966622</v>
+        <f>SUM('9.1'!C85:F85,'9.1'!K85)</f>
+        <v>56.799979053322616</v>
       </c>
       <c r="D85" s="62">
-        <v>34.619064384451754</v>
-      </c>
-      <c r="E85" s="52">
-        <f>SUM('9.1'!C85:E85)</f>
-        <v>41.350431118966618</v>
-      </c>
-      <c r="F85" s="52">
-        <f>SUM('9.1'!F85:K85)</f>
-        <v>34.910973664451753</v>
-      </c>
+        <f>SUM('9.1'!G85:J85)</f>
+        <v>19.461425730095758</v>
+      </c>
+      <c r="E85" s="52"/>
+      <c r="F85" s="52"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="60">
@@ -46211,19 +45875,15 @@
         <v>1</v>
       </c>
       <c r="C86" s="62">
-        <v>42.488401057451355</v>
+        <f>SUM('9.1'!C86:F86,'9.1'!K86)</f>
+        <v>57.017705279397354</v>
       </c>
       <c r="D86" s="62">
-        <v>34.857047622256673</v>
-      </c>
-      <c r="E86" s="52">
-        <f>SUM('9.1'!C86:E86)</f>
-        <v>41.605118482451353</v>
-      </c>
-      <c r="F86" s="52">
-        <f>SUM('9.1'!F86:K86)</f>
-        <v>35.151475147256676</v>
-      </c>
+        <f>SUM('9.1'!G86:J86)</f>
+        <v>19.738888350310667</v>
+      </c>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="60">
@@ -46233,19 +45893,15 @@
         <v>2</v>
       </c>
       <c r="C87" s="62">
-        <v>30.544243943982295</v>
+        <f>SUM('9.1'!C87:F87,'9.1'!K87)</f>
+        <v>45.112701644411295</v>
       </c>
       <c r="D87" s="62">
-        <v>30.197314208501982</v>
-      </c>
-      <c r="E87" s="52">
-        <f>SUM('9.1'!C87:E87)</f>
-        <v>29.739996299982295</v>
-      </c>
-      <c r="F87" s="52">
-        <f>SUM('9.1'!F87:K87)</f>
-        <v>30.465396756501981</v>
-      </c>
+        <f>SUM('9.1'!G87:J87)</f>
+        <v>15.092691412072986</v>
+      </c>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="60">
@@ -46255,19 +45911,15 @@
         <v>3</v>
       </c>
       <c r="C88" s="62">
-        <v>28.438393608530539</v>
+        <f>SUM('9.1'!C88:F88,'9.1'!K88)</f>
+        <v>43.600407106771542</v>
       </c>
       <c r="D88" s="62">
-        <v>31.103212224404949</v>
-      </c>
-      <c r="E88" s="52">
-        <f>SUM('9.1'!C88:E88)</f>
-        <v>27.68239220153054</v>
-      </c>
-      <c r="F88" s="52">
-        <f>SUM('9.1'!F88:K88)</f>
-        <v>31.355212693404948</v>
-      </c>
+        <f>SUM('9.1'!G88:J88)</f>
+        <v>15.437197788163949</v>
+      </c>
+      <c r="E88" s="52"/>
+      <c r="F88" s="52"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60">
@@ -46277,19 +45929,15 @@
         <v>4</v>
       </c>
       <c r="C89" s="62">
-        <v>35.634637384676751</v>
+        <f>SUM('9.1'!C89:F89,'9.1'!K89)</f>
+        <v>48.436620217519746</v>
       </c>
       <c r="D89" s="62">
-        <v>36.522895614357033</v>
-      </c>
-      <c r="E89" s="52">
-        <f>SUM('9.1'!C89:E89)</f>
-        <v>35.024176260176745</v>
-      </c>
-      <c r="F89" s="52">
-        <f>SUM('9.1'!F89:K89)</f>
-        <v>36.72638265585703</v>
-      </c>
+        <f>SUM('9.1'!G89:J89)</f>
+        <v>23.313938698514033</v>
+      </c>
+      <c r="E89" s="52"/>
+      <c r="F89" s="52"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="60">
@@ -46299,19 +45947,15 @@
         <v>1</v>
       </c>
       <c r="C90" s="62">
-        <v>36.522994175077343</v>
+        <f>SUM('9.1'!C90:F90,'9.1'!K90)</f>
+        <v>48.717120260828338</v>
       </c>
       <c r="D90" s="62">
-        <v>34.716640489926412</v>
-      </c>
-      <c r="E90" s="52">
-        <f>SUM('9.1'!C90:E90)</f>
-        <v>35.868061617577347</v>
-      </c>
-      <c r="F90" s="52">
-        <f>SUM('9.1'!F90:K90)</f>
-        <v>34.934951342426409</v>
-      </c>
+        <f>SUM('9.1'!G90:J90)</f>
+        <v>22.085892699175417</v>
+      </c>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60">
@@ -46321,19 +45965,15 @@
         <v>2</v>
       </c>
       <c r="C91" s="62">
-        <v>30.308742829666926</v>
+        <f>SUM('9.1'!C91:F91,'9.1'!K91)</f>
+        <v>41.699092119500925</v>
       </c>
       <c r="D91" s="62">
-        <v>28.759251436991132</v>
-      </c>
-      <c r="E91" s="52">
-        <f>SUM('9.1'!C91:E91)</f>
-        <v>29.591328810166925</v>
-      </c>
-      <c r="F91" s="52">
-        <f>SUM('9.1'!F91:K91)</f>
-        <v>28.998389443491131</v>
-      </c>
+        <f>SUM('9.1'!G91:J91)</f>
+        <v>16.890626134157131</v>
+      </c>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="60">
@@ -46343,19 +45983,15 @@
         <v>3</v>
       </c>
       <c r="C92" s="62">
-        <v>26.665714454075154</v>
+        <f>SUM('9.1'!C92:F92,'9.1'!K92)</f>
+        <v>38.453856387396151</v>
       </c>
       <c r="D92" s="62">
-        <v>31.247336901041358</v>
-      </c>
-      <c r="E92" s="52">
-        <f>SUM('9.1'!C92:E92)</f>
-        <v>25.828483263575155</v>
-      </c>
-      <c r="F92" s="52">
-        <f>SUM('9.1'!F92:K92)</f>
-        <v>31.526413964541359</v>
-      </c>
+        <f>SUM('9.1'!G92:J92)</f>
+        <v>18.901040840720359</v>
+      </c>
+      <c r="E92" s="52"/>
+      <c r="F92" s="52"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="60">
@@ -46365,19 +46001,15 @@
         <v>4</v>
       </c>
       <c r="C93" s="62">
-        <v>33.301182469953986</v>
+        <f>SUM('9.1'!C93:F93,'9.1'!K93)</f>
+        <v>46.86941603445598</v>
       </c>
       <c r="D93" s="62">
-        <v>38.162217792615969</v>
-      </c>
-      <c r="E93" s="52">
-        <f>SUM('9.1'!C93:E93)</f>
-        <v>32.373900027453985</v>
-      </c>
-      <c r="F93" s="52">
-        <f>SUM('9.1'!F93:K93)</f>
-        <v>38.471311940115967</v>
-      </c>
+        <f>SUM('9.1'!G93:J93)</f>
+        <v>23.975795933113965</v>
+      </c>
+      <c r="E93" s="52"/>
+      <c r="F93" s="52"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="60">
@@ -46387,19 +46019,15 @@
         <v>1</v>
       </c>
       <c r="C94" s="62">
-        <v>27.916560494242862</v>
+        <f>SUM('9.1'!C94:F94,'9.1'!K94)</f>
+        <v>39.080702472328134</v>
       </c>
       <c r="D94" s="62">
-        <v>42.348804550421114</v>
-      </c>
-      <c r="E94" s="52">
-        <f>SUM('9.1'!C94:E94)</f>
-        <v>26.806389419133769</v>
-      </c>
-      <c r="F94" s="52">
-        <f>SUM('9.1'!F94:K94)</f>
-        <v>42.718861575457481</v>
-      </c>
+        <f>SUM('9.1'!G94:J94)</f>
+        <v>30.444548522263119</v>
+      </c>
+      <c r="E94" s="52"/>
+      <c r="F94" s="52"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="60">
@@ -46409,19 +46037,15 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C95" s="62">
-        <v>20.858495282514397</v>
+        <f>SUM('9.1'!C95:F95,'9.1'!K95)</f>
+        <v>30.959495259577228</v>
       </c>
       <c r="D95" s="62">
-        <v>30.135003795038401</v>
-      </c>
-      <c r="E95" s="52">
-        <f>SUM('9.1'!C95:E95)</f>
-        <v>19.836441858481642</v>
-      </c>
-      <c r="F95" s="52">
-        <f>SUM('9.1'!F95:K95)</f>
-        <v>30.475688269715985</v>
-      </c>
+        <f>SUM('9.1'!G95:J95)</f>
+        <v>19.352634868620395</v>
+      </c>
+      <c r="E95" s="52"/>
+      <c r="F95" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46432,8 +46056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55480FB2-8C6B-5C42-9FA3-459C4F024B62}">
   <dimension ref="A1:D283"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -46450,7 +46074,7 @@
         <v>62</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>81</v>
@@ -46464,10 +46088,12 @@
         <v>43</v>
       </c>
       <c r="C2" s="52">
-        <v>20.582793000000002</v>
+        <f>SUM('9.2'!C2:F2,'9.2'!K2)</f>
+        <v>28.064493000000002</v>
       </c>
       <c r="D2" s="52">
-        <v>7.6578619999999997</v>
+        <f>SUM('9.2'!G2:J2)</f>
+        <v>0.17616200000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -46478,10 +46104,12 @@
         <v>44</v>
       </c>
       <c r="C3" s="52">
-        <v>18.887902</v>
+        <f>SUM('9.2'!C3:F3,'9.2'!K3)</f>
+        <v>26.667701999999998</v>
       </c>
       <c r="D3" s="52">
-        <v>8.061223</v>
+        <f>SUM('9.2'!G3:J3)</f>
+        <v>0.28142299999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -46492,10 +46120,12 @@
         <v>55</v>
       </c>
       <c r="C4" s="52">
-        <v>21.654955000000001</v>
+        <f>SUM('9.2'!C4:F4,'9.2'!K4)</f>
+        <v>30.309155000000001</v>
       </c>
       <c r="D4" s="52">
-        <v>9.3235409999999987</v>
+        <f>SUM('9.2'!G4:J4)</f>
+        <v>0.66934100000000007</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -46506,10 +46136,12 @@
         <v>46</v>
       </c>
       <c r="C5" s="52">
-        <v>15.075102000000001</v>
+        <f>SUM('9.2'!C5:F5,'9.2'!K5)</f>
+        <v>22.200901999999999</v>
       </c>
       <c r="D5" s="52">
-        <v>7.3934880000000005</v>
+        <f>SUM('9.2'!G5:J5)</f>
+        <v>0.26768800000000004</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -46520,10 +46152,12 @@
         <v>47</v>
       </c>
       <c r="C6" s="52">
-        <v>14.075858999999999</v>
+        <f>SUM('9.2'!C6:F6,'9.2'!K6)</f>
+        <v>21.552039000000001</v>
       </c>
       <c r="D6" s="52">
-        <v>7.6684260000000002</v>
+        <f>SUM('9.2'!G6:J6)</f>
+        <v>0.192246</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -46534,10 +46168,12 @@
         <v>52</v>
       </c>
       <c r="C7" s="52">
-        <v>16.911064</v>
+        <f>SUM('9.2'!C7:F7,'9.2'!K7)</f>
+        <v>25.425953999999997</v>
       </c>
       <c r="D7" s="52">
-        <v>8.6277229999999996</v>
+        <f>SUM('9.2'!G7:J7)</f>
+        <v>0.11283300000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -46548,10 +46184,12 @@
         <v>48</v>
       </c>
       <c r="C8" s="52">
-        <v>14.244707</v>
+        <f>SUM('9.2'!C8:F8,'9.2'!K8)</f>
+        <v>21.036546999999999</v>
       </c>
       <c r="D8" s="52">
-        <v>6.8768109999999991</v>
+        <f>SUM('9.2'!G8:J8)</f>
+        <v>8.4970999999999991E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -46562,10 +46200,12 @@
         <v>49</v>
       </c>
       <c r="C9" s="52">
-        <v>13.899674999999998</v>
+        <f>SUM('9.2'!C9:F9,'9.2'!K9)</f>
+        <v>20.306594999999998</v>
       </c>
       <c r="D9" s="52">
-        <v>6.4936920000000002</v>
+        <f>SUM('9.2'!G9:J9)</f>
+        <v>8.6772000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -46576,10 +46216,12 @@
         <v>53</v>
       </c>
       <c r="C10" s="52">
-        <v>19.286661000000002</v>
+        <f>SUM('9.2'!C10:F10,'9.2'!K10)</f>
+        <v>26.447931000000004</v>
       </c>
       <c r="D10" s="52">
-        <v>7.3846429999999996</v>
+        <f>SUM('9.2'!G10:J10)</f>
+        <v>0.22337300000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -46590,10 +46232,12 @@
         <v>50</v>
       </c>
       <c r="C11" s="52">
-        <v>17.236149000000001</v>
+        <f>SUM('9.2'!C11:F11,'9.2'!K11)</f>
+        <v>23.184909000000001</v>
       </c>
       <c r="D11" s="52">
-        <v>6.1106200000000008</v>
+        <f>SUM('9.2'!G11:J11)</f>
+        <v>0.16186</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -46604,10 +46248,12 @@
         <v>51</v>
       </c>
       <c r="C12" s="52">
-        <v>18.539107000000001</v>
+        <f>SUM('9.2'!C12:F12,'9.2'!K12)</f>
+        <v>25.640617000000002</v>
       </c>
       <c r="D12" s="52">
-        <v>7.261317</v>
+        <f>SUM('9.2'!G12:J12)</f>
+        <v>0.159807</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -46618,10 +46264,12 @@
         <v>54</v>
       </c>
       <c r="C13" s="52">
-        <v>23.708485</v>
+        <f>SUM('9.2'!C13:F13,'9.2'!K13)</f>
+        <v>32.606155000000001</v>
       </c>
       <c r="D13" s="52">
-        <v>9.2841539999999991</v>
+        <f>SUM('9.2'!G13:J13)</f>
+        <v>0.38648400000000005</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -46632,10 +46280,12 @@
         <v>43</v>
       </c>
       <c r="C14" s="52">
-        <v>18.153618999999999</v>
+        <f>SUM('9.2'!C14:F14,'9.2'!K14)</f>
+        <v>25.830017999999999</v>
       </c>
       <c r="D14" s="52">
-        <v>8.2335659999999997</v>
+        <f>SUM('9.2'!G14:J14)</f>
+        <v>0.55716699999999986</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -46646,10 +46296,12 @@
         <v>44</v>
       </c>
       <c r="C15" s="52">
-        <v>19.224891</v>
+        <f>SUM('9.2'!C15:F15,'9.2'!K15)</f>
+        <v>26.375768999999998</v>
       </c>
       <c r="D15" s="52">
-        <v>7.6380800000000004</v>
+        <f>SUM('9.2'!G15:J15)</f>
+        <v>0.48720200000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -46660,10 +46312,12 @@
         <v>55</v>
       </c>
       <c r="C16" s="52">
-        <v>23.218496000000002</v>
+        <f>SUM('9.2'!C16:F16,'9.2'!K16)</f>
+        <v>32.026848000000001</v>
       </c>
       <c r="D16" s="52">
-        <v>9.4803859999999993</v>
+        <f>SUM('9.2'!G16:J16)</f>
+        <v>0.67203399999999991</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -46674,10 +46328,12 @@
         <v>46</v>
       </c>
       <c r="C17" s="52">
-        <v>17.299557</v>
+        <f>SUM('9.2'!C17:F17,'9.2'!K17)</f>
+        <v>24.100436999999999</v>
       </c>
       <c r="D17" s="52">
-        <v>7.1385430000000003</v>
+        <f>SUM('9.2'!G17:J17)</f>
+        <v>0.33766299999999999</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -46688,10 +46344,12 @@
         <v>47</v>
       </c>
       <c r="C18" s="52">
-        <v>15.358888</v>
+        <f>SUM('9.2'!C18:F18,'9.2'!K18)</f>
+        <v>21.965654999999998</v>
       </c>
       <c r="D18" s="52">
-        <v>6.8364059999999993</v>
+        <f>SUM('9.2'!G18:J18)</f>
+        <v>0.22963899999999998</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -46702,10 +46360,12 @@
         <v>52</v>
       </c>
       <c r="C19" s="52">
-        <v>18.079749</v>
+        <f>SUM('9.2'!C19:F19,'9.2'!K19)</f>
+        <v>26.189188000000001</v>
       </c>
       <c r="D19" s="52">
-        <v>8.2679829999999992</v>
+        <f>SUM('9.2'!G19:J19)</f>
+        <v>0.15854399999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -46716,10 +46376,12 @@
         <v>48</v>
       </c>
       <c r="C20" s="52">
-        <v>16.137374000000001</v>
+        <f>SUM('9.2'!C20:F20,'9.2'!K20)</f>
+        <v>21.929506</v>
       </c>
       <c r="D20" s="52">
-        <v>5.9456629999999997</v>
+        <f>SUM('9.2'!G20:J20)</f>
+        <v>0.15353100000000003</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -46730,10 +46392,12 @@
         <v>49</v>
       </c>
       <c r="C21" s="52">
-        <v>14.954069</v>
+        <f>SUM('9.2'!C21:F21,'9.2'!K21)</f>
+        <v>21.479673999999999</v>
       </c>
       <c r="D21" s="52">
-        <v>6.821974</v>
+        <f>SUM('9.2'!G21:J21)</f>
+        <v>0.29636899999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -46744,10 +46408,12 @@
         <v>53</v>
       </c>
       <c r="C22" s="52">
-        <v>19.182808999999999</v>
+        <f>SUM('9.2'!C22:F22,'9.2'!K22)</f>
+        <v>27.745979999999999</v>
       </c>
       <c r="D22" s="52">
-        <v>8.9077540000000006</v>
+        <f>SUM('9.2'!G22:J22)</f>
+        <v>0.34458300000000003</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -46758,10 +46424,12 @@
         <v>50</v>
       </c>
       <c r="C23" s="52">
-        <v>17.551110999999999</v>
+        <f>SUM('9.2'!C23:F23,'9.2'!K23)</f>
+        <v>24.590229000000001</v>
       </c>
       <c r="D23" s="52">
-        <v>7.2922710000000004</v>
+        <f>SUM('9.2'!G23:J23)</f>
+        <v>0.25315299999999996</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -46772,10 +46440,12 @@
         <v>51</v>
       </c>
       <c r="C24" s="52">
-        <v>18.453479999999999</v>
+        <f>SUM('9.2'!C24:F24,'9.2'!K24)</f>
+        <v>26.463459999999998</v>
       </c>
       <c r="D24" s="52">
-        <v>8.5614740000000005</v>
+        <f>SUM('9.2'!G24:J24)</f>
+        <v>0.55149400000000004</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -46786,10 +46456,12 @@
         <v>54</v>
       </c>
       <c r="C25" s="52">
-        <v>23.178550000000001</v>
+        <f>SUM('9.2'!C25:F25,'9.2'!K25)</f>
+        <v>32.685839000000001</v>
       </c>
       <c r="D25" s="52">
-        <v>10.137987333333335</v>
+        <f>SUM('9.2'!G25:J25)</f>
+        <v>0.63069833333333336</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -46800,10 +46472,12 @@
         <v>43</v>
       </c>
       <c r="C26" s="52">
-        <v>19.541378000000002</v>
+        <f>SUM('9.2'!C26:F26,'9.2'!K26)</f>
+        <v>27.603619999999999</v>
       </c>
       <c r="D26" s="52">
-        <v>8.6716569999999997</v>
+        <f>SUM('9.2'!G26:J26)</f>
+        <v>0.60941500000000004</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -46814,10 +46488,12 @@
         <v>44</v>
       </c>
       <c r="C27" s="52">
-        <v>19.489236999999999</v>
+        <f>SUM('9.2'!C27:F27,'9.2'!K27)</f>
+        <v>27.056621</v>
       </c>
       <c r="D27" s="52">
-        <v>8.0767620000000004</v>
+        <f>SUM('9.2'!G27:J27)</f>
+        <v>0.509378</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -46828,10 +46504,12 @@
         <v>55</v>
       </c>
       <c r="C28" s="52">
-        <v>22.817305999999999</v>
+        <f>SUM('9.2'!C28:F28,'9.2'!K28)</f>
+        <v>31.370128999999999</v>
       </c>
       <c r="D28" s="52">
-        <v>9.1613039999999994</v>
+        <f>SUM('9.2'!G28:J28)</f>
+        <v>0.60848100000000005</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -46842,10 +46520,12 @@
         <v>46</v>
       </c>
       <c r="C29" s="52">
-        <v>16.894486999999998</v>
+        <f>SUM('9.2'!C29:F29,'9.2'!K29)</f>
+        <v>23.677471999999998</v>
       </c>
       <c r="D29" s="52">
-        <v>7.2750459999999997</v>
+        <f>SUM('9.2'!G29:J29)</f>
+        <v>0.49206099999999997</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -46856,10 +46536,12 @@
         <v>47</v>
       </c>
       <c r="C30" s="52">
-        <v>15.589618999999999</v>
+        <f>SUM('9.2'!C30:F30,'9.2'!K30)</f>
+        <v>22.752932999999999</v>
       </c>
       <c r="D30" s="52">
-        <v>7.4114319999999996</v>
+        <f>SUM('9.2'!G30:J30)</f>
+        <v>0.24811800000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -46870,10 +46552,12 @@
         <v>52</v>
       </c>
       <c r="C31" s="52">
-        <v>17.507995999999999</v>
+        <f>SUM('9.2'!C31:F31,'9.2'!K31)</f>
+        <v>26.278786999999998</v>
       </c>
       <c r="D31" s="52">
-        <v>9.0366420000000005</v>
+        <f>SUM('9.2'!G31:J31)</f>
+        <v>0.265851</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -46884,10 +46568,12 @@
         <v>48</v>
       </c>
       <c r="C32" s="52">
-        <v>15.794650000000001</v>
+        <f>SUM('9.2'!C32:F32,'9.2'!K32)</f>
+        <v>22.036300000000001</v>
       </c>
       <c r="D32" s="52">
-        <v>6.5085810000000004</v>
+        <f>SUM('9.2'!G32:J32)</f>
+        <v>0.26693099999999997</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -46898,10 +46584,12 @@
         <v>49</v>
       </c>
       <c r="C33" s="52">
-        <v>15.267764</v>
+        <f>SUM('9.2'!C33:F33,'9.2'!K33)</f>
+        <v>21.873956</v>
       </c>
       <c r="D33" s="52">
-        <v>6.7768079999999999</v>
+        <f>SUM('9.2'!G33:J33)</f>
+        <v>0.17061599999999999</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -46912,10 +46600,12 @@
         <v>53</v>
       </c>
       <c r="C34" s="52">
-        <v>19.548892000000002</v>
+        <f>SUM('9.2'!C34:F34,'9.2'!K34)</f>
+        <v>26.517016000000002</v>
       </c>
       <c r="D34" s="52">
-        <v>7.2438890000000002</v>
+        <f>SUM('9.2'!G34:J34)</f>
+        <v>0.27576500000000004</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -46926,10 +46616,12 @@
         <v>50</v>
       </c>
       <c r="C35" s="52">
-        <v>18.401349</v>
+        <f>SUM('9.2'!C35:F35,'9.2'!K35)</f>
+        <v>25.245906999999999</v>
       </c>
       <c r="D35" s="52">
-        <v>7.1759010000000005</v>
+        <f>SUM('9.2'!G35:J35)</f>
+        <v>0.331343</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -46940,10 +46632,12 @@
         <v>51</v>
       </c>
       <c r="C36" s="52">
-        <v>19.919682000000002</v>
+        <f>SUM('9.2'!C36:F36,'9.2'!K36)</f>
+        <v>26.748977000000004</v>
       </c>
       <c r="D36" s="52">
-        <v>7.3036910000000006</v>
+        <f>SUM('9.2'!G36:J36)</f>
+        <v>0.47439600000000004</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -46954,10 +46648,12 @@
         <v>54</v>
       </c>
       <c r="C37" s="52">
-        <v>24.914667000000001</v>
+        <f>SUM('9.2'!C37:F37,'9.2'!K37)</f>
+        <v>32.197361000000001</v>
       </c>
       <c r="D37" s="52">
-        <v>8.0138160000000003</v>
+        <f>SUM('9.2'!G37:J37)</f>
+        <v>0.73112200000000005</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -46968,10 +46664,12 @@
         <v>43</v>
       </c>
       <c r="C38" s="52">
-        <v>21.580798999999999</v>
+        <f>SUM('9.2'!C38:F38,'9.2'!K38)</f>
+        <v>28.656882</v>
       </c>
       <c r="D38" s="52">
-        <v>7.7545990989999991</v>
+        <f>SUM('9.2'!G38:J38)</f>
+        <v>0.67851609899999998</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -46982,10 +46680,12 @@
         <v>44</v>
       </c>
       <c r="C39" s="52">
-        <v>21.059262</v>
+        <f>SUM('9.2'!C39:F39,'9.2'!K39)</f>
+        <v>27.566447</v>
       </c>
       <c r="D39" s="52">
-        <v>7.194345641</v>
+        <f>SUM('9.2'!G39:J39)</f>
+        <v>0.68716064100000007</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -46996,10 +46696,12 @@
         <v>45</v>
       </c>
       <c r="C40" s="52">
-        <v>23.232308</v>
+        <f>SUM('9.2'!C40:F40,'9.2'!K40)</f>
+        <v>30.804319</v>
       </c>
       <c r="D40" s="52">
-        <v>8.2090298620000013</v>
+        <f>SUM('9.2'!G40:J40)</f>
+        <v>0.63701886200000013</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -47010,10 +46712,12 @@
         <v>46</v>
       </c>
       <c r="C41" s="52">
-        <v>19.042057999999997</v>
+        <f>SUM('9.2'!C41:F41,'9.2'!K41)</f>
+        <v>25.346375999999999</v>
       </c>
       <c r="D41" s="52">
-        <v>6.6145010420000006</v>
+        <f>SUM('9.2'!G41:J41)</f>
+        <v>0.31018304200000002</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -47024,10 +46728,12 @@
         <v>47</v>
       </c>
       <c r="C42" s="52">
-        <v>17.599444999999999</v>
+        <f>SUM('9.2'!C42:F42,'9.2'!K42)</f>
+        <v>24.201900999999999</v>
       </c>
       <c r="D42" s="52">
-        <v>6.8017543409999996</v>
+        <f>SUM('9.2'!G42:J42)</f>
+        <v>0.19929834099999999</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -47038,10 +46744,12 @@
         <v>52</v>
       </c>
       <c r="C43" s="52">
-        <v>19.107163999999997</v>
+        <f>SUM('9.2'!C43:F43,'9.2'!K43)</f>
+        <v>25.606380999999999</v>
       </c>
       <c r="D43" s="52">
-        <v>6.6798213689999999</v>
+        <f>SUM('9.2'!G43:J43)</f>
+        <v>0.18060436900000001</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -47052,10 +46760,12 @@
         <v>48</v>
       </c>
       <c r="C44" s="52">
-        <v>16.748352000000001</v>
+        <f>SUM('9.2'!C44:F44,'9.2'!K44)</f>
+        <v>22.492891</v>
       </c>
       <c r="D44" s="52">
-        <v>5.9039024329999998</v>
+        <f>SUM('9.2'!G44:J44)</f>
+        <v>0.159363433</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -47066,10 +46776,12 @@
         <v>49</v>
       </c>
       <c r="C45" s="52">
-        <v>16.284523</v>
+        <f>SUM('9.2'!C45:F45,'9.2'!K45)</f>
+        <v>22.446006000000001</v>
       </c>
       <c r="D45" s="52">
-        <v>6.3434179049999999</v>
+        <f>SUM('9.2'!G45:J45)</f>
+        <v>0.18193490499999998</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -47080,10 +46792,12 @@
         <v>53</v>
       </c>
       <c r="C46" s="52">
-        <v>20.633686000000001</v>
+        <f>SUM('9.2'!C46:F46,'9.2'!K46)</f>
+        <v>26.874534000000001</v>
       </c>
       <c r="D46" s="52">
-        <v>6.5331073100000001</v>
+        <f>SUM('9.2'!G46:J46)</f>
+        <v>0.29225930999999999</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -47094,10 +46808,12 @@
         <v>50</v>
       </c>
       <c r="C47" s="52">
-        <v>19.834975</v>
+        <f>SUM('9.2'!C47:F47,'9.2'!K47)</f>
+        <v>25.699536999999999</v>
       </c>
       <c r="D47" s="52">
-        <v>6.3390166050000003</v>
+        <f>SUM('9.2'!G47:J47)</f>
+        <v>0.47445460500000003</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -47108,10 +46824,12 @@
         <v>51</v>
       </c>
       <c r="C48" s="52">
-        <v>21.310938</v>
+        <f>SUM('9.2'!C48:F48,'9.2'!K48)</f>
+        <v>27.765083000000001</v>
       </c>
       <c r="D48" s="52">
-        <v>6.9632509159999998</v>
+        <f>SUM('9.2'!G48:J48)</f>
+        <v>0.50910591599999999</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -47122,10 +46840,12 @@
         <v>54</v>
       </c>
       <c r="C49" s="52">
-        <v>24.504579</v>
+        <f>SUM('9.2'!C49:F49,'9.2'!K49)</f>
+        <v>31.811616999999998</v>
       </c>
       <c r="D49" s="52">
-        <v>7.9530480870000009</v>
+        <f>SUM('9.2'!G49:J49)</f>
+        <v>0.64601008700000007</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -47136,10 +46856,12 @@
         <v>43</v>
       </c>
       <c r="C50" s="52">
-        <v>24.13674</v>
+        <f>SUM('9.2'!C50:F50,'9.2'!K50)</f>
+        <v>31.251470999999999</v>
       </c>
       <c r="D50" s="52">
-        <v>7.4965176869999999</v>
+        <f>SUM('9.2'!G50:J50)</f>
+        <v>0.38178668700000007</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -47150,10 +46872,12 @@
         <v>44</v>
       </c>
       <c r="C51" s="52">
-        <v>22.452164</v>
+        <f>SUM('9.2'!C51:F51,'9.2'!K51)</f>
+        <v>29.103324999999998</v>
       </c>
       <c r="D51" s="52">
-        <v>6.9776063050000001</v>
+        <f>SUM('9.2'!G51:J51)</f>
+        <v>0.32644530500000002</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -47164,10 +46888,12 @@
         <v>55</v>
       </c>
       <c r="C52" s="52">
-        <v>25.335521999999997</v>
+        <f>SUM('9.2'!C52:F52,'9.2'!K52)</f>
+        <v>32.552571999999998</v>
       </c>
       <c r="D52" s="52">
-        <v>7.4929044020000006</v>
+        <f>SUM('9.2'!G52:J52)</f>
+        <v>0.275854402</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -47178,10 +46904,12 @@
         <v>46</v>
       </c>
       <c r="C53" s="52">
-        <v>20.570318</v>
+        <f>SUM('9.2'!C53:F53,'9.2'!K53)</f>
+        <v>27.139929000000002</v>
       </c>
       <c r="D53" s="52">
-        <v>6.8040132</v>
+        <f>SUM('9.2'!G53:J53)</f>
+        <v>0.2344022</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -47192,10 +46920,12 @@
         <v>47</v>
       </c>
       <c r="C54" s="52">
-        <v>18.586148999999999</v>
+        <f>SUM('9.2'!C54:F54,'9.2'!K54)</f>
+        <v>24.424592999999998</v>
       </c>
       <c r="D54" s="52">
-        <v>5.9939655619999996</v>
+        <f>SUM('9.2'!G54:J54)</f>
+        <v>0.155521562</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -47206,10 +46936,12 @@
         <v>52</v>
       </c>
       <c r="C55" s="52">
-        <v>19.505093000000002</v>
+        <f>SUM('9.2'!C55:F55,'9.2'!K55)</f>
+        <v>25.68815</v>
       </c>
       <c r="D55" s="52">
-        <v>6.3596712120000003</v>
+        <f>SUM('9.2'!G55:J55)</f>
+        <v>0.17661421199999999</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -47220,10 +46952,12 @@
         <v>48</v>
       </c>
       <c r="C56" s="52">
-        <v>17.088373000000001</v>
+        <f>SUM('9.2'!C56:F56,'9.2'!K56)</f>
+        <v>23.422963000000003</v>
       </c>
       <c r="D56" s="52">
-        <v>6.521258284</v>
+        <f>SUM('9.2'!G56:J56)</f>
+        <v>0.18666828400000002</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -47234,10 +46968,12 @@
         <v>49</v>
       </c>
       <c r="C57" s="52">
-        <v>16.136401999999997</v>
+        <f>SUM('9.2'!C57:F57,'9.2'!K57)</f>
+        <v>23.073476999999997</v>
       </c>
       <c r="D57" s="52">
-        <v>7.1484924010000004</v>
+        <f>SUM('9.2'!G57:J57)</f>
+        <v>0.211417401</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -47248,10 +46984,12 @@
         <v>53</v>
       </c>
       <c r="C58" s="52">
-        <v>19.58324</v>
+        <f>SUM('9.2'!C58:F58,'9.2'!K58)</f>
+        <v>26.929098</v>
       </c>
       <c r="D58" s="52">
-        <v>7.5900022599999994</v>
+        <f>SUM('9.2'!G58:J58)</f>
+        <v>0.24414426</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -47262,10 +47000,12 @@
         <v>50</v>
       </c>
       <c r="C59" s="52">
-        <v>18.166061999999997</v>
+        <f>SUM('9.2'!C59:F59,'9.2'!K59)</f>
+        <v>25.476621999999995</v>
       </c>
       <c r="D59" s="52">
-        <v>7.9030357840000001</v>
+        <f>SUM('9.2'!G59:J59)</f>
+        <v>0.59247578399999989</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -47276,10 +47016,12 @@
         <v>51</v>
       </c>
       <c r="C60" s="52">
-        <v>21.356245000000001</v>
+        <f>SUM('9.2'!C60:F60,'9.2'!K60)</f>
+        <v>28.605508</v>
       </c>
       <c r="D60" s="52">
-        <v>7.8179256600000002</v>
+        <f>SUM('9.2'!G60:J60)</f>
+        <v>0.56866265999999999</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -47290,10 +47032,12 @@
         <v>54</v>
       </c>
       <c r="C61" s="52">
-        <v>24.862606</v>
+        <f>SUM('9.2'!C61:F61,'9.2'!K61)</f>
+        <v>33.096220000000002</v>
       </c>
       <c r="D61" s="52">
-        <v>8.766490374</v>
+        <f>SUM('9.2'!G61:J61)</f>
+        <v>0.5328763740000001</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -47304,10 +47048,12 @@
         <v>43</v>
       </c>
       <c r="C62" s="52">
-        <v>22.481304000000002</v>
+        <f>SUM('9.2'!C62:F62,'9.2'!K62)</f>
+        <v>29.577505000000002</v>
       </c>
       <c r="D62" s="52">
-        <v>7.675431874</v>
+        <f>SUM('9.2'!G62:J62)</f>
+        <v>0.57923087400000006</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -47318,10 +47064,12 @@
         <v>44</v>
       </c>
       <c r="C63" s="52">
-        <v>20.724184999999999</v>
+        <f>SUM('9.2'!C63:F63,'9.2'!K63)</f>
+        <v>27.945242999999998</v>
       </c>
       <c r="D63" s="52">
-        <v>7.9294637589999999</v>
+        <f>SUM('9.2'!G63:J63)</f>
+        <v>0.70840575900000002</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -47332,10 +47080,12 @@
         <v>55</v>
       </c>
       <c r="C64" s="52">
-        <v>25.109497000000001</v>
+        <f>SUM('9.2'!C64:F64,'9.2'!K64)</f>
+        <v>33.453510000000001</v>
       </c>
       <c r="D64" s="52">
-        <v>8.9463017839999992</v>
+        <f>SUM('9.2'!G64:J64)</f>
+        <v>0.60228878399999997</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -47346,10 +47096,12 @@
         <v>46</v>
       </c>
       <c r="C65" s="52">
-        <v>18.025961000000002</v>
+        <f>SUM('9.2'!C65:F65,'9.2'!K65)</f>
+        <v>24.919237000000003</v>
       </c>
       <c r="D65" s="52">
-        <v>7.2182347599999996</v>
+        <f>SUM('9.2'!G65:J65)</f>
+        <v>0.32495875999999996</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -47360,10 +47112,12 @@
         <v>47</v>
       </c>
       <c r="C66" s="52">
-        <v>17.865473000000001</v>
+        <f>SUM('9.2'!C66:F66,'9.2'!K66)</f>
+        <v>23.582221000000001</v>
       </c>
       <c r="D66" s="52">
-        <v>6.0935217839999991</v>
+        <f>SUM('9.2'!G66:J66)</f>
+        <v>0.376773784</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -47374,10 +47128,12 @@
         <v>52</v>
       </c>
       <c r="C67" s="52">
-        <v>20.421574999999997</v>
+        <f>SUM('9.2'!C67:F67,'9.2'!K67)</f>
+        <v>27.703471999999998</v>
       </c>
       <c r="D67" s="52">
-        <v>7.694744515</v>
+        <f>SUM('9.2'!G67:J67)</f>
+        <v>0.41284751500000005</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -47388,10 +47144,12 @@
         <v>48</v>
       </c>
       <c r="C68" s="52">
-        <v>17.911660000000001</v>
+        <f>SUM('9.2'!C68:F68,'9.2'!K68)</f>
+        <v>23.902656</v>
       </c>
       <c r="D68" s="52">
-        <v>6.2525481860000003</v>
+        <f>SUM('9.2'!G68:J68)</f>
+        <v>0.26155218600000002</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -47402,10 +47160,12 @@
         <v>49</v>
       </c>
       <c r="C69" s="52">
-        <v>16.874838</v>
+        <f>SUM('9.2'!C69:F69,'9.2'!K69)</f>
+        <v>23.131073000000001</v>
       </c>
       <c r="D69" s="52">
-        <v>6.4460350000000002</v>
+        <f>SUM('9.2'!G69:J69)</f>
+        <v>0.1898</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -47416,10 +47176,12 @@
         <v>53</v>
       </c>
       <c r="C70" s="52">
-        <v>21.937189</v>
+        <f>SUM('9.2'!C70:F70,'9.2'!K70)</f>
+        <v>28.726959000000001</v>
       </c>
       <c r="D70" s="52">
-        <v>7.0062212669999999</v>
+        <f>SUM('9.2'!G70:J70)</f>
+        <v>0.216451267</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -47430,10 +47192,12 @@
         <v>50</v>
       </c>
       <c r="C71" s="52">
-        <v>21.002207999999996</v>
+        <f>SUM('9.2'!C71:F71,'9.2'!K71)</f>
+        <v>26.318806999999996</v>
       </c>
       <c r="D71" s="52">
-        <v>5.561575393</v>
+        <f>SUM('9.2'!G71:J71)</f>
+        <v>0.24497639300000001</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -47444,10 +47208,12 @@
         <v>51</v>
       </c>
       <c r="C72" s="52">
-        <v>21.770094</v>
+        <f>SUM('9.2'!C72:F72,'9.2'!K72)</f>
+        <v>27.590524000000002</v>
       </c>
       <c r="D72" s="52">
-        <v>6.2756604029999998</v>
+        <f>SUM('9.2'!G72:J72)</f>
+        <v>0.45523040300000001</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -47458,10 +47224,12 @@
         <v>54</v>
       </c>
       <c r="C73" s="52">
-        <v>25.755958</v>
+        <f>SUM('9.2'!C73:F73,'9.2'!K73)</f>
+        <v>34.119047999999999</v>
       </c>
       <c r="D73" s="52">
-        <v>8.705941515860216</v>
+        <f>SUM('9.2'!G73:J73)</f>
+        <v>0.34285151586021506</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -47472,10 +47240,12 @@
         <v>43</v>
       </c>
       <c r="C74" s="52">
-        <v>22.413141562235047</v>
+        <f>SUM('9.2'!C74:F74,'9.2'!K74)</f>
+        <v>29.732696562235049</v>
       </c>
       <c r="D74" s="52">
-        <v>7.7271211435109812</v>
+        <f>SUM('9.2'!G74:J74)</f>
+        <v>0.40756614351098064</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -47486,10 +47256,12 @@
         <v>44</v>
       </c>
       <c r="C75" s="52">
-        <v>22.707231810917083</v>
+        <f>SUM('9.2'!C75:F75,'9.2'!K75)</f>
+        <v>29.941193810917081</v>
       </c>
       <c r="D75" s="52">
-        <v>7.5773186995114896</v>
+        <f>SUM('9.2'!G75:J75)</f>
+        <v>0.34335669951149023</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -47500,10 +47272,12 @@
         <v>55</v>
       </c>
       <c r="C76" s="52">
-        <v>24.863527129867098</v>
+        <f>SUM('9.2'!C76:F76,'9.2'!K76)</f>
+        <v>32.954760129867097</v>
       </c>
       <c r="D76" s="52">
-        <v>8.4054841523329014</v>
+        <f>SUM('9.2'!G76:J76)</f>
+        <v>0.31425115233290174</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -47514,10 +47288,12 @@
         <v>46</v>
       </c>
       <c r="C77" s="52">
-        <v>19.554553192366999</v>
+        <f>SUM('9.2'!C77:F77,'9.2'!K77)</f>
+        <v>26.131056192366998</v>
       </c>
       <c r="D77" s="52">
-        <v>6.7564870942996702</v>
+        <f>SUM('9.2'!G77:J77)</f>
+        <v>0.17998409429966883</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -47528,10 +47304,12 @@
         <v>47</v>
       </c>
       <c r="C78" s="52">
-        <v>17.882712290930776</v>
+        <f>SUM('9.2'!C78:F78,'9.2'!K78)</f>
+        <v>24.337218290930778</v>
       </c>
       <c r="D78" s="52">
-        <v>6.8248332443116464</v>
+        <f>SUM('9.2'!G78:J78)</f>
+        <v>0.37032724431164682</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -47542,10 +47320,12 @@
         <v>52</v>
       </c>
       <c r="C79" s="52">
-        <v>20.943007275620321</v>
+        <f>SUM('9.2'!C79:F79,'9.2'!K79)</f>
+        <v>28.64165227562032</v>
       </c>
       <c r="D79" s="52">
-        <v>7.9220117976524058</v>
+        <f>SUM('9.2'!G79:J79)</f>
+        <v>0.22336679765240572</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -47556,10 +47336,12 @@
         <v>48</v>
       </c>
       <c r="C80" s="52">
-        <v>18.716524223163795</v>
+        <f>SUM('9.2'!C80:F80,'9.2'!K80)</f>
+        <v>24.176613223163795</v>
       </c>
       <c r="D80" s="52">
-        <v>5.672909819836204</v>
+        <f>SUM('9.2'!G80:J80)</f>
+        <v>0.21282081983620402</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -47570,10 +47352,12 @@
         <v>49</v>
       </c>
       <c r="C81" s="52">
-        <v>17.608965266991834</v>
+        <f>SUM('9.2'!C81:F81,'9.2'!K81)</f>
+        <v>23.353156266991835</v>
       </c>
       <c r="D81" s="52">
-        <v>5.9467684786691812</v>
+        <f>SUM('9.2'!G81:J81)</f>
+        <v>0.20257747866918127</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -47584,10 +47368,12 @@
         <v>53</v>
       </c>
       <c r="C82" s="52">
-        <v>21.680100141137803</v>
+        <f>SUM('9.2'!C82:F82,'9.2'!K82)</f>
+        <v>29.716385141137806</v>
       </c>
       <c r="D82" s="52">
-        <v>8.2333533752011778</v>
+        <f>SUM('9.2'!G82:J82)</f>
+        <v>0.19706837520117687</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -47598,10 +47384,12 @@
         <v>50</v>
       </c>
       <c r="C83" s="52">
-        <v>21.794592305327466</v>
+        <f>SUM('9.2'!C83:F83,'9.2'!K83)</f>
+        <v>27.527696305327467</v>
       </c>
       <c r="D83" s="52">
-        <v>6.005934583672536</v>
+        <f>SUM('9.2'!G83:J83)</f>
+        <v>0.27283058367253643</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -47612,10 +47400,12 @@
         <v>51</v>
       </c>
       <c r="C84" s="52">
-        <v>22.416737813470256</v>
+        <f>SUM('9.2'!C84:F84,'9.2'!K84)</f>
+        <v>28.346720813470256</v>
       </c>
       <c r="D84" s="52">
-        <v>6.2949829788497471</v>
+        <f>SUM('9.2'!G84:J84)</f>
+        <v>0.36499997884974666</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -47626,10 +47416,12 @@
         <v>54</v>
       </c>
       <c r="C85" s="52">
-        <v>27.102005645148616</v>
+        <f>SUM('9.2'!C85:F85,'9.2'!K85)</f>
+        <v>34.735325645148613</v>
       </c>
       <c r="D85" s="52">
-        <v>8.1619491775313868</v>
+        <f>SUM('9.2'!G85:J85)</f>
+        <v>0.52862917753138716</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -47640,10 +47432,12 @@
         <v>43</v>
       </c>
       <c r="C86" s="52">
-        <v>23.015284124040654</v>
+        <f>SUM('9.2'!C86:F86,'9.2'!K86)</f>
+        <v>29.646303124040653</v>
       </c>
       <c r="D86" s="52">
-        <v>7.3064739979706506</v>
+        <f>SUM('9.2'!G86:J86)</f>
+        <v>0.67545499797065123</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -47654,10 +47448,12 @@
         <v>44</v>
       </c>
       <c r="C87" s="52">
-        <v>23.061478465960228</v>
+        <f>SUM('9.2'!C87:F87,'9.2'!K87)</f>
+        <v>29.613463465960226</v>
       </c>
       <c r="D87" s="52">
-        <v>7.1010766178666636</v>
+        <f>SUM('9.2'!G87:J87)</f>
+        <v>0.54909161786666372</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -47668,10 +47464,12 @@
         <v>55</v>
       </c>
       <c r="C88" s="52">
-        <v>26.94429040322094</v>
+        <f>SUM('9.2'!C88:F88,'9.2'!K88)</f>
+        <v>35.438618403220943</v>
       </c>
       <c r="D88" s="52">
-        <v>8.9185049290675273</v>
+        <f>SUM('9.2'!G88:J88)</f>
+        <v>0.42417692906752774</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -47682,10 +47480,12 @@
         <v>46</v>
       </c>
       <c r="C89" s="52">
-        <v>19.955644041206096</v>
+        <f>SUM('9.2'!C89:F89,'9.2'!K89)</f>
+        <v>25.810008041206096</v>
       </c>
       <c r="D89" s="52">
-        <v>6.2000173059836134</v>
+        <f>SUM('9.2'!G89:J89)</f>
+        <v>0.3456533059836141</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -47696,10 +47496,12 @@
         <v>47</v>
       </c>
       <c r="C90" s="52">
-        <v>18.770873001529591</v>
+        <f>SUM('9.2'!C90:F90,'9.2'!K90)</f>
+        <v>24.076240001529591</v>
       </c>
       <c r="D90" s="52">
-        <v>5.5781117812560144</v>
+        <f>SUM('9.2'!G90:J90)</f>
+        <v>0.27274478125601492</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -47710,10 +47512,12 @@
         <v>52</v>
       </c>
       <c r="C91" s="52">
-        <v>18.189675600369114</v>
+        <f>SUM('9.2'!C91:F91,'9.2'!K91)</f>
+        <v>24.163663284579641</v>
       </c>
       <c r="D91" s="52">
-        <v>6.1937482783363587</v>
+        <f>SUM('9.2'!G91:J91)</f>
+        <v>0.21976059412583326</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -47724,10 +47528,12 @@
         <v>48</v>
       </c>
       <c r="C92" s="52">
-        <v>19.361511698256592</v>
+        <f>SUM('9.2'!C92:F92,'9.2'!K92)</f>
+        <v>25.26875869825659</v>
       </c>
       <c r="D92" s="52">
-        <v>6.1423576573725622</v>
+        <f>SUM('9.2'!G92:J92)</f>
+        <v>0.23511065737256265</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -47738,10 +47544,12 @@
         <v>49</v>
       </c>
       <c r="C93" s="52">
-        <v>19.842296532641925</v>
+        <f>SUM('9.2'!C93:F93,'9.2'!K93)</f>
+        <v>25.433323532641925</v>
       </c>
       <c r="D93" s="52">
-        <v>5.9208569150250892</v>
+        <f>SUM('9.2'!G93:J93)</f>
+        <v>0.32982991502508868</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -47752,10 +47560,12 @@
         <v>53</v>
       </c>
       <c r="C94" s="52">
-        <v>19.868636582822361</v>
+        <f>SUM('9.2'!C94:F94,'9.2'!K94)</f>
+        <v>25.566784582822361</v>
       </c>
       <c r="D94" s="52">
-        <v>6.1843870270446804</v>
+        <f>SUM('9.2'!G94:J94)</f>
+        <v>0.48623902704468158</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -47766,10 +47576,12 @@
         <v>50</v>
       </c>
       <c r="C95" s="52">
-        <v>22.63392957588308</v>
+        <f>SUM('9.2'!C95:F95,'9.2'!K95)</f>
+        <v>28.159451575883079</v>
       </c>
       <c r="D95" s="52">
-        <v>6.1318871145538498</v>
+        <f>SUM('9.2'!G95:J95)</f>
+        <v>0.60636511455385023</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -47780,10 +47592,12 @@
         <v>51</v>
       </c>
       <c r="C96" s="52">
-        <v>24.474618259046686</v>
+        <f>SUM('9.2'!C96:F96,'9.2'!K96)</f>
+        <v>30.093197259046686</v>
       </c>
       <c r="D96" s="52">
-        <v>6.1327723578574691</v>
+        <f>SUM('9.2'!G96:J96)</f>
+        <v>0.51419335785746889</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -47794,10 +47608,12 @@
         <v>54</v>
       </c>
       <c r="C97" s="52">
-        <v>25.104313589308244</v>
+        <f>SUM('9.2'!C97:F97,'9.2'!K97)</f>
+        <v>31.634381589308244</v>
       </c>
       <c r="D97" s="52">
-        <v>7.1399516480879672</v>
+        <f>SUM('9.2'!G97:J97)</f>
+        <v>0.60988364808796747</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -47808,10 +47624,12 @@
         <v>43</v>
       </c>
       <c r="C98" s="52">
-        <v>23.987178423440646</v>
+        <f>SUM('9.2'!C98:F98,'9.2'!K98)</f>
+        <v>31.635189423440647</v>
       </c>
       <c r="D98" s="52">
-        <v>8.5173173957600614</v>
+        <f>SUM('9.2'!G98:J98)</f>
+        <v>0.86930639576006163</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -47822,10 +47640,12 @@
         <v>44</v>
       </c>
       <c r="C99" s="52">
-        <v>23.577678954286768</v>
+        <f>SUM('9.2'!C99:F99,'9.2'!K99)</f>
+        <v>29.934940954286766</v>
       </c>
       <c r="D99" s="52">
-        <v>7.0194350496345681</v>
+        <f>SUM('9.2'!G99:J99)</f>
+        <v>0.66217304963456836</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -47836,10 +47656,12 @@
         <v>55</v>
       </c>
       <c r="C100" s="52">
-        <v>24.546273359562122</v>
+        <f>SUM('9.2'!C100:F100,'9.2'!K100)</f>
+        <v>31.228581359562121</v>
       </c>
       <c r="D100" s="52">
-        <v>7.2572488945276401</v>
+        <f>SUM('9.2'!G100:J100)</f>
+        <v>0.57494089452763886</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -47850,10 +47672,12 @@
         <v>46</v>
       </c>
       <c r="C101" s="52">
-        <v>22.029298820199163</v>
+        <f>SUM('9.2'!C101:F101,'9.2'!K101)</f>
+        <v>27.784410820199163</v>
       </c>
       <c r="D101" s="52">
-        <v>6.255594144506853</v>
+        <f>SUM('9.2'!G101:J101)</f>
+        <v>0.5004821445068528</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -47864,10 +47688,12 @@
         <v>47</v>
       </c>
       <c r="C102" s="52">
-        <v>19.86973426655009</v>
+        <f>SUM('9.2'!C102:F102,'9.2'!K102)</f>
+        <v>25.989639266550089</v>
       </c>
       <c r="D102" s="52">
-        <v>6.5613412406055431</v>
+        <f>SUM('9.2'!G102:J102)</f>
+        <v>0.44143624060554265</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -47878,10 +47704,12 @@
         <v>52</v>
       </c>
       <c r="C103" s="52">
-        <v>18.809670867636182</v>
+        <f>SUM('9.2'!C103:F103,'9.2'!K103)</f>
+        <v>25.170811867636182</v>
       </c>
       <c r="D103" s="52">
-        <v>6.7407432040815349</v>
+        <f>SUM('9.2'!G103:J103)</f>
+        <v>0.379602204081535</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -47892,10 +47720,12 @@
         <v>48</v>
       </c>
       <c r="C104" s="52">
-        <v>19.010715041605319</v>
+        <f>SUM('9.2'!C104:F104,'9.2'!K104)</f>
+        <v>25.419511041605318</v>
       </c>
       <c r="D104" s="52">
-        <v>6.6889846828176163</v>
+        <f>SUM('9.2'!G104:J104)</f>
+        <v>0.28018868281761544</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -47906,10 +47736,12 @@
         <v>49</v>
       </c>
       <c r="C105" s="52">
-        <v>17.972376737426345</v>
+        <f>SUM('9.2'!C105:F105,'9.2'!K105)</f>
+        <v>24.883739737426346</v>
       </c>
       <c r="D105" s="52">
-        <v>7.1924542008786503</v>
+        <f>SUM('9.2'!G105:J105)</f>
+        <v>0.28109120087865042</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -47920,10 +47752,12 @@
         <v>53</v>
       </c>
       <c r="C106" s="52">
-        <v>19.898351220388907</v>
+        <f>SUM('9.2'!C106:F106,'9.2'!K106)</f>
+        <v>25.342957220388907</v>
       </c>
       <c r="D106" s="52">
-        <v>5.8510484939305591</v>
+        <f>SUM('9.2'!G106:J106)</f>
+        <v>0.40644249393055998</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -47934,10 +47768,12 @@
         <v>50</v>
       </c>
       <c r="C107" s="52">
-        <v>22.167100263192157</v>
+        <f>SUM('9.2'!C107:F107,'9.2'!K107)</f>
+        <v>27.298539263192158</v>
       </c>
       <c r="D107" s="52">
-        <v>5.7171254946454448</v>
+        <f>SUM('9.2'!G107:J107)</f>
+        <v>0.58568649464544409</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -47948,10 +47784,12 @@
         <v>51</v>
       </c>
       <c r="C108" s="52">
-        <v>24.360606950712224</v>
+        <f>SUM('9.2'!C108:F108,'9.2'!K108)</f>
+        <v>30.208089950712225</v>
       </c>
       <c r="D108" s="52">
-        <v>6.5565251366290145</v>
+        <f>SUM('9.2'!G108:J108)</f>
+        <v>0.70904213662901328</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -47962,10 +47800,12 @@
         <v>54</v>
       </c>
       <c r="C109" s="52">
-        <v>25.462241203246037</v>
+        <f>SUM('9.2'!C109:F109,'9.2'!K109)</f>
+        <v>31.967603203246036</v>
       </c>
       <c r="D109" s="52">
-        <v>7.1219299158186962</v>
+        <f>SUM('9.2'!G109:J109)</f>
+        <v>0.61656791581869652</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -47976,10 +47816,12 @@
         <v>43</v>
       </c>
       <c r="C110" s="52">
-        <v>25.749886477989527</v>
+        <f>SUM('9.2'!C110:F110,'9.2'!K110)</f>
+        <v>32.844045477989525</v>
       </c>
       <c r="D110" s="52">
-        <v>7.7744562381636886</v>
+        <f>SUM('9.2'!G110:J110)</f>
+        <v>0.68029723816368892</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -47990,10 +47832,12 @@
         <v>44</v>
       </c>
       <c r="C111" s="52">
-        <v>23.684483541224232</v>
+        <f>SUM('9.2'!C111:F111,'9.2'!K111)</f>
+        <v>29.937105541224231</v>
       </c>
       <c r="D111" s="52">
-        <v>6.7640903450004917</v>
+        <f>SUM('9.2'!G111:J111)</f>
+        <v>0.51146834500049188</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -48004,10 +47848,12 @@
         <v>55</v>
       </c>
       <c r="C112" s="52">
-        <v>24.94421409584417</v>
+        <f>SUM('9.2'!C112:F112,'9.2'!K112)</f>
+        <v>32.122017095844171</v>
       </c>
       <c r="D112" s="52">
-        <v>7.71747085446935</v>
+        <f>SUM('9.2'!G112:J112)</f>
+        <v>0.53966785446935084</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -48018,10 +47864,12 @@
         <v>46</v>
       </c>
       <c r="C113" s="52">
-        <v>19.773758804529248</v>
+        <f>SUM('9.2'!C113:F113,'9.2'!K113)</f>
+        <v>26.110744804529247</v>
       </c>
       <c r="D113" s="52">
-        <v>6.8459782041461539</v>
+        <f>SUM('9.2'!G113:J113)</f>
+        <v>0.50899220414615398</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -48032,10 +47880,12 @@
         <v>47</v>
       </c>
       <c r="C114" s="52">
-        <v>19.376966470918873</v>
+        <f>SUM('9.2'!C114:F114,'9.2'!K114)</f>
+        <v>25.611661470918875</v>
       </c>
       <c r="D114" s="52">
-        <v>6.7095115961892455</v>
+        <f>SUM('9.2'!G114:J114)</f>
+        <v>0.47481659618924554</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -48046,10 +47896,12 @@
         <v>52</v>
       </c>
       <c r="C115" s="52">
-        <v>18.995909671405887</v>
+        <f>SUM('9.2'!C115:F115,'9.2'!K115)</f>
+        <v>24.629297671405887</v>
       </c>
       <c r="D115" s="52">
-        <v>5.9772620626794888</v>
+        <f>SUM('9.2'!G115:J115)</f>
+        <v>0.34387406267949028</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -48060,10 +47912,12 @@
         <v>48</v>
       </c>
       <c r="C116" s="52">
-        <v>19.528093785980687</v>
+        <f>SUM('9.2'!C116:F116,'9.2'!K116)</f>
+        <v>25.368363785980687</v>
       </c>
       <c r="D116" s="52">
-        <v>6.140424195725938</v>
+        <f>SUM('9.2'!G116:J116)</f>
+        <v>0.30015419572593854</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -48074,10 +47928,12 @@
         <v>49</v>
       </c>
       <c r="C117" s="52">
-        <v>18.601033926775631</v>
+        <f>SUM('9.2'!C117:F117,'9.2'!K117)</f>
+        <v>24.81513792677563</v>
       </c>
       <c r="D117" s="52">
-        <v>6.4931292171594999</v>
+        <f>SUM('9.2'!G117:J117)</f>
+        <v>0.27902521715950174</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -48088,10 +47944,12 @@
         <v>53</v>
       </c>
       <c r="C118" s="52">
-        <v>20.544985399518779</v>
+        <f>SUM('9.2'!C118:F118,'9.2'!K118)</f>
+        <v>25.734764399518781</v>
       </c>
       <c r="D118" s="52">
-        <v>5.6211930833791506</v>
+        <f>SUM('9.2'!G118:J118)</f>
+        <v>0.43141408337915083</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -48102,10 +47960,12 @@
         <v>50</v>
       </c>
       <c r="C119" s="52">
-        <v>22.854066714313085</v>
+        <f>SUM('9.2'!C119:F119,'9.2'!K119)</f>
+        <v>26.897408714313084</v>
       </c>
       <c r="D119" s="52">
-        <v>4.608272664335507</v>
+        <f>SUM('9.2'!G119:J119)</f>
+        <v>0.56493066433550676</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -48116,10 +47976,12 @@
         <v>51</v>
       </c>
       <c r="C120" s="52">
-        <v>24.980649949122025</v>
+        <f>SUM('9.2'!C120:F120,'9.2'!K120)</f>
+        <v>29.297142949122026</v>
       </c>
       <c r="D120" s="52">
-        <v>5.0935282782424629</v>
+        <f>SUM('9.2'!G120:J120)</f>
+        <v>0.77703527824246255</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -48130,10 +47992,12 @@
         <v>54</v>
       </c>
       <c r="C121" s="52">
-        <v>25.883551268616099</v>
+        <f>SUM('9.2'!C121:F121,'9.2'!K121)</f>
+        <v>30.787066268616098</v>
       </c>
       <c r="D121" s="52">
-        <v>5.8156669882833656</v>
+        <f>SUM('9.2'!G121:J121)</f>
+        <v>0.91215198828336574</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -48144,10 +48008,12 @@
         <v>43</v>
       </c>
       <c r="C122" s="52">
-        <v>26.387831269351373</v>
+        <f>SUM('9.2'!C122:F122,'9.2'!K122)</f>
+        <v>31.416365269351374</v>
       </c>
       <c r="D122" s="52">
-        <v>6.394476397241954</v>
+        <f>SUM('9.2'!G122:J122)</f>
+        <v>1.3659423972419549</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -48158,10 +48024,12 @@
         <v>44</v>
       </c>
       <c r="C123" s="52">
-        <v>24.134888452881427</v>
+        <f>SUM('9.2'!C123:F123,'9.2'!K123)</f>
+        <v>28.621929452881428</v>
       </c>
       <c r="D123" s="52">
-        <v>5.4009370435555875</v>
+        <f>SUM('9.2'!G123:J123)</f>
+        <v>0.91389604355558673</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -48172,10 +48040,12 @@
         <v>55</v>
       </c>
       <c r="C124" s="52">
-        <v>24.987701846186496</v>
+        <f>SUM('9.2'!C124:F124,'9.2'!K124)</f>
+        <v>29.594131846186496</v>
       </c>
       <c r="D124" s="52">
-        <v>5.7794095004806083</v>
+        <f>SUM('9.2'!G124:J124)</f>
+        <v>1.1729795004806078</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -48186,10 +48056,12 @@
         <v>46</v>
       </c>
       <c r="C125" s="52">
-        <v>21.843953546560691</v>
+        <f>SUM('9.2'!C125:F125,'9.2'!K125)</f>
+        <v>26.208620546560692</v>
       </c>
       <c r="D125" s="52">
-        <v>4.945531838798118</v>
+        <f>SUM('9.2'!G125:J125)</f>
+        <v>0.58086483879811701</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -48200,10 +48072,12 @@
         <v>47</v>
       </c>
       <c r="C126" s="52">
-        <v>21.759907567746595</v>
+        <f>SUM('9.2'!C126:F126,'9.2'!K126)</f>
+        <v>26.185877567746594</v>
       </c>
       <c r="D126" s="52">
-        <v>5.0849546331159097</v>
+        <f>SUM('9.2'!G126:J126)</f>
+        <v>0.65898463311590894</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -48214,10 +48088,12 @@
         <v>52</v>
       </c>
       <c r="C127" s="52">
-        <v>19.583195998127337</v>
+        <f>SUM('9.2'!C127:F127,'9.2'!K127)</f>
+        <v>24.522536998127336</v>
       </c>
       <c r="D127" s="52">
-        <v>5.4270186366282571</v>
+        <f>SUM('9.2'!G127:J127)</f>
+        <v>0.48767763662825714</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -48228,10 +48104,12 @@
         <v>48</v>
       </c>
       <c r="C128" s="52">
-        <v>19.26715651659616</v>
+        <f>SUM('9.2'!C128:F128,'9.2'!K128)</f>
+        <v>24.820236516596161</v>
       </c>
       <c r="D128" s="52">
-        <v>6.1597514139311524</v>
+        <f>SUM('9.2'!G128:J128)</f>
+        <v>0.60667141393115298</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -48242,10 +48120,12 @@
         <v>49</v>
       </c>
       <c r="C129" s="52">
-        <v>19.354734851539359</v>
+        <f>SUM('9.2'!C129:F129,'9.2'!K129)</f>
+        <v>24.343280851539358</v>
       </c>
       <c r="D129" s="52">
-        <v>5.6449417542715885</v>
+        <f>SUM('9.2'!G129:J129)</f>
+        <v>0.65639575427158725</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -48256,10 +48136,12 @@
         <v>53</v>
       </c>
       <c r="C130" s="52">
-        <v>19.605692060080575</v>
+        <f>SUM('9.2'!C130:F130,'9.2'!K130)</f>
+        <v>24.798526060080576</v>
       </c>
       <c r="D130" s="52">
-        <v>5.8744527357953435</v>
+        <f>SUM('9.2'!G130:J130)</f>
+        <v>0.6816187357953436</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -48270,10 +48152,12 @@
         <v>50</v>
       </c>
       <c r="C131" s="52">
-        <v>24.147017109287631</v>
+        <f>SUM('9.2'!C131:F131,'9.2'!K131)</f>
+        <v>28.63555210928763</v>
       </c>
       <c r="D131" s="52">
-        <v>5.1201712158689521</v>
+        <f>SUM('9.2'!G131:J131)</f>
+        <v>0.63163621586895247</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -48284,10 +48168,12 @@
         <v>51</v>
       </c>
       <c r="C132" s="52">
-        <v>26.100443238265633</v>
+        <f>SUM('9.2'!C132:F132,'9.2'!K132)</f>
+        <v>30.642255238265633</v>
       </c>
       <c r="D132" s="52">
-        <v>5.4492127171117515</v>
+        <f>SUM('9.2'!G132:J132)</f>
+        <v>0.9074007171117513</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -48298,10 +48184,12 @@
         <v>54</v>
       </c>
       <c r="C133" s="52">
-        <v>27.171401550037906</v>
+        <f>SUM('9.2'!C133:F133,'9.2'!K133)</f>
+        <v>31.803506550037905</v>
       </c>
       <c r="D133" s="52">
-        <v>5.7568996747603052</v>
+        <f>SUM('9.2'!G133:J133)</f>
+        <v>1.1247946747603059</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -48312,10 +48200,12 @@
         <v>43</v>
       </c>
       <c r="C134" s="52">
-        <v>26.587111781550778</v>
+        <f>SUM('9.2'!C134:F134,'9.2'!K134)</f>
+        <v>31.19525478155078</v>
       </c>
       <c r="D134" s="52">
-        <v>6.0756697190158793</v>
+        <f>SUM('9.2'!G134:J134)</f>
+        <v>1.4675267190158787</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -48326,10 +48216,12 @@
         <v>44</v>
       </c>
       <c r="C135" s="52">
-        <v>24.59336020811832</v>
+        <f>SUM('9.2'!C135:F135,'9.2'!K135)</f>
+        <v>29.071561208118318</v>
       </c>
       <c r="D135" s="52">
-        <v>5.6852739410747004</v>
+        <f>SUM('9.2'!G135:J135)</f>
+        <v>1.2070729410747005</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -48340,10 +48232,12 @@
         <v>55</v>
       </c>
       <c r="C136" s="52">
-        <v>25.674642767865798</v>
+        <f>SUM('9.2'!C136:F136,'9.2'!K136)</f>
+        <v>29.7272947678658</v>
       </c>
       <c r="D136" s="52">
-        <v>5.3414885056823156</v>
+        <f>SUM('9.2'!G136:J136)</f>
+        <v>1.288836505682315</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -48354,10 +48248,12 @@
         <v>46</v>
       </c>
       <c r="C137" s="52">
-        <v>24.35316967713484</v>
+        <f>SUM('9.2'!C137:F137,'9.2'!K137)</f>
+        <v>27.56788967713484</v>
       </c>
       <c r="D137" s="52">
-        <v>4.1537325899044344</v>
+        <f>SUM('9.2'!G137:J137)</f>
+        <v>0.9390125899044347</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -48368,10 +48264,12 @@
         <v>47</v>
       </c>
       <c r="C138" s="52">
-        <v>20.637515319505322</v>
+        <f>SUM('9.2'!C138:F138,'9.2'!K138)</f>
+        <v>24.582408319505323</v>
       </c>
       <c r="D138" s="52">
-        <v>4.5794782724062735</v>
+        <f>SUM('9.2'!G138:J138)</f>
+        <v>0.63458527240627272</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -48382,10 +48280,12 @@
         <v>52</v>
       </c>
       <c r="C139" s="52">
-        <v>19.590941989620962</v>
+        <f>SUM('9.2'!C139:F139,'9.2'!K139)</f>
+        <v>23.510946989620962</v>
       </c>
       <c r="D139" s="52">
-        <v>4.5247131795998206</v>
+        <f>SUM('9.2'!G139:J139)</f>
+        <v>0.60470817959982082</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -48396,10 +48296,12 @@
         <v>48</v>
       </c>
       <c r="C140" s="52">
-        <v>20.758175825053755</v>
+        <f>SUM('9.2'!C140:F140,'9.2'!K140)</f>
+        <v>24.355237825053756</v>
       </c>
       <c r="D140" s="52">
-        <v>4.2460398728890052</v>
+        <f>SUM('9.2'!G140:J140)</f>
+        <v>0.64897787288900521</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -48410,10 +48312,12 @@
         <v>49</v>
       </c>
       <c r="C141" s="52">
-        <v>20.1729082485421</v>
+        <f>SUM('9.2'!C141:F141,'9.2'!K141)</f>
+        <v>24.071780248542101</v>
       </c>
       <c r="D141" s="52">
-        <v>4.5948384250856282</v>
+        <f>SUM('9.2'!G141:J141)</f>
+        <v>0.69596642508562778</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -48424,10 +48328,12 @@
         <v>53</v>
       </c>
       <c r="C142" s="52">
-        <v>20.939180633878294</v>
+        <f>SUM('9.2'!C142:F142,'9.2'!K142)</f>
+        <v>24.407091633878295</v>
       </c>
       <c r="D142" s="52">
-        <v>4.1930516412316843</v>
+        <f>SUM('9.2'!G142:J142)</f>
+        <v>0.72514064123168431</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -48438,10 +48344,12 @@
         <v>50</v>
       </c>
       <c r="C143" s="52">
-        <v>23.441075387159842</v>
+        <f>SUM('9.2'!C143:F143,'9.2'!K143)</f>
+        <v>27.294368387159842</v>
       </c>
       <c r="D143" s="52">
-        <v>5.1344998203688128</v>
+        <f>SUM('9.2'!G143:J143)</f>
+        <v>1.2812068203688123</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -48452,10 +48360,12 @@
         <v>51</v>
       </c>
       <c r="C144" s="52">
-        <v>24.358917540119513</v>
+        <f>SUM('9.2'!C144:F144,'9.2'!K144)</f>
+        <v>28.211007540119514</v>
       </c>
       <c r="D144" s="52">
-        <v>5.0914415370980128</v>
+        <f>SUM('9.2'!G144:J144)</f>
+        <v>1.2393515370980137</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -48466,10 +48376,12 @@
         <v>54</v>
       </c>
       <c r="C145" s="52">
-        <v>25.77921115833724</v>
+        <f>SUM('9.2'!C145:F145,'9.2'!K145)</f>
+        <v>30.564438158337239</v>
       </c>
       <c r="D145" s="52">
-        <v>5.9958505243498461</v>
+        <f>SUM('9.2'!G145:J145)</f>
+        <v>1.2106235243498453</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -48480,10 +48392,12 @@
         <v>43</v>
       </c>
       <c r="C146" s="52">
-        <v>27.124023137354495</v>
+        <f>SUM('9.2'!C146:F146,'9.2'!K146)</f>
+        <v>31.151051137354493</v>
       </c>
       <c r="D146" s="52">
-        <v>5.468144921017803</v>
+        <f>SUM('9.2'!G146:J146)</f>
+        <v>1.4411169210178032</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -48494,10 +48408,12 @@
         <v>44</v>
       </c>
       <c r="C147" s="52">
-        <v>22.867241089928825</v>
+        <f>SUM('9.2'!C147:F147,'9.2'!K147)</f>
+        <v>28.091896089928824</v>
       </c>
       <c r="D147" s="52">
-        <v>6.2548902326739313</v>
+        <f>SUM('9.2'!G147:J147)</f>
+        <v>1.0302352326739319</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -48508,10 +48424,12 @@
         <v>55</v>
       </c>
       <c r="C148" s="52">
-        <v>21.792104350186531</v>
+        <f>SUM('9.2'!C148:F148,'9.2'!K148)</f>
+        <v>27.938969350186532</v>
       </c>
       <c r="D148" s="52">
-        <v>7.5562196608960823</v>
+        <f>SUM('9.2'!G148:J148)</f>
+        <v>1.4093546608960823</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -48522,10 +48440,12 @@
         <v>46</v>
       </c>
       <c r="C149" s="52">
-        <v>18.007208473415304</v>
+        <f>SUM('9.2'!C149:F149,'9.2'!K149)</f>
+        <v>23.868755473415305</v>
       </c>
       <c r="D149" s="52">
-        <v>6.782258517173827</v>
+        <f>SUM('9.2'!G149:J149)</f>
+        <v>0.92071151717382571</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -48536,10 +48456,12 @@
         <v>47</v>
       </c>
       <c r="C150" s="52">
-        <v>18.099868828327068</v>
+        <f>SUM('9.2'!C150:F150,'9.2'!K150)</f>
+        <v>23.012850828327068</v>
       </c>
       <c r="D150" s="52">
-        <v>6.0081334546820804</v>
+        <f>SUM('9.2'!G150:J150)</f>
+        <v>1.0951514546820798</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -48550,10 +48472,12 @@
         <v>52</v>
       </c>
       <c r="C151" s="52">
-        <v>17.606285971580832</v>
+        <f>SUM('9.2'!C151:F151,'9.2'!K151)</f>
+        <v>23.282637971580833</v>
       </c>
       <c r="D151" s="52">
-        <v>6.337823520548004</v>
+        <f>SUM('9.2'!G151:J151)</f>
+        <v>0.6614715205480044</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -48564,10 +48488,12 @@
         <v>48</v>
       </c>
       <c r="C152" s="52">
-        <v>17.748530491791112</v>
+        <f>SUM('9.2'!C152:F152,'9.2'!K152)</f>
+        <v>23.468699491791114</v>
       </c>
       <c r="D152" s="52">
-        <v>6.4344464433579907</v>
+        <f>SUM('9.2'!G152:J152)</f>
+        <v>0.71427744335799082</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -48578,10 +48504,12 @@
         <v>49</v>
       </c>
       <c r="C153" s="52">
-        <v>17.573525062608127</v>
+        <f>SUM('9.2'!C153:F153,'9.2'!K153)</f>
+        <v>23.105386062608126</v>
       </c>
       <c r="D153" s="52">
-        <v>6.5968647679078378</v>
+        <f>SUM('9.2'!G153:J153)</f>
+        <v>1.0650037679078381</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -48592,10 +48520,12 @@
         <v>53</v>
       </c>
       <c r="C154" s="52">
-        <v>18.746812825289897</v>
+        <f>SUM('9.2'!C154:F154,'9.2'!K154)</f>
+        <v>23.597960825289896</v>
       </c>
       <c r="D154" s="52">
-        <v>5.9540987914129406</v>
+        <f>SUM('9.2'!G154:J154)</f>
+        <v>1.1029507914129397</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -48606,10 +48536,12 @@
         <v>50</v>
       </c>
       <c r="C155" s="52">
-        <v>21.929056902299052</v>
+        <f>SUM('9.2'!C155:F155,'9.2'!K155)</f>
+        <v>26.45150190229905</v>
       </c>
       <c r="D155" s="52">
-        <v>5.5858391571151804</v>
+        <f>SUM('9.2'!G155:J155)</f>
+        <v>1.0633941571151815</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -48620,10 +48552,12 @@
         <v>51</v>
       </c>
       <c r="C156" s="52">
-        <v>21.757849348625221</v>
+        <f>SUM('9.2'!C156:F156,'9.2'!K156)</f>
+        <v>26.815845348625221</v>
       </c>
       <c r="D156" s="52">
-        <v>6.5975681286631955</v>
+        <f>SUM('9.2'!G156:J156)</f>
+        <v>1.5395721286631956</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -48634,10 +48568,12 @@
         <v>54</v>
       </c>
       <c r="C157" s="52">
-        <v>24.352769745841194</v>
+        <f>SUM('9.2'!C157:F157,'9.2'!K157)</f>
+        <v>29.581431745841194</v>
       </c>
       <c r="D157" s="52">
-        <v>6.4064348001497899</v>
+        <f>SUM('9.2'!G157:J157)</f>
+        <v>1.1777728001497907</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -48648,10 +48584,12 @@
         <v>43</v>
       </c>
       <c r="C158" s="52">
-        <v>26.902273128744767</v>
+        <f>SUM('9.2'!C158:F158,'9.2'!K158)</f>
+        <v>32.671678376644763</v>
       </c>
       <c r="D158" s="52">
-        <v>7.0140383678131748</v>
+        <f>SUM('9.2'!G158:J158)</f>
+        <v>1.2446331199131748</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -48662,10 +48600,12 @@
         <v>44</v>
       </c>
       <c r="C159" s="52">
-        <v>23.890209714730972</v>
+        <f>SUM('9.2'!C159:F159,'9.2'!K159)</f>
+        <v>28.880390714730972</v>
       </c>
       <c r="D159" s="52">
-        <v>5.8238711466899611</v>
+        <f>SUM('9.2'!G159:J159)</f>
+        <v>0.83369014668996089</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -48676,10 +48616,12 @@
         <v>55</v>
       </c>
       <c r="C160" s="52">
-        <v>23.60707528176923</v>
+        <f>SUM('9.2'!C160:F160,'9.2'!K160)</f>
+        <v>29.369680281769231</v>
       </c>
       <c r="D160" s="52">
-        <v>6.9703283208991182</v>
+        <f>SUM('9.2'!G160:J160)</f>
+        <v>1.207723320899118</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -48690,10 +48632,12 @@
         <v>46</v>
       </c>
       <c r="C161" s="52">
-        <v>20.265184188352102</v>
+        <f>SUM('9.2'!C161:F161,'9.2'!K161)</f>
+        <v>24.927305188352101</v>
       </c>
       <c r="D161" s="52">
-        <v>5.6907696174203091</v>
+        <f>SUM('9.2'!G161:J161)</f>
+        <v>1.0286486174203089</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -48704,10 +48648,12 @@
         <v>47</v>
       </c>
       <c r="C162" s="52">
-        <v>20.520136063837189</v>
+        <f>SUM('9.2'!C162:F162,'9.2'!K162)</f>
+        <v>24.552102063837189</v>
       </c>
       <c r="D162" s="52">
-        <v>4.7734710656722381</v>
+        <f>SUM('9.2'!G162:J162)</f>
+        <v>0.74150506567223762</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -48718,10 +48664,12 @@
         <v>52</v>
       </c>
       <c r="C163" s="52">
-        <v>18.639046210302652</v>
+        <f>SUM('9.2'!C163:F163,'9.2'!K163)</f>
+        <v>22.551989210302651</v>
       </c>
       <c r="D163" s="52">
-        <v>4.597739342380204</v>
+        <f>SUM('9.2'!G163:J163)</f>
+        <v>0.6847963423802037</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -48732,10 +48680,12 @@
         <v>48</v>
       </c>
       <c r="C164" s="52">
-        <v>18.521495474334458</v>
+        <f>SUM('9.2'!C164:F164,'9.2'!K164)</f>
+        <v>22.501338226434456</v>
       </c>
       <c r="D164" s="52">
-        <v>5.1531978258044209</v>
+        <f>SUM('9.2'!G164:J164)</f>
+        <v>1.1733550737044209</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -48746,10 +48696,12 @@
         <v>49</v>
       </c>
       <c r="C165" s="52">
-        <v>17.737470436509984</v>
+        <f>SUM('9.2'!C165:F165,'9.2'!K165)</f>
+        <v>21.800876436509984</v>
       </c>
       <c r="D165" s="52">
-        <v>5.1985897157586916</v>
+        <f>SUM('9.2'!G165:J165)</f>
+        <v>1.1351837157586921</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -48760,10 +48712,12 @@
         <v>53</v>
       </c>
       <c r="C166" s="52">
-        <v>19.068649410739397</v>
+        <f>SUM('9.2'!C166:F166,'9.2'!K166)</f>
+        <v>22.848864410739395</v>
       </c>
       <c r="D166" s="52">
-        <v>5.1666581612758042</v>
+        <f>SUM('9.2'!G166:J166)</f>
+        <v>1.3864431612758037</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -48774,10 +48728,12 @@
         <v>50</v>
       </c>
       <c r="C167" s="52">
-        <v>20.619302317869323</v>
+        <f>SUM('9.2'!C167:F167,'9.2'!K167)</f>
+        <v>25.910553317869322</v>
       </c>
       <c r="D167" s="52">
-        <v>7.0515145957662551</v>
+        <f>SUM('9.2'!G167:J167)</f>
+        <v>1.7602635957662551</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48788,10 +48744,12 @@
         <v>51</v>
       </c>
       <c r="C168" s="52">
-        <v>23.145352661792188</v>
+        <f>SUM('9.2'!C168:F168,'9.2'!K168)</f>
+        <v>27.637164661792188</v>
       </c>
       <c r="D168" s="52">
-        <v>6.2606729649745692</v>
+        <f>SUM('9.2'!G168:J168)</f>
+        <v>1.7688609649745699</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -48802,10 +48760,12 @@
         <v>54</v>
       </c>
       <c r="C169" s="52">
-        <v>26.64141370561974</v>
+        <f>SUM('9.2'!C169:F169,'9.2'!K169)</f>
+        <v>32.347378705619739</v>
       </c>
       <c r="D169" s="52">
-        <v>6.8070208496257543</v>
+        <f>SUM('9.2'!G169:J169)</f>
+        <v>1.1010558496257554</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -48816,10 +48776,12 @@
         <v>43</v>
       </c>
       <c r="C170" s="52">
-        <v>24.277109155605267</v>
+        <f>SUM('9.2'!C170:F170,'9.2'!K170)</f>
+        <v>30.254701155605268</v>
       </c>
       <c r="D170" s="52">
-        <v>7.7012326284310078</v>
+        <f>SUM('9.2'!G170:J170)</f>
+        <v>1.7236406284310068</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -48830,10 +48792,12 @@
         <v>44</v>
       </c>
       <c r="C171" s="52">
-        <v>20.602093438205202</v>
+        <f>SUM('9.2'!C171:F171,'9.2'!K171)</f>
+        <v>26.061463438205202</v>
       </c>
       <c r="D171" s="52">
-        <v>7.2670999834596923</v>
+        <f>SUM('9.2'!G171:J171)</f>
+        <v>1.8077299834596925</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -48844,10 +48808,12 @@
         <v>55</v>
       </c>
       <c r="C172" s="52">
-        <v>21.887422928120362</v>
+        <f>SUM('9.2'!C172:F172,'9.2'!K172)</f>
+        <v>28.118446928120363</v>
       </c>
       <c r="D172" s="52">
-        <v>7.5478975403785826</v>
+        <f>SUM('9.2'!G172:J172)</f>
+        <v>1.3168735403785821</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -48858,10 +48824,12 @@
         <v>46</v>
       </c>
       <c r="C173" s="52">
-        <v>16.626490737647515</v>
+        <f>SUM('9.2'!C173:F173,'9.2'!K173)</f>
+        <v>22.549028737647514</v>
       </c>
       <c r="D173" s="52">
-        <v>7.4158091261482486</v>
+        <f>SUM('9.2'!G173:J173)</f>
+        <v>1.493271126148249</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -48872,10 +48840,12 @@
         <v>47</v>
       </c>
       <c r="C174" s="52">
-        <v>16.892661002459789</v>
+        <f>SUM('9.2'!C174:F174,'9.2'!K174)</f>
+        <v>22.761198002459789</v>
       </c>
       <c r="D174" s="52">
-        <v>7.856028198769855</v>
+        <f>SUM('9.2'!G174:J174)</f>
+        <v>1.9874911987698556</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -48886,10 +48856,12 @@
         <v>52</v>
       </c>
       <c r="C175" s="52">
-        <v>16.646114049147176</v>
+        <f>SUM('9.2'!C175:F175,'9.2'!K175)</f>
+        <v>22.253246049147176</v>
       </c>
       <c r="D175" s="52">
-        <v>6.8931465362739992</v>
+        <f>SUM('9.2'!G175:J175)</f>
+        <v>1.2860145362739992</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -48900,10 +48872,12 @@
         <v>48</v>
       </c>
       <c r="C176" s="52">
-        <v>16.974300567754632</v>
+        <f>SUM('9.2'!C176:F176,'9.2'!K176)</f>
+        <v>22.099179567754632</v>
       </c>
       <c r="D176" s="52">
-        <v>6.2801018268411397</v>
+        <f>SUM('9.2'!G176:J176)</f>
+        <v>1.1552228268411393</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -48914,10 +48888,12 @@
         <v>49</v>
       </c>
       <c r="C177" s="52">
-        <v>17.295072789075846</v>
+        <f>SUM('9.2'!C177:F177,'9.2'!K177)</f>
+        <v>22.236457789075846</v>
       </c>
       <c r="D177" s="52">
-        <v>6.2806752894743783</v>
+        <f>SUM('9.2'!G177:J177)</f>
+        <v>1.3392902894743772</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -48928,10 +48904,12 @@
         <v>53</v>
       </c>
       <c r="C178" s="52">
-        <v>17.979701080297232</v>
+        <f>SUM('9.2'!C178:F178,'9.2'!K178)</f>
+        <v>22.226583080297232</v>
       </c>
       <c r="D178" s="52">
-        <v>6.2312696872450788</v>
+        <f>SUM('9.2'!G178:J178)</f>
+        <v>1.9843876872450785</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -48942,10 +48920,12 @@
         <v>50</v>
       </c>
       <c r="C179" s="52">
-        <v>19.596477082527457</v>
+        <f>SUM('9.2'!C179:F179,'9.2'!K179)</f>
+        <v>23.653505082527456</v>
       </c>
       <c r="D179" s="52">
-        <v>6.4521837451260584</v>
+        <f>SUM('9.2'!G179:J179)</f>
+        <v>2.3951557451260581</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -48956,10 +48936,12 @@
         <v>51</v>
       </c>
       <c r="C180" s="52">
-        <v>21.376376946851757</v>
+        <f>SUM('9.2'!C180:F180,'9.2'!K180)</f>
+        <v>25.577795946851758</v>
       </c>
       <c r="D180" s="52">
-        <v>6.4844297928208254</v>
+        <f>SUM('9.2'!G180:J180)</f>
+        <v>2.2830107928208254</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -48970,10 +48952,12 @@
         <v>54</v>
       </c>
       <c r="C181" s="52">
-        <v>20.681124524253242</v>
+        <f>SUM('9.2'!C181:F181,'9.2'!K181)</f>
+        <v>25.698555524253241</v>
       </c>
       <c r="D181" s="52">
-        <v>7.911702539822854</v>
+        <f>SUM('9.2'!G181:J181)</f>
+        <v>2.8942715398228556</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -48984,10 +48968,12 @@
         <v>43</v>
       </c>
       <c r="C182" s="52">
-        <v>20.411034451020594</v>
+        <f>SUM('9.2'!C182:F182,'9.2'!K182)</f>
+        <v>25.934228735330592</v>
       </c>
       <c r="D182" s="52">
-        <v>8.5926703510950766</v>
+        <f>SUM('9.2'!G182:J182)</f>
+        <v>3.0694760667850769</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -48998,10 +48984,12 @@
         <v>44</v>
       </c>
       <c r="C183" s="52">
-        <v>21.644215296966507</v>
+        <f>SUM('9.2'!C183:F183,'9.2'!K183)</f>
+        <v>27.260773296966509</v>
       </c>
       <c r="D183" s="52">
-        <v>8.1205592573004264</v>
+        <f>SUM('9.2'!G183:J183)</f>
+        <v>2.5040012573004256</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -49012,10 +49000,12 @@
         <v>55</v>
       </c>
       <c r="C184" s="52">
-        <v>20.596037046935351</v>
+        <f>SUM('9.2'!C184:F184,'9.2'!K184)</f>
+        <v>25.078107762625351</v>
       </c>
       <c r="D184" s="52">
-        <v>6.3402801263260233</v>
+        <f>SUM('9.2'!G184:J184)</f>
+        <v>1.8582094106360225</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -49026,10 +49016,12 @@
         <v>46</v>
       </c>
       <c r="C185" s="52">
-        <v>17.712991576543249</v>
+        <f>SUM('9.2'!C185:F185,'9.2'!K185)</f>
+        <v>23.340085576543249</v>
       </c>
       <c r="D185" s="52">
-        <v>7.2611395603213715</v>
+        <f>SUM('9.2'!G185:J185)</f>
+        <v>1.6340455603213715</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -49040,10 +49032,12 @@
         <v>47</v>
       </c>
       <c r="C186" s="52">
-        <v>17.351490574161858</v>
+        <f>SUM('9.2'!C186:F186,'9.2'!K186)</f>
+        <v>23.084427574161857</v>
       </c>
       <c r="D186" s="52">
-        <v>7.2646419702255089</v>
+        <f>SUM('9.2'!G186:J186)</f>
+        <v>1.5317049702255092</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -49054,10 +49048,12 @@
         <v>52</v>
       </c>
       <c r="C187" s="52">
-        <v>15.531586577743875</v>
+        <f>SUM('9.2'!C187:F187,'9.2'!K187)</f>
+        <v>20.998462577743872</v>
       </c>
       <c r="D187" s="52">
-        <v>7.0560176482494583</v>
+        <f>SUM('9.2'!G187:J187)</f>
+        <v>1.5891416482494596</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -49068,10 +49064,12 @@
         <v>48</v>
       </c>
       <c r="C188" s="52">
-        <v>16.172138759432745</v>
+        <f>SUM('9.2'!C188:F188,'9.2'!K188)</f>
+        <v>21.318984759432745</v>
       </c>
       <c r="D188" s="52">
-        <v>6.6487035211726759</v>
+        <f>SUM('9.2'!G188:J188)</f>
+        <v>1.5018575211726763</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -49082,10 +49080,12 @@
         <v>49</v>
       </c>
       <c r="C189" s="52">
-        <v>15.237515516998094</v>
+        <f>SUM('9.2'!C189:F189,'9.2'!K189)</f>
+        <v>21.192438516998095</v>
       </c>
       <c r="D189" s="52">
-        <v>7.5620970705941337</v>
+        <f>SUM('9.2'!G189:J189)</f>
+        <v>1.6071740705941333</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -49096,10 +49096,12 @@
         <v>53</v>
       </c>
       <c r="C190" s="52">
-        <v>14.826198372082912</v>
+        <f>SUM('9.2'!C190:F190,'9.2'!K190)</f>
+        <v>20.10199837208291</v>
       </c>
       <c r="D190" s="52">
-        <v>7.9830471992866832</v>
+        <f>SUM('9.2'!G190:J190)</f>
+        <v>2.7072471992866829</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -49110,10 +49112,12 @@
         <v>50</v>
       </c>
       <c r="C191" s="52">
-        <v>19.40930957290059</v>
+        <f>SUM('9.2'!C191:F191,'9.2'!K191)</f>
+        <v>24.308905572900592</v>
       </c>
       <c r="D191" s="52">
-        <v>7.1949092825869858</v>
+        <f>SUM('9.2'!G191:J191)</f>
+        <v>2.2953132825869851</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -49124,10 +49128,12 @@
         <v>51</v>
       </c>
       <c r="C192" s="52">
-        <v>19.743795249559412</v>
+        <f>SUM('9.2'!C192:F192,'9.2'!K192)</f>
+        <v>24.26442324955941</v>
       </c>
       <c r="D192" s="52">
-        <v>7.5248056623050861</v>
+        <f>SUM('9.2'!G192:J192)</f>
+        <v>3.0041776623050862</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -49138,10 +49144,12 @@
         <v>54</v>
       </c>
       <c r="C193" s="52">
-        <v>20.065246505916061</v>
+        <f>SUM('9.2'!C193:F193,'9.2'!K193)</f>
+        <v>25.767928505916061</v>
       </c>
       <c r="D193" s="52">
-        <v>9.2248184357616196</v>
+        <f>SUM('9.2'!G193:J193)</f>
+        <v>3.5221364357616181</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -49152,10 +49160,12 @@
         <v>43</v>
       </c>
       <c r="C194" s="52">
-        <v>21.239568307045793</v>
+        <f>SUM('9.2'!C194:F194,'9.2'!K194)</f>
+        <v>27.449460379265794</v>
       </c>
       <c r="D194" s="52">
-        <v>9.4144023764130935</v>
+        <f>SUM('9.2'!G194:J194)</f>
+        <v>3.120894376413093</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -49166,10 +49176,12 @@
         <v>44</v>
       </c>
       <c r="C195" s="52">
-        <v>20.078371199214502</v>
+        <f>SUM('9.2'!C195:F195,'9.2'!K195)</f>
+        <v>25.080761471034503</v>
       </c>
       <c r="D195" s="52">
-        <v>7.6863223038606767</v>
+        <f>SUM('9.2'!G195:J195)</f>
+        <v>2.6080663038606766</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -49180,10 +49192,12 @@
         <v>55</v>
       </c>
       <c r="C196" s="52">
-        <v>21.593641445818825</v>
+        <f>SUM('9.2'!C196:F196,'9.2'!K196)</f>
+        <v>26.750203279938823</v>
       </c>
       <c r="D196" s="52">
-        <v>8.0747705768321225</v>
+        <f>SUM('9.2'!G196:J196)</f>
+        <v>2.8383485768321224</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -49194,10 +49208,12 @@
         <v>46</v>
       </c>
       <c r="C197" s="52">
-        <v>16.987262315119427</v>
+        <f>SUM('9.2'!C197:F197,'9.2'!K197)</f>
+        <v>22.280089461099429</v>
       </c>
       <c r="D197" s="52">
-        <v>8.5855011278248714</v>
+        <f>SUM('9.2'!G197:J197)</f>
+        <v>3.2181061278248717</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -49208,10 +49224,12 @@
         <v>47</v>
       </c>
       <c r="C198" s="52">
-        <v>16.258198270571498</v>
+        <f>SUM('9.2'!C198:F198,'9.2'!K198)</f>
+        <v>20.461233921211498</v>
       </c>
       <c r="D198" s="52">
-        <v>7.5070690100651429</v>
+        <f>SUM('9.2'!G198:J198)</f>
+        <v>3.2277260100651435</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -49222,10 +49240,12 @@
         <v>52</v>
       </c>
       <c r="C199" s="52">
-        <v>15.194405835744217</v>
+        <f>SUM('9.2'!C199:F199,'9.2'!K199)</f>
+        <v>19.532703211784217</v>
       </c>
       <c r="D199" s="52">
-        <v>6.695798048599416</v>
+        <f>SUM('9.2'!G199:J199)</f>
+        <v>2.2908140485994162</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -49236,10 +49256,12 @@
         <v>48</v>
       </c>
       <c r="C200" s="52">
-        <v>14.726646505232729</v>
+        <f>SUM('9.2'!C200:F200,'9.2'!K200)</f>
+        <v>20.35082570855273</v>
       </c>
       <c r="D200" s="52">
-        <v>7.6286128316041752</v>
+        <f>SUM('9.2'!G200:J200)</f>
+        <v>1.922520831604174</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -49250,10 +49272,12 @@
         <v>49</v>
       </c>
       <c r="C201" s="52">
-        <v>13.873719519081291</v>
+        <f>SUM('9.2'!C201:F201,'9.2'!K201)</f>
+        <v>20.011879309521291</v>
       </c>
       <c r="D201" s="52">
-        <v>8.2664845327550349</v>
+        <f>SUM('9.2'!G201:J201)</f>
+        <v>2.0442945327550341</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -49264,10 +49288,12 @@
         <v>53</v>
       </c>
       <c r="C202" s="52">
-        <v>15.381931219136987</v>
+        <f>SUM('9.2'!C202:F202,'9.2'!K202)</f>
+        <v>20.347750377196988</v>
       </c>
       <c r="D202" s="52">
-        <v>7.5966887131462428</v>
+        <f>SUM('9.2'!G202:J202)</f>
+        <v>2.5509317131462432</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -49278,10 +49304,12 @@
         <v>50</v>
       </c>
       <c r="C203" s="52">
-        <v>16.0706394730326</v>
+        <f>SUM('9.2'!C203:F203,'9.2'!K203)</f>
+        <v>21.389301296072595</v>
       </c>
       <c r="D203" s="52">
-        <v>9.2155288239914785</v>
+        <f>SUM('9.2'!G203:J203)</f>
+        <v>3.8131708239914777</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -49292,10 +49320,12 @@
         <v>51</v>
       </c>
       <c r="C204" s="52">
-        <v>18.332927398032577</v>
+        <f>SUM('9.2'!C204:F204,'9.2'!K204)</f>
+        <v>23.509813732872573</v>
       </c>
       <c r="D204" s="52">
-        <v>8.6658657087533211</v>
+        <f>SUM('9.2'!G204:J204)</f>
+        <v>3.4154227087533218</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -49306,10 +49336,12 @@
         <v>54</v>
       </c>
       <c r="C205" s="52">
-        <v>17.298891600609263</v>
+        <f>SUM('9.2'!C205:F205,'9.2'!K205)</f>
+        <v>23.065258815489262</v>
       </c>
       <c r="D205" s="52">
-        <v>10.636620835419137</v>
+        <f>SUM('9.2'!G205:J205)</f>
+        <v>4.7908608354191369</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -49320,10 +49352,12 @@
         <v>43</v>
       </c>
       <c r="C206" s="52">
-        <v>18.1659992961544</v>
+        <f>SUM('9.2'!C206:F206,'9.2'!K206)</f>
+        <v>23.6290106661544</v>
       </c>
       <c r="D206" s="52">
-        <v>10.011086183138428</v>
+        <f>SUM('9.2'!G206:J206)</f>
+        <v>4.4680901831384272</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -49334,10 +49368,12 @@
         <v>44</v>
       </c>
       <c r="C207" s="52">
-        <v>15.892507759869972</v>
+        <f>SUM('9.2'!C207:F207,'9.2'!K207)</f>
+        <v>20.470850669869975</v>
       </c>
       <c r="D207" s="52">
-        <v>9.2161568250922805</v>
+        <f>SUM('9.2'!G207:J207)</f>
+        <v>4.5693628250922806</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -49348,10 +49384,12 @@
         <v>55</v>
       </c>
       <c r="C208" s="52">
-        <v>17.39860557411107</v>
+        <f>SUM('9.2'!C208:F208,'9.2'!K208)</f>
+        <v>22.141617664111067</v>
       </c>
       <c r="D208" s="52">
-        <v>8.866812250111801</v>
+        <f>SUM('9.2'!G208:J208)</f>
+        <v>4.0457982501118002</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -49362,10 +49400,12 @@
         <v>46</v>
       </c>
       <c r="C209" s="52">
-        <v>14.372950576916999</v>
+        <f>SUM('9.2'!C209:F209,'9.2'!K209)</f>
+        <v>19.438624606916999</v>
       </c>
       <c r="D209" s="52">
-        <v>8.2415487104018617</v>
+        <f>SUM('9.2'!G209:J209)</f>
+        <v>3.1034947104018622</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -49376,10 +49416,12 @@
         <v>56</v>
       </c>
       <c r="C210" s="52">
-        <v>14.272897565318569</v>
+        <f>SUM('9.2'!C210:F210,'9.2'!K210)</f>
+        <v>19.42873661531857</v>
       </c>
       <c r="D210" s="52">
-        <v>7.8986215726760367</v>
+        <f>SUM('9.2'!G210:J210)</f>
+        <v>2.6667825726760368</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -49390,10 +49432,12 @@
         <v>52</v>
       </c>
       <c r="C211" s="52">
-        <v>13.310856276793285</v>
+        <f>SUM('9.2'!C211:F211,'9.2'!K211)</f>
+        <v>18.767031986793285</v>
       </c>
       <c r="D211" s="52">
-        <v>7.5846875941655592</v>
+        <f>SUM('9.2'!G211:J211)</f>
+        <v>2.0562635941655585</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -49404,10 +49448,12 @@
         <v>48</v>
       </c>
       <c r="C212" s="52">
-        <v>13.511882789014379</v>
+        <f>SUM('9.2'!C212:F212,'9.2'!K212)</f>
+        <v>18.72292631901438</v>
       </c>
       <c r="D212" s="52">
-        <v>7.6535681977403796</v>
+        <f>SUM('9.2'!G212:J212)</f>
+        <v>2.3531281977403777</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -49418,10 +49464,12 @@
         <v>49</v>
       </c>
       <c r="C213" s="52">
-        <v>12.407854118962154</v>
+        <f>SUM('9.2'!C213:F213,'9.2'!K213)</f>
+        <v>17.013206478962154</v>
       </c>
       <c r="D213" s="52">
-        <v>8.163447617401097</v>
+        <f>SUM('9.2'!G213:J213)</f>
+        <v>3.4776526174010982</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -49432,10 +49480,12 @@
         <v>53</v>
       </c>
       <c r="C214" s="52">
-        <v>15.476013384503442</v>
+        <f>SUM('9.2'!C214:F214,'9.2'!K214)</f>
+        <v>19.627563014503441</v>
       </c>
       <c r="D214" s="52">
-        <v>6.3275889062934674</v>
+        <f>SUM('9.2'!G214:J214)</f>
+        <v>2.089942906293468</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -49446,10 +49496,12 @@
         <v>50</v>
       </c>
       <c r="C215" s="52">
-        <v>15.79222037642009</v>
+        <f>SUM('9.2'!C215:F215,'9.2'!K215)</f>
+        <v>19.36699113642009</v>
       </c>
       <c r="D215" s="52">
-        <v>8.2832044383981689</v>
+        <f>SUM('9.2'!G215:J215)</f>
+        <v>4.62935143839817</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -49460,10 +49512,12 @@
         <v>51</v>
       </c>
       <c r="C216" s="52">
-        <v>17.494337595536464</v>
+        <f>SUM('9.2'!C216:F216,'9.2'!K216)</f>
+        <v>21.024639845536466</v>
       </c>
       <c r="D216" s="52">
-        <v>7.539162161341876</v>
+        <f>SUM('9.2'!G216:J216)</f>
+        <v>3.9255281613418758</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -49474,10 +49528,12 @@
         <v>54</v>
       </c>
       <c r="C217" s="52">
-        <v>16.151517138708012</v>
+        <f>SUM('9.2'!C217:F217,'9.2'!K217)</f>
+        <v>21.568925458708012</v>
       </c>
       <c r="D217" s="52">
-        <v>10.907431140733136</v>
+        <f>SUM('9.2'!G217:J217)</f>
+        <v>5.4053991407331363</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -49488,10 +49544,12 @@
         <v>43</v>
       </c>
       <c r="C218" s="52">
-        <v>16.621500109682721</v>
+        <f>SUM('9.2'!C218:F218,'9.2'!K218)</f>
+        <v>22.547935009682721</v>
       </c>
       <c r="D218" s="52">
-        <v>11.805573558518262</v>
+        <f>SUM('9.2'!G218:J218)</f>
+        <v>5.7940675585182611</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -49502,10 +49560,12 @@
         <v>44</v>
       </c>
       <c r="C219" s="52">
-        <v>16.119492022531912</v>
+        <f>SUM('9.2'!C219:F219,'9.2'!K219)</f>
+        <v>21.383712592531911</v>
       </c>
       <c r="D219" s="52">
-        <v>9.7581310710382745</v>
+        <f>SUM('9.2'!G219:J219)</f>
+        <v>4.4189690710382719</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -49516,10 +49576,12 @@
         <v>55</v>
       </c>
       <c r="C220" s="52">
-        <v>15.937067553987585</v>
+        <f>SUM('9.2'!C220:F220,'9.2'!K220)</f>
+        <v>21.014873143987586</v>
       </c>
       <c r="D220" s="52">
-        <v>10.266681366724093</v>
+        <f>SUM('9.2'!G220:J220)</f>
+        <v>5.110367366724093</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -49530,10 +49592,12 @@
         <v>46</v>
       </c>
       <c r="C221" s="52">
-        <v>13.019518639179795</v>
+        <f>SUM('9.2'!C221:F221,'9.2'!K221)</f>
+        <v>18.065754969179796</v>
       </c>
       <c r="D221" s="52">
-        <v>8.887816117407338</v>
+        <f>SUM('9.2'!G221:J221)</f>
+        <v>3.764513117407339</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -49544,10 +49608,12 @@
         <v>47</v>
       </c>
       <c r="C222" s="52">
-        <v>11.487689246086756</v>
+        <f>SUM('9.2'!C222:F222,'9.2'!K222)</f>
+        <v>16.622423636086758</v>
       </c>
       <c r="D222" s="52">
-        <v>10.029304006884898</v>
+        <f>SUM('9.2'!G222:J222)</f>
+        <v>4.8163850068848975</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -49558,10 +49624,12 @@
         <v>52</v>
       </c>
       <c r="C223" s="52">
-        <v>11.489044195019185</v>
+        <f>SUM('9.2'!C223:F223,'9.2'!K223)</f>
+        <v>16.443266275019187</v>
       </c>
       <c r="D223" s="52">
-        <v>8.784788715366723</v>
+        <f>SUM('9.2'!G223:J223)</f>
+        <v>3.7531547153667213</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -49572,10 +49640,12 @@
         <v>48</v>
       </c>
       <c r="C224" s="52">
-        <v>11.550255159758631</v>
+        <f>SUM('9.2'!C224:F224,'9.2'!K224)</f>
+        <v>16.654517779758631</v>
       </c>
       <c r="D224" s="52">
-        <v>9.1258974777655926</v>
+        <f>SUM('9.2'!G224:J224)</f>
+        <v>3.8964084777655934</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -49586,10 +49656,12 @@
         <v>49</v>
       </c>
       <c r="C225" s="52">
-        <v>11.75952870257548</v>
+        <f>SUM('9.2'!C225:F225,'9.2'!K225)</f>
+        <v>16.57538848257548</v>
       </c>
       <c r="D225" s="52">
-        <v>8.667311212091148</v>
+        <f>SUM('9.2'!G225:J225)</f>
+        <v>3.7316152120911483</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -49600,10 +49672,12 @@
         <v>53</v>
       </c>
       <c r="C226" s="52">
-        <v>12.889487376006997</v>
+        <f>SUM('9.2'!C226:F226,'9.2'!K226)</f>
+        <v>17.629380776006997</v>
       </c>
       <c r="D226" s="52">
-        <v>8.2501365444063346</v>
+        <f>SUM('9.2'!G226:J226)</f>
+        <v>3.3719815444063359</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -49614,10 +49688,12 @@
         <v>50</v>
       </c>
       <c r="C227" s="52">
-        <v>14.674287686370446</v>
+        <f>SUM('9.2'!C227:F227,'9.2'!K227)</f>
+        <v>20.177056526370443</v>
       </c>
       <c r="D227" s="52">
-        <v>9.4191744355979541</v>
+        <f>SUM('9.2'!G227:J227)</f>
+        <v>3.7873804355979543</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -49628,10 +49704,12 @@
         <v>51</v>
       </c>
       <c r="C228" s="52">
-        <v>13.648071375221424</v>
+        <f>SUM('9.2'!C228:F228,'9.2'!K228)</f>
+        <v>18.912434935221427</v>
       </c>
       <c r="D228" s="52">
-        <v>11.422477177715646</v>
+        <f>SUM('9.2'!G228:J228)</f>
+        <v>6.0367671777156433</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -49642,10 +49720,12 @@
         <v>54</v>
       </c>
       <c r="C229" s="52">
-        <v>12.12350979840339</v>
+        <f>SUM('9.2'!C229:F229,'9.2'!K229)</f>
+        <v>17.94805479840339</v>
       </c>
       <c r="D229" s="52">
-        <v>12.945298898437937</v>
+        <f>SUM('9.2'!G229:J229)</f>
+        <v>6.9864258984379362</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -49656,10 +49736,12 @@
         <v>43</v>
       </c>
       <c r="C230" s="52">
-        <v>15.475248235454796</v>
+        <f>SUM('9.2'!C230:F230,'9.2'!K230)</f>
+        <v>20.817897915454793</v>
       </c>
       <c r="D230" s="52">
-        <v>11.753093401331514</v>
+        <f>SUM('9.2'!G230:J230)</f>
+        <v>6.215675401331513</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -49670,10 +49752,12 @@
         <v>44</v>
       </c>
       <c r="C231" s="52">
-        <v>14.606561321206346</v>
+        <f>SUM('9.2'!C231:F231,'9.2'!K231)</f>
+        <v>19.527129931206346</v>
       </c>
       <c r="D231" s="52">
-        <v>10.485710001159923</v>
+        <f>SUM('9.2'!G231:J231)</f>
+        <v>5.3958020011599217</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -49684,10 +49768,12 @@
         <v>55</v>
       </c>
       <c r="C232" s="52">
-        <v>15.554008768779664</v>
+        <f>SUM('9.2'!C232:F232,'9.2'!K232)</f>
+        <v>20.508502618779662</v>
       </c>
       <c r="D232" s="52">
-        <v>9.7233348435479403</v>
+        <f>SUM('9.2'!G232:J232)</f>
+        <v>4.6023228435479417</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -49698,10 +49784,12 @@
         <v>46</v>
       </c>
       <c r="C233" s="52">
-        <v>13.371568769672635</v>
+        <f>SUM('9.2'!C233:F233,'9.2'!K233)</f>
+        <v>18.070900239672635</v>
       </c>
       <c r="D233" s="52">
-        <v>9.2312243014951161</v>
+        <f>SUM('9.2'!G233:J233)</f>
+        <v>4.3941823014951176</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -49712,10 +49800,12 @@
         <v>47</v>
       </c>
       <c r="C234" s="52">
-        <v>11.183133166146179</v>
+        <f>SUM('9.2'!C234:F234,'9.2'!K234)</f>
+        <v>16.114641446146177</v>
       </c>
       <c r="D234" s="52">
-        <v>9.3519850205934549</v>
+        <f>SUM('9.2'!G234:J234)</f>
+        <v>4.3017410205934556</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -49726,10 +49816,12 @@
         <v>52</v>
       </c>
       <c r="C235" s="52">
-        <v>11.751254046639485</v>
+        <f>SUM('9.2'!C235:F235,'9.2'!K235)</f>
+        <v>16.906761686639484</v>
       </c>
       <c r="D235" s="52">
-        <v>8.076830953120794</v>
+        <f>SUM('9.2'!G235:J235)</f>
+        <v>2.8338489531207949</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -49740,10 +49832,12 @@
         <v>48</v>
       </c>
       <c r="C236" s="52">
-        <v>10.702636799134689</v>
+        <f>SUM('9.2'!C236:F236,'9.2'!K236)</f>
+        <v>16.365165989134692</v>
       </c>
       <c r="D236" s="52">
-        <v>9.206185885742876</v>
+        <f>SUM('9.2'!G236:J236)</f>
+        <v>3.4020938857428753</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -49754,10 +49848,12 @@
         <v>49</v>
       </c>
       <c r="C237" s="52">
-        <v>10.387147017361634</v>
+        <f>SUM('9.2'!C237:F237,'9.2'!K237)</f>
+        <v>15.959140837361636</v>
       </c>
       <c r="D237" s="52">
-        <v>9.4091113349954725</v>
+        <f>SUM('9.2'!G237:J237)</f>
+        <v>3.6967423349954713</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -49768,10 +49864,12 @@
         <v>53</v>
       </c>
       <c r="C238" s="52">
-        <v>11.433071616419573</v>
+        <f>SUM('9.2'!C238:F238,'9.2'!K238)</f>
+        <v>16.92206733641957</v>
       </c>
       <c r="D238" s="52">
-        <v>9.5794010905844775</v>
+        <f>SUM('9.2'!G238:J238)</f>
+        <v>3.9670410905844777</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -49782,10 +49880,12 @@
         <v>50</v>
       </c>
       <c r="C239" s="52">
-        <v>14.970696733463136</v>
+        <f>SUM('9.2'!C239:F239,'9.2'!K239)</f>
+        <v>20.374445107463135</v>
       </c>
       <c r="D239" s="52">
-        <v>9.229168346303199</v>
+        <f>SUM('9.2'!G239:J239)</f>
+        <v>3.6741163463032009</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -49796,10 +49896,12 @@
         <v>51</v>
       </c>
       <c r="C240" s="52">
-        <v>16.489098721898159</v>
+        <f>SUM('9.2'!C240:F240,'9.2'!K240)</f>
+        <v>22.089114201898159</v>
       </c>
       <c r="D240" s="52">
-        <v>10.248558623680253</v>
+        <f>SUM('9.2'!G240:J240)</f>
+        <v>4.4887166236802525</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -49810,10 +49912,12 @@
         <v>54</v>
       </c>
       <c r="C241" s="52">
-        <v>15.978347124185253</v>
+        <f>SUM('9.2'!C241:F241,'9.2'!K241)</f>
+        <v>21.653875374185251</v>
       </c>
       <c r="D241" s="52">
-        <v>11.192599152311526</v>
+        <f>SUM('9.2'!G241:J241)</f>
+        <v>5.3658351523115266</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -49824,10 +49928,12 @@
         <v>43</v>
       </c>
       <c r="C242" s="52">
-        <v>18.662923409039983</v>
+        <f>SUM('9.2'!C242:F242,'9.2'!K242)</f>
+        <v>23.808610083131985</v>
       </c>
       <c r="D242" s="52">
-        <v>10.746017095357326</v>
+        <f>SUM('9.2'!G242:J242)</f>
+        <v>5.3935453042653245</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -49838,10 +49944,12 @@
         <v>44</v>
       </c>
       <c r="C243" s="52">
-        <v>13.448877048739421</v>
+        <f>SUM('9.2'!C243:F243,'9.2'!K243)</f>
+        <v>18.541345831867417</v>
       </c>
       <c r="D243" s="52">
-        <v>11.102184209715249</v>
+        <f>SUM('9.2'!G243:J243)</f>
+        <v>5.8238864845872502</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -49852,10 +49960,12 @@
         <v>55</v>
       </c>
       <c r="C244" s="52">
-        <v>12.694729283151695</v>
+        <f>SUM('9.2'!C244:F244,'9.2'!K244)</f>
+        <v>17.902136303667696</v>
       </c>
       <c r="D244" s="52">
-        <v>11.337442904789171</v>
+        <f>SUM('9.2'!G244:J244)</f>
+        <v>5.941961658273172</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -49866,10 +49976,12 @@
         <v>46</v>
       </c>
       <c r="C245" s="52">
-        <v>10.856616430192309</v>
+        <f>SUM('9.2'!C245:F245,'9.2'!K245)</f>
+        <v>15.602897631114308</v>
       </c>
       <c r="D245" s="52">
-        <v>9.6475914520066546</v>
+        <f>SUM('9.2'!G245:J245)</f>
+        <v>4.7534584380846567</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -49880,10 +49992,12 @@
         <v>47</v>
       </c>
       <c r="C246" s="52">
-        <v>10.60780366073463</v>
+        <f>SUM('9.2'!C246:F246,'9.2'!K246)</f>
+        <v>15.977534093650634</v>
       </c>
       <c r="D246" s="52">
-        <v>10.159103001680101</v>
+        <f>SUM('9.2'!G246:J246)</f>
+        <v>4.6132749377640989</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -49894,10 +50008,12 @@
         <v>52</v>
       </c>
       <c r="C247" s="52">
-        <v>9.2878203106600274</v>
+        <f>SUM('9.2'!C247:F247,'9.2'!K247)</f>
+        <v>14.853309221626029</v>
       </c>
       <c r="D247" s="52">
-        <v>10.305727560731603</v>
+        <f>SUM('9.2'!G247:J247)</f>
+        <v>4.5484262167656011</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -49908,10 +50024,12 @@
         <v>48</v>
       </c>
       <c r="C248" s="52">
-        <v>9.8431112948554151</v>
+        <f>SUM('9.2'!C248:F248,'9.2'!K248)</f>
+        <v>14.981184419017417</v>
       </c>
       <c r="D248" s="52">
-        <v>9.7580345637021395</v>
+        <f>SUM('9.2'!G248:J248)</f>
+        <v>4.4180326175401401</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -49922,10 +50040,12 @@
         <v>49</v>
       </c>
       <c r="C249" s="52">
-        <v>9.2866082854191898</v>
+        <f>SUM('9.2'!C249:F249,'9.2'!K249)</f>
+        <v>14.812991729131189</v>
       </c>
       <c r="D249" s="52">
-        <v>10.287675343891797</v>
+        <f>SUM('9.2'!G249:J249)</f>
+        <v>4.5549799021797952</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -49936,10 +50056,12 @@
         <v>53</v>
       </c>
       <c r="C250" s="52">
-        <v>10.586367967462214</v>
+        <f>SUM('9.2'!C250:F250,'9.2'!K250)</f>
+        <v>15.812222334616214</v>
       </c>
       <c r="D250" s="52">
-        <v>10.001983902803602</v>
+        <f>SUM('9.2'!G250:J250)</f>
+        <v>4.5689766806496026</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -49950,10 +50072,12 @@
         <v>50</v>
       </c>
       <c r="C251" s="52">
-        <v>11.504470248238642</v>
+        <f>SUM('9.2'!C251:F251,'9.2'!K251)</f>
+        <v>16.740243125832642</v>
       </c>
       <c r="D251" s="52">
-        <v>11.774141557613703</v>
+        <f>SUM('9.2'!G251:J251)</f>
+        <v>6.3314171890197013</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -49964,10 +50088,12 @@
         <v>51</v>
       </c>
       <c r="C252" s="52">
-        <v>15.230789958388705</v>
+        <f>SUM('9.2'!C252:F252,'9.2'!K252)</f>
+        <v>19.913726359371704</v>
       </c>
       <c r="D252" s="52">
-        <v>11.185284616084486</v>
+        <f>SUM('9.2'!G252:J252)</f>
+        <v>6.3320767281014856</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -49978,10 +50104,12 @@
         <v>54</v>
       </c>
       <c r="C253" s="52">
-        <v>15.490898752339277</v>
+        <f>SUM('9.2'!C253:F253,'9.2'!K253)</f>
+        <v>20.146009568118277</v>
       </c>
       <c r="D253" s="52">
-        <v>11.659638210753572</v>
+        <f>SUM('9.2'!G253:J253)</f>
+        <v>6.7979318129745723</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -49992,10 +50120,12 @@
         <v>43</v>
       </c>
       <c r="C254" s="52">
-        <v>14.116557795005471</v>
+        <f>SUM('9.2'!C254:F254,'9.2'!K254)</f>
+        <v>18.94102035513847</v>
       </c>
       <c r="D254" s="52">
-        <v>12.26850928335155</v>
+        <f>SUM('9.2'!G254:J254)</f>
+        <v>7.2308608532185517</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -50006,10 +50136,12 @@
         <v>44</v>
       </c>
       <c r="C255" s="52">
-        <v>13.66283495383602</v>
+        <f>SUM('9.2'!C255:F255,'9.2'!K255)</f>
+        <v>18.384591268223019</v>
       </c>
       <c r="D255" s="52">
-        <v>10.935129284814556</v>
+        <f>SUM('9.2'!G255:J255)</f>
+        <v>6.0263571744275577</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -50020,10 +50152,12 @@
         <v>55</v>
       </c>
       <c r="C256" s="52">
-        <v>14.709008308609858</v>
+        <f>SUM('9.2'!C256:F256,'9.2'!K256)</f>
+        <v>19.692093656035858</v>
       </c>
       <c r="D256" s="52">
-        <v>11.653409054090563</v>
+        <f>SUM('9.2'!G256:J256)</f>
+        <v>6.481670322664562</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -50034,10 +50168,12 @@
         <v>46</v>
       </c>
       <c r="C257" s="52">
-        <v>10.97487576362615</v>
+        <f>SUM('9.2'!C257:F257,'9.2'!K257)</f>
+        <v>15.797358470193149</v>
       </c>
       <c r="D257" s="52">
-        <v>10.841920659806322</v>
+        <f>SUM('9.2'!G257:J257)</f>
+        <v>5.8628017582393213</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -50048,10 +50184,12 @@
         <v>47</v>
       </c>
       <c r="C258" s="52">
-        <v>9.8757488170020302</v>
+        <f>SUM('9.2'!C258:F258,'9.2'!K258)</f>
+        <v>14.635768784733029</v>
       </c>
       <c r="D258" s="52">
-        <v>10.142259312484001</v>
+        <f>SUM('9.2'!G258:J258)</f>
+        <v>5.1780665087530018</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -50062,10 +50200,12 @@
         <v>52</v>
       </c>
       <c r="C259" s="52">
-        <v>9.6936193633541166</v>
+        <f>SUM('9.2'!C259:F259,'9.2'!K259)</f>
+        <v>14.679574389485115</v>
       </c>
       <c r="D259" s="52">
-        <v>9.2131342362116602</v>
+        <f>SUM('9.2'!G259:J259)</f>
+        <v>4.0518231450806619</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -50076,10 +50216,12 @@
         <v>48</v>
       </c>
       <c r="C260" s="52">
-        <v>10.785867519122347</v>
+        <f>SUM('9.2'!C260:F260,'9.2'!K260)</f>
+        <v>15.807189623680344</v>
       </c>
       <c r="D260" s="52">
-        <v>8.9144917649168338</v>
+        <f>SUM('9.2'!G260:J260)</f>
+        <v>3.7453109113588354</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -50090,10 +50232,12 @@
         <v>49</v>
       </c>
       <c r="C261" s="52">
-        <v>9.2679733360837577</v>
+        <f>SUM('9.2'!C261:F261,'9.2'!K261)</f>
+        <v>14.503229689750759</v>
       </c>
       <c r="D261" s="52">
-        <v>10.517312685033639</v>
+        <f>SUM('9.2'!G261:J261)</f>
+        <v>5.0856203623666376</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -50104,10 +50248,12 @@
         <v>53</v>
       </c>
       <c r="C262" s="52">
-        <v>8.3845527533244368</v>
+        <f>SUM('9.2'!C262:F262,'9.2'!K262)</f>
+        <v>13.289987793340437</v>
       </c>
       <c r="D262" s="52">
-        <v>11.671407774454478</v>
+        <f>SUM('9.2'!G262:J262)</f>
+        <v>6.6062665144384765</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -50118,10 +50264,12 @@
         <v>50</v>
       </c>
       <c r="C263" s="52">
-        <v>11.138095015321886</v>
+        <f>SUM('9.2'!C263:F263,'9.2'!K263)</f>
+        <v>15.149787175742885</v>
       </c>
       <c r="D263" s="52">
-        <v>11.684234063139698</v>
+        <f>SUM('9.2'!G263:J263)</f>
+        <v>7.5223859587186972</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -50132,10 +50280,12 @@
         <v>51</v>
       </c>
       <c r="C264" s="52">
-        <v>12.155277655238232</v>
+        <f>SUM('9.2'!C264:F264,'9.2'!K264)</f>
+        <v>16.318118526161232</v>
       </c>
       <c r="D264" s="52">
-        <v>12.380623650428213</v>
+        <f>SUM('9.2'!G264:J264)</f>
+        <v>8.09636336250521</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -50146,10 +50296,12 @@
         <v>54</v>
       </c>
       <c r="C265" s="52">
-        <v>12.341264714116631</v>
+        <f>SUM('9.2'!C265:F265,'9.2'!K265)</f>
+        <v>16.96871451561563</v>
       </c>
       <c r="D265" s="52">
-        <v>12.458037900789126</v>
+        <f>SUM('9.2'!G265:J265)</f>
+        <v>7.6951893772901254</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -50160,10 +50312,12 @@
         <v>43</v>
       </c>
       <c r="C266" s="52">
-        <v>15.649042297253068</v>
+        <f>SUM('9.2'!C266:F266,'9.2'!K266)</f>
+        <v>19.924149560819068</v>
       </c>
       <c r="D266" s="52">
-        <v>11.299643994085709</v>
+        <f>SUM('9.2'!G266:J266)</f>
+        <v>6.8779832285197102</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -50174,10 +50328,12 @@
         <v>44</v>
       </c>
       <c r="C267" s="52">
-        <v>10.715608499283253</v>
+        <f>SUM('9.2'!C267:F267,'9.2'!K267)</f>
+        <v>14.722646957364253</v>
       </c>
       <c r="D267" s="52">
-        <v>11.039705820494053</v>
+        <f>SUM('9.2'!G267:J267)</f>
+        <v>6.9013346574130514</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -50188,10 +50344,12 @@
         <v>55</v>
       </c>
       <c r="C268" s="52">
-        <v>10.158343378541023</v>
+        <f>SUM('9.2'!C268:F268,'9.2'!K268)</f>
+        <v>14.070323742645023</v>
       </c>
       <c r="D268" s="52">
-        <v>12.377290675346654</v>
+        <f>SUM('9.2'!G268:J268)</f>
+        <v>8.3065748132426531</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -50202,10 +50360,12 @@
         <v>46</v>
       </c>
       <c r="C269" s="52">
-        <v>10.378885621541976</v>
+        <f>SUM('9.2'!C269:F269,'9.2'!K269)</f>
+        <v>14.671000255470977</v>
       </c>
       <c r="D269" s="52">
-        <v>10.474979347642712</v>
+        <f>SUM('9.2'!G269:J269)</f>
+        <v>6.0516458497137133</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -50216,10 +50376,12 @@
         <v>47</v>
       </c>
       <c r="C270" s="52">
-        <v>10.201442876198579</v>
+        <f>SUM('9.2'!C270:F270,'9.2'!K270)</f>
+        <v>14.438813383185579</v>
       </c>
       <c r="D270" s="52">
-        <v>9.4230459306978123</v>
+        <f>SUM('9.2'!G270:J270)</f>
+        <v>5.0266470087108122</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -50230,10 +50392,12 @@
         <v>52</v>
       </c>
       <c r="C271" s="52">
-        <v>9.7284143319263698</v>
+        <f>SUM('9.2'!C271:F271,'9.2'!K271)</f>
+        <v>12.589278480844371</v>
       </c>
       <c r="D271" s="52">
-        <v>8.8612261586506058</v>
+        <f>SUM('9.2'!G271:J271)</f>
+        <v>5.8123332757326054</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -50244,10 +50408,12 @@
         <v>48</v>
       </c>
       <c r="C272" s="52">
-        <v>10.469178744663909</v>
+        <f>SUM('9.2'!C272:F272,'9.2'!K272)</f>
+        <v>13.988717091059909</v>
       </c>
       <c r="D272" s="52">
-        <v>8.9483803194411848</v>
+        <f>SUM('9.2'!G272:J272)</f>
+        <v>5.2402562990451838</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -50258,10 +50424,12 @@
         <v>49</v>
       </c>
       <c r="C273" s="52">
-        <v>8.0264229123115758</v>
+        <f>SUM('9.2'!C273:F273,'9.2'!K273)</f>
+        <v>11.962676376014576</v>
       </c>
       <c r="D273" s="52">
-        <v>10.9615709263871</v>
+        <f>SUM('9.2'!G273:J273)</f>
+        <v>6.8217812376841014</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -50272,10 +50440,12 @@
         <v>53</v>
       </c>
       <c r="C274" s="52">
-        <v>8.1701127970996676</v>
+        <f>SUM('9.2'!C274:F274,'9.2'!K274)</f>
+        <v>12.502462920321667</v>
       </c>
       <c r="D274" s="52">
-        <v>11.337385655213074</v>
+        <f>SUM('9.2'!G274:J274)</f>
+        <v>6.8390033039910723</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -50286,10 +50456,12 @@
         <v>50</v>
       </c>
       <c r="C275" s="52">
-        <v>10.648857486041415</v>
+        <f>SUM('9.2'!C275:F275,'9.2'!K275)</f>
+        <v>15.268976320794415</v>
       </c>
       <c r="D275" s="52">
-        <v>12.304357105360248</v>
+        <f>SUM('9.2'!G275:J275)</f>
+        <v>7.5001211056072474</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -50300,10 +50472,12 @@
         <v>51</v>
       </c>
       <c r="C276" s="52">
-        <v>12.339805442519799</v>
+        <f>SUM('9.2'!C276:F276,'9.2'!K276)</f>
+        <v>16.811728453820802</v>
       </c>
       <c r="D276" s="52">
-        <v>11.705919711766356</v>
+        <f>SUM('9.2'!G276:J276)</f>
+        <v>7.0478299434653575</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -50314,10 +50488,12 @@
         <v>54</v>
       </c>
       <c r="C277" s="52">
-        <v>10.312519541392769</v>
+        <f>SUM('9.2'!C277:F277,'9.2'!K277)</f>
+        <v>14.788711259840767</v>
       </c>
       <c r="D277" s="52">
-        <v>14.151940975489358</v>
+        <f>SUM('9.2'!G277:J277)</f>
+        <v>9.4278448840413596</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -50328,10 +50504,12 @@
         <v>43</v>
       </c>
       <c r="C278" s="52">
-        <v>10.328524704058061</v>
+        <f>SUM('9.2'!C278:F278,'9.2'!K278)</f>
+        <v>14.90775107857406</v>
       </c>
       <c r="D278" s="52">
-        <v>15.068511415921709</v>
+        <f>SUM('9.2'!G278:J278)</f>
+        <v>10.239173941405706</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -50342,10 +50520,12 @@
         <v>44</v>
       </c>
       <c r="C279" s="52">
-        <v>8.1005253018940024</v>
+        <f>SUM('9.2'!C279:F279,'9.2'!K279)</f>
+        <v>11.677890685269004</v>
       </c>
       <c r="D279" s="52">
-        <v>14.652565264117534</v>
+        <f>SUM('9.2'!G279:J279)</f>
+        <v>10.834813750742534</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -50356,10 +50536,12 @@
         <v>55</v>
       </c>
       <c r="C280" s="52">
-        <v>9.4875104882907966</v>
+        <f>SUM('9.2'!C280:F280,'9.2'!K280)</f>
+        <v>12.495060708485068</v>
       </c>
       <c r="D280" s="52">
-        <v>12.627727870381875</v>
+        <f>SUM('9.2'!G280:J280)</f>
+        <v>9.370560830114874</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -50370,10 +50552,12 @@
         <v>46</v>
       </c>
       <c r="C281" s="52">
-        <v>6.726276969437933</v>
+        <f>SUM('9.2'!C281:F281,'9.2'!K281)</f>
+        <v>10.171692529907933</v>
       </c>
       <c r="D281" s="52">
-        <v>10.146650947249615</v>
+        <f>SUM('9.2'!G281:J281)</f>
+        <v>6.4933976867796153</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -50384,10 +50568,12 @@
         <v>47</v>
       </c>
       <c r="C282" s="52">
-        <v>6.3221620009485271</v>
+        <f>SUM('9.2'!C282:F282,'9.2'!K282)</f>
+        <v>10.046596288656529</v>
       </c>
       <c r="D282" s="52">
-        <v>10.409658720242502</v>
+        <f>SUM('9.2'!G282:J282)</f>
+        <v>6.4425342425345029</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -50398,10 +50584,12 @@
         <v>52</v>
       </c>
       <c r="C283" s="52">
-        <v>7.8100563121279354</v>
+        <f>SUM('9.2'!C283:F283,'9.2'!K283)</f>
+        <v>10.741206441012766</v>
       </c>
       <c r="D283" s="52">
-        <v>9.5786941275462762</v>
+        <f>SUM('9.2'!G283:J283)</f>
+        <v>6.4167029393062762</v>
       </c>
     </row>
   </sheetData>
@@ -53766,7 +53954,7 @@
   <dimension ref="A1:K283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -55153,7 +55341,7 @@
         <v>2000</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C40" s="52">
         <v>9.7529129999999995</v>
@@ -61103,7 +61291,7 @@
         <v>2014</v>
       </c>
       <c r="B210" s="55" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C210" s="52">
         <v>7.2474366418298883</v>

--- a/data/electricity_clean.xlsx
+++ b/data/electricity_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robyn/PycharmProjects/cfg-big-data-challenge/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC7A2E0-10D1-3F44-B8D5-D3282C87FA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635DA8AC-EE8F-C640-8D2F-B07510743AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20200" yWindow="460" windowWidth="18200" windowHeight="19540" firstSheet="16" activeTab="22" xr2:uid="{D3D9E6EF-7CDD-2D4C-979A-3E58E75DD25C}"/>
+    <workbookView xWindow="20200" yWindow="460" windowWidth="18200" windowHeight="19540" xr2:uid="{D3D9E6EF-7CDD-2D4C-979A-3E58E75DD25C}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="2" r:id="rId1"/>
@@ -3183,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFC29EB-9B4F-DD45-814A-1F378276BC8C}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -46056,8 +46056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55480FB2-8C6B-5C42-9FA3-459C4F024B62}">
   <dimension ref="A1:D283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -46693,7 +46693,7 @@
         <v>2000</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C40" s="52">
         <f>SUM('9.2'!C40:F40,'9.2'!K40)</f>
@@ -53953,8 +53953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BF825A-D0FA-8F40-AE34-FAE0B0C8E26D}">
   <dimension ref="A1:K283"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="B260" sqref="B260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/electricity_clean.xlsx
+++ b/data/electricity_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robyn/PycharmProjects/cfg-big-data-challenge/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E36EE15-B4A4-554A-8695-6F0349667B3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67E9E57-09C0-C844-A0E0-D297BDC2CB7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20200" yWindow="460" windowWidth="18200" windowHeight="19540" xr2:uid="{D3D9E6EF-7CDD-2D4C-979A-3E58E75DD25C}"/>
+    <workbookView xWindow="20200" yWindow="460" windowWidth="18200" windowHeight="19540" firstSheet="17" activeTab="25" xr2:uid="{D3D9E6EF-7CDD-2D4C-979A-3E58E75DD25C}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,10 @@
     <sheet name="8.2" sheetId="25" r:id="rId23"/>
     <sheet name="9.1" sheetId="26" r:id="rId24"/>
     <sheet name="9.2" sheetId="27" r:id="rId25"/>
+    <sheet name="10" sheetId="29" r:id="rId26"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="409">
   <si>
     <t>coal</t>
   </si>
@@ -309,6 +310,984 @@
   </si>
   <si>
     <t>non-renewable</t>
+  </si>
+  <si>
+    <t>Demand prediction</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>1995-01-01</t>
+  </si>
+  <si>
+    <t>1995-02-01</t>
+  </si>
+  <si>
+    <t>1995-03-01</t>
+  </si>
+  <si>
+    <t>1995-04-01</t>
+  </si>
+  <si>
+    <t>1995-05-01</t>
+  </si>
+  <si>
+    <t>1995-06-01</t>
+  </si>
+  <si>
+    <t>1995-07-01</t>
+  </si>
+  <si>
+    <t>1995-08-01</t>
+  </si>
+  <si>
+    <t>1995-09-01</t>
+  </si>
+  <si>
+    <t>1995-10-01</t>
+  </si>
+  <si>
+    <t>1995-11-01</t>
+  </si>
+  <si>
+    <t>1995-12-01</t>
+  </si>
+  <si>
+    <t>1996-01-01</t>
+  </si>
+  <si>
+    <t>1996-02-01</t>
+  </si>
+  <si>
+    <t>1996-03-01</t>
+  </si>
+  <si>
+    <t>1996-04-01</t>
+  </si>
+  <si>
+    <t>1996-05-01</t>
+  </si>
+  <si>
+    <t>1996-06-01</t>
+  </si>
+  <si>
+    <t>1996-07-01</t>
+  </si>
+  <si>
+    <t>1996-08-01</t>
+  </si>
+  <si>
+    <t>1996-09-01</t>
+  </si>
+  <si>
+    <t>1996-10-01</t>
+  </si>
+  <si>
+    <t>1996-11-01</t>
+  </si>
+  <si>
+    <t>1996-12-01</t>
+  </si>
+  <si>
+    <t>1997-01-01</t>
+  </si>
+  <si>
+    <t>1997-02-01</t>
+  </si>
+  <si>
+    <t>1997-03-01</t>
+  </si>
+  <si>
+    <t>1997-04-01</t>
+  </si>
+  <si>
+    <t>1997-05-01</t>
+  </si>
+  <si>
+    <t>1997-06-01</t>
+  </si>
+  <si>
+    <t>1997-07-01</t>
+  </si>
+  <si>
+    <t>1997-08-01</t>
+  </si>
+  <si>
+    <t>1997-09-01</t>
+  </si>
+  <si>
+    <t>1997-10-01</t>
+  </si>
+  <si>
+    <t>1997-11-01</t>
+  </si>
+  <si>
+    <t>1997-12-01</t>
+  </si>
+  <si>
+    <t>1998-01-01</t>
+  </si>
+  <si>
+    <t>1998-02-01</t>
+  </si>
+  <si>
+    <t>1998-03-01</t>
+  </si>
+  <si>
+    <t>1998-04-01</t>
+  </si>
+  <si>
+    <t>1998-05-01</t>
+  </si>
+  <si>
+    <t>1998-06-01</t>
+  </si>
+  <si>
+    <t>1998-07-01</t>
+  </si>
+  <si>
+    <t>1998-08-01</t>
+  </si>
+  <si>
+    <t>1998-09-01</t>
+  </si>
+  <si>
+    <t>1998-10-01</t>
+  </si>
+  <si>
+    <t>1998-11-01</t>
+  </si>
+  <si>
+    <t>1998-12-01</t>
+  </si>
+  <si>
+    <t>1999-01-01</t>
+  </si>
+  <si>
+    <t>1999-02-01</t>
+  </si>
+  <si>
+    <t>1999-03-01</t>
+  </si>
+  <si>
+    <t>1999-04-01</t>
+  </si>
+  <si>
+    <t>1999-05-01</t>
+  </si>
+  <si>
+    <t>1999-06-01</t>
+  </si>
+  <si>
+    <t>1999-07-01</t>
+  </si>
+  <si>
+    <t>1999-08-01</t>
+  </si>
+  <si>
+    <t>1999-09-01</t>
+  </si>
+  <si>
+    <t>1999-10-01</t>
+  </si>
+  <si>
+    <t>1999-11-01</t>
+  </si>
+  <si>
+    <t>1999-12-01</t>
+  </si>
+  <si>
+    <t>2000-01-01</t>
+  </si>
+  <si>
+    <t>2000-02-01</t>
+  </si>
+  <si>
+    <t>2000-03-01</t>
+  </si>
+  <si>
+    <t>2000-04-01</t>
+  </si>
+  <si>
+    <t>2000-05-01</t>
+  </si>
+  <si>
+    <t>2000-06-01</t>
+  </si>
+  <si>
+    <t>2000-07-01</t>
+  </si>
+  <si>
+    <t>2000-08-01</t>
+  </si>
+  <si>
+    <t>2000-09-01</t>
+  </si>
+  <si>
+    <t>2000-10-01</t>
+  </si>
+  <si>
+    <t>2000-11-01</t>
+  </si>
+  <si>
+    <t>2000-12-01</t>
+  </si>
+  <si>
+    <t>2001-01-01</t>
+  </si>
+  <si>
+    <t>2001-02-01</t>
+  </si>
+  <si>
+    <t>2001-03-01</t>
+  </si>
+  <si>
+    <t>2001-04-01</t>
+  </si>
+  <si>
+    <t>2001-05-01</t>
+  </si>
+  <si>
+    <t>2001-06-01</t>
+  </si>
+  <si>
+    <t>2001-07-01</t>
+  </si>
+  <si>
+    <t>2001-08-01</t>
+  </si>
+  <si>
+    <t>2001-09-01</t>
+  </si>
+  <si>
+    <t>2001-10-01</t>
+  </si>
+  <si>
+    <t>2001-11-01</t>
+  </si>
+  <si>
+    <t>2001-12-01</t>
+  </si>
+  <si>
+    <t>2002-01-01</t>
+  </si>
+  <si>
+    <t>2002-02-01</t>
+  </si>
+  <si>
+    <t>2002-03-01</t>
+  </si>
+  <si>
+    <t>2002-04-01</t>
+  </si>
+  <si>
+    <t>2002-05-01</t>
+  </si>
+  <si>
+    <t>2002-06-01</t>
+  </si>
+  <si>
+    <t>2002-07-01</t>
+  </si>
+  <si>
+    <t>2002-08-01</t>
+  </si>
+  <si>
+    <t>2002-09-01</t>
+  </si>
+  <si>
+    <t>2002-10-01</t>
+  </si>
+  <si>
+    <t>2002-11-01</t>
+  </si>
+  <si>
+    <t>2002-12-01</t>
+  </si>
+  <si>
+    <t>2003-01-01</t>
+  </si>
+  <si>
+    <t>2003-02-01</t>
+  </si>
+  <si>
+    <t>2003-03-01</t>
+  </si>
+  <si>
+    <t>2003-04-01</t>
+  </si>
+  <si>
+    <t>2003-05-01</t>
+  </si>
+  <si>
+    <t>2003-06-01</t>
+  </si>
+  <si>
+    <t>2003-07-01</t>
+  </si>
+  <si>
+    <t>2003-08-01</t>
+  </si>
+  <si>
+    <t>2003-09-01</t>
+  </si>
+  <si>
+    <t>2003-10-01</t>
+  </si>
+  <si>
+    <t>2003-11-01</t>
+  </si>
+  <si>
+    <t>2003-12-01</t>
+  </si>
+  <si>
+    <t>2004-01-01</t>
+  </si>
+  <si>
+    <t>2004-02-01</t>
+  </si>
+  <si>
+    <t>2004-03-01</t>
+  </si>
+  <si>
+    <t>2004-04-01</t>
+  </si>
+  <si>
+    <t>2004-05-01</t>
+  </si>
+  <si>
+    <t>2004-06-01</t>
+  </si>
+  <si>
+    <t>2004-07-01</t>
+  </si>
+  <si>
+    <t>2004-08-01</t>
+  </si>
+  <si>
+    <t>2004-09-01</t>
+  </si>
+  <si>
+    <t>2004-10-01</t>
+  </si>
+  <si>
+    <t>2004-11-01</t>
+  </si>
+  <si>
+    <t>2004-12-01</t>
+  </si>
+  <si>
+    <t>2005-01-01</t>
+  </si>
+  <si>
+    <t>2005-02-01</t>
+  </si>
+  <si>
+    <t>2005-03-01</t>
+  </si>
+  <si>
+    <t>2005-04-01</t>
+  </si>
+  <si>
+    <t>2005-05-01</t>
+  </si>
+  <si>
+    <t>2005-06-01</t>
+  </si>
+  <si>
+    <t>2005-07-01</t>
+  </si>
+  <si>
+    <t>2005-08-01</t>
+  </si>
+  <si>
+    <t>2005-09-01</t>
+  </si>
+  <si>
+    <t>2005-10-01</t>
+  </si>
+  <si>
+    <t>2005-11-01</t>
+  </si>
+  <si>
+    <t>2005-12-01</t>
+  </si>
+  <si>
+    <t>2006-01-01</t>
+  </si>
+  <si>
+    <t>2006-02-01</t>
+  </si>
+  <si>
+    <t>2006-03-01</t>
+  </si>
+  <si>
+    <t>2006-04-01</t>
+  </si>
+  <si>
+    <t>2006-05-01</t>
+  </si>
+  <si>
+    <t>2006-06-01</t>
+  </si>
+  <si>
+    <t>2006-07-01</t>
+  </si>
+  <si>
+    <t>2006-08-01</t>
+  </si>
+  <si>
+    <t>2006-09-01</t>
+  </si>
+  <si>
+    <t>2006-10-01</t>
+  </si>
+  <si>
+    <t>2006-11-01</t>
+  </si>
+  <si>
+    <t>2006-12-01</t>
+  </si>
+  <si>
+    <t>2007-01-01</t>
+  </si>
+  <si>
+    <t>2007-02-01</t>
+  </si>
+  <si>
+    <t>2007-03-01</t>
+  </si>
+  <si>
+    <t>2007-04-01</t>
+  </si>
+  <si>
+    <t>2007-05-01</t>
+  </si>
+  <si>
+    <t>2007-06-01</t>
+  </si>
+  <si>
+    <t>2007-07-01</t>
+  </si>
+  <si>
+    <t>2007-08-01</t>
+  </si>
+  <si>
+    <t>2007-09-01</t>
+  </si>
+  <si>
+    <t>2007-10-01</t>
+  </si>
+  <si>
+    <t>2007-11-01</t>
+  </si>
+  <si>
+    <t>2007-12-01</t>
+  </si>
+  <si>
+    <t>2008-01-01</t>
+  </si>
+  <si>
+    <t>2008-02-01</t>
+  </si>
+  <si>
+    <t>2008-03-01</t>
+  </si>
+  <si>
+    <t>2008-04-01</t>
+  </si>
+  <si>
+    <t>2008-05-01</t>
+  </si>
+  <si>
+    <t>2008-06-01</t>
+  </si>
+  <si>
+    <t>2008-07-01</t>
+  </si>
+  <si>
+    <t>2008-08-01</t>
+  </si>
+  <si>
+    <t>2008-09-01</t>
+  </si>
+  <si>
+    <t>2008-10-01</t>
+  </si>
+  <si>
+    <t>2008-11-01</t>
+  </si>
+  <si>
+    <t>2008-12-01</t>
+  </si>
+  <si>
+    <t>2009-01-01</t>
+  </si>
+  <si>
+    <t>2009-02-01</t>
+  </si>
+  <si>
+    <t>2009-03-01</t>
+  </si>
+  <si>
+    <t>2009-04-01</t>
+  </si>
+  <si>
+    <t>2009-05-01</t>
+  </si>
+  <si>
+    <t>2009-06-01</t>
+  </si>
+  <si>
+    <t>2009-07-01</t>
+  </si>
+  <si>
+    <t>2009-08-01</t>
+  </si>
+  <si>
+    <t>2009-09-01</t>
+  </si>
+  <si>
+    <t>2009-10-01</t>
+  </si>
+  <si>
+    <t>2009-11-01</t>
+  </si>
+  <si>
+    <t>2009-12-01</t>
+  </si>
+  <si>
+    <t>2010-01-01</t>
+  </si>
+  <si>
+    <t>2010-02-01</t>
+  </si>
+  <si>
+    <t>2010-03-01</t>
+  </si>
+  <si>
+    <t>2010-04-01</t>
+  </si>
+  <si>
+    <t>2010-05-01</t>
+  </si>
+  <si>
+    <t>2010-06-01</t>
+  </si>
+  <si>
+    <t>2010-07-01</t>
+  </si>
+  <si>
+    <t>2010-08-01</t>
+  </si>
+  <si>
+    <t>2010-09-01</t>
+  </si>
+  <si>
+    <t>2010-10-01</t>
+  </si>
+  <si>
+    <t>2010-11-01</t>
+  </si>
+  <si>
+    <t>2010-12-01</t>
+  </si>
+  <si>
+    <t>2011-01-01</t>
+  </si>
+  <si>
+    <t>2011-02-01</t>
+  </si>
+  <si>
+    <t>2011-03-01</t>
+  </si>
+  <si>
+    <t>2011-04-01</t>
+  </si>
+  <si>
+    <t>2011-05-01</t>
+  </si>
+  <si>
+    <t>2011-06-01</t>
+  </si>
+  <si>
+    <t>2011-07-01</t>
+  </si>
+  <si>
+    <t>2011-08-01</t>
+  </si>
+  <si>
+    <t>2011-09-01</t>
+  </si>
+  <si>
+    <t>2011-10-01</t>
+  </si>
+  <si>
+    <t>2011-11-01</t>
+  </si>
+  <si>
+    <t>2011-12-01</t>
+  </si>
+  <si>
+    <t>2012-01-01</t>
+  </si>
+  <si>
+    <t>2012-02-01</t>
+  </si>
+  <si>
+    <t>2012-03-01</t>
+  </si>
+  <si>
+    <t>2012-04-01</t>
+  </si>
+  <si>
+    <t>2012-05-01</t>
+  </si>
+  <si>
+    <t>2012-06-01</t>
+  </si>
+  <si>
+    <t>2012-07-01</t>
+  </si>
+  <si>
+    <t>2012-08-01</t>
+  </si>
+  <si>
+    <t>2012-09-01</t>
+  </si>
+  <si>
+    <t>2012-10-01</t>
+  </si>
+  <si>
+    <t>2012-11-01</t>
+  </si>
+  <si>
+    <t>2012-12-01</t>
+  </si>
+  <si>
+    <t>2013-01-01</t>
+  </si>
+  <si>
+    <t>2013-02-01</t>
+  </si>
+  <si>
+    <t>2013-03-01</t>
+  </si>
+  <si>
+    <t>2013-04-01</t>
+  </si>
+  <si>
+    <t>2013-05-01</t>
+  </si>
+  <si>
+    <t>2013-06-01</t>
+  </si>
+  <si>
+    <t>2013-07-01</t>
+  </si>
+  <si>
+    <t>2013-08-01</t>
+  </si>
+  <si>
+    <t>2013-09-01</t>
+  </si>
+  <si>
+    <t>2013-10-01</t>
+  </si>
+  <si>
+    <t>2013-11-01</t>
+  </si>
+  <si>
+    <t>2013-12-01</t>
+  </si>
+  <si>
+    <t>2014-01-01</t>
+  </si>
+  <si>
+    <t>2014-02-01</t>
+  </si>
+  <si>
+    <t>2014-03-01</t>
+  </si>
+  <si>
+    <t>2014-04-01</t>
+  </si>
+  <si>
+    <t>2014-05-01</t>
+  </si>
+  <si>
+    <t>2014-06-01</t>
+  </si>
+  <si>
+    <t>2014-07-01</t>
+  </si>
+  <si>
+    <t>2014-08-01</t>
+  </si>
+  <si>
+    <t>2014-09-01</t>
+  </si>
+  <si>
+    <t>2014-10-01</t>
+  </si>
+  <si>
+    <t>2014-11-01</t>
+  </si>
+  <si>
+    <t>2014-12-01</t>
+  </si>
+  <si>
+    <t>2015-01-01</t>
+  </si>
+  <si>
+    <t>2015-02-01</t>
+  </si>
+  <si>
+    <t>2015-03-01</t>
+  </si>
+  <si>
+    <t>2015-04-01</t>
+  </si>
+  <si>
+    <t>2015-05-01</t>
+  </si>
+  <si>
+    <t>2015-06-01</t>
+  </si>
+  <si>
+    <t>2015-07-01</t>
+  </si>
+  <si>
+    <t>2015-08-01</t>
+  </si>
+  <si>
+    <t>2015-09-01</t>
+  </si>
+  <si>
+    <t>2015-10-01</t>
+  </si>
+  <si>
+    <t>2015-11-01</t>
+  </si>
+  <si>
+    <t>2015-12-01</t>
+  </si>
+  <si>
+    <t>2016-01-01</t>
+  </si>
+  <si>
+    <t>2016-02-01</t>
+  </si>
+  <si>
+    <t>2016-03-01</t>
+  </si>
+  <si>
+    <t>2016-04-01</t>
+  </si>
+  <si>
+    <t>2016-05-01</t>
+  </si>
+  <si>
+    <t>2016-06-01</t>
+  </si>
+  <si>
+    <t>2016-07-01</t>
+  </si>
+  <si>
+    <t>2016-08-01</t>
+  </si>
+  <si>
+    <t>2016-09-01</t>
+  </si>
+  <si>
+    <t>2016-10-01</t>
+  </si>
+  <si>
+    <t>2016-11-01</t>
+  </si>
+  <si>
+    <t>2016-12-01</t>
+  </si>
+  <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>2017-02-01</t>
+  </si>
+  <si>
+    <t>2017-03-01</t>
+  </si>
+  <si>
+    <t>2017-04-01</t>
+  </si>
+  <si>
+    <t>2017-05-01</t>
+  </si>
+  <si>
+    <t>2017-06-01</t>
+  </si>
+  <si>
+    <t>2017-07-01</t>
+  </si>
+  <si>
+    <t>2017-08-01</t>
+  </si>
+  <si>
+    <t>2017-09-01</t>
+  </si>
+  <si>
+    <t>2017-10-01</t>
+  </si>
+  <si>
+    <t>2017-11-01</t>
+  </si>
+  <si>
+    <t>2017-12-01</t>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>2018-02-01</t>
+  </si>
+  <si>
+    <t>2018-03-01</t>
+  </si>
+  <si>
+    <t>2018-04-01</t>
+  </si>
+  <si>
+    <t>2018-05-01</t>
+  </si>
+  <si>
+    <t>2018-06-01</t>
+  </si>
+  <si>
+    <t>2018-07-01</t>
+  </si>
+  <si>
+    <t>2018-08-01</t>
+  </si>
+  <si>
+    <t>2018-09-01</t>
+  </si>
+  <si>
+    <t>2018-10-01</t>
+  </si>
+  <si>
+    <t>2018-11-01</t>
+  </si>
+  <si>
+    <t>2018-12-01</t>
+  </si>
+  <si>
+    <t>2019-01-01</t>
+  </si>
+  <si>
+    <t>2019-02-01</t>
+  </si>
+  <si>
+    <t>2019-03-01</t>
+  </si>
+  <si>
+    <t>2019-04-01</t>
+  </si>
+  <si>
+    <t>2019-05-01</t>
+  </si>
+  <si>
+    <t>2019-06-01</t>
+  </si>
+  <si>
+    <t>2019-07-01</t>
+  </si>
+  <si>
+    <t>2019-08-01</t>
+  </si>
+  <si>
+    <t>2019-09-01</t>
+  </si>
+  <si>
+    <t>2019-10-01</t>
+  </si>
+  <si>
+    <t>2019-11-01</t>
+  </si>
+  <si>
+    <t>2019-12-01</t>
+  </si>
+  <si>
+    <t>2020-01-01</t>
+  </si>
+  <si>
+    <t>2020-02-01</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>2020-05-01</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>2021-05-01</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>2021-07-01</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>forecast</t>
   </si>
 </sst>
 </file>
@@ -3181,10 +4160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFC29EB-9B4F-DD45-814A-1F378276BC8C}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3579,6 +4558,14 @@
       </c>
       <c r="D25">
         <v>5.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -63881,6 +64868,2654 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C65D39-3767-4C41-8077-C6CB8FF88589}">
+  <dimension ref="A1:C324"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2">
+        <v>25.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>25.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4">
+        <v>30.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6">
+        <v>20.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>23.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>19.420000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9">
+        <v>19.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10">
+        <v>24.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11">
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12">
+        <v>23.81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13">
+        <v>31.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14">
+        <v>26.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15">
+        <v>27.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16">
+        <v>31.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>22.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18">
+        <v>21.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19">
+        <v>24.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20">
+        <v>20.260000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21">
+        <v>19.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23">
+        <v>22.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24">
+        <v>25.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25">
+        <v>32.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26">
+        <v>27.62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27">
+        <v>26.56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28">
+        <v>29.77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30">
+        <v>21.59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31">
+        <v>25.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32">
+        <v>20.62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33">
+        <v>20.350000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34">
+        <v>26.23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35">
+        <v>23.73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36">
+        <v>26.14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37">
+        <v>31.44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38">
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40">
+        <v>31.51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41">
+        <v>23.51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43">
+        <v>26.33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44">
+        <v>20.350000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46">
+        <v>26.26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47">
+        <v>24.56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49">
+        <v>30.54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50">
+        <v>27.33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51">
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53">
+        <v>23.42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54">
+        <v>22.01</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55">
+        <v>25.84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56">
+        <v>20.91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57">
+        <v>20.69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58">
+        <v>27.48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59">
+        <v>23.625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60">
+        <v>24.93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61">
+        <v>32.770000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62">
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63">
+        <v>26.249000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64">
+        <v>30.12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65">
+        <v>23.44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66">
+        <v>22.86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67">
+        <v>27.134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69">
+        <v>21.817</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70">
+        <v>28.79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71">
+        <v>25.83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72">
+        <v>27.06</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73">
+        <v>31.76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75">
+        <v>28.52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76">
+        <v>33.380000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77">
+        <v>25.58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79">
+        <v>27.32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80">
+        <v>22.12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81">
+        <v>21.34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82">
+        <v>27.45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83">
+        <v>24.02</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84">
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85">
+        <v>32.04</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86">
+        <v>27.28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87">
+        <v>28.68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88">
+        <v>32.75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89">
+        <v>24.16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>173</v>
+      </c>
+      <c r="B90">
+        <v>23.15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91">
+        <v>27.23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>176</v>
+      </c>
+      <c r="B93">
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94">
+        <v>28.11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>178</v>
+      </c>
+      <c r="B95">
+        <v>24.62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>179</v>
+      </c>
+      <c r="B96">
+        <v>26.46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97">
+        <v>33.78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98">
+        <v>28.45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>182</v>
+      </c>
+      <c r="B99">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>183</v>
+      </c>
+      <c r="B100">
+        <v>32.01</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>184</v>
+      </c>
+      <c r="B101">
+        <v>25.24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>185</v>
+      </c>
+      <c r="B102">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103">
+        <v>27.55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>187</v>
+      </c>
+      <c r="B104">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>188</v>
+      </c>
+      <c r="B105">
+        <v>22.12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>189</v>
+      </c>
+      <c r="B106">
+        <v>28.53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>190</v>
+      </c>
+      <c r="B107">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>191</v>
+      </c>
+      <c r="B108">
+        <v>27.09</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>192</v>
+      </c>
+      <c r="B109">
+        <v>34.18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>193</v>
+      </c>
+      <c r="B110">
+        <v>29.264797361033654</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>194</v>
+      </c>
+      <c r="B111">
+        <v>28.300324110540856</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>195</v>
+      </c>
+      <c r="B112">
+        <v>33.095170582747819</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>196</v>
+      </c>
+      <c r="B113">
+        <v>24.304022221013554</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>197</v>
+      </c>
+      <c r="B114">
+        <v>23.380479597973668</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>198</v>
+      </c>
+      <c r="B115">
+        <v>24.801263865757043</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>199</v>
+      </c>
+      <c r="B116">
+        <v>24.232816712361771</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>200</v>
+      </c>
+      <c r="B117">
+        <v>24.441588371535317</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>201</v>
+      </c>
+      <c r="B118">
+        <v>24.837817248361368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>202</v>
+      </c>
+      <c r="B119">
+        <v>27.397846739673472</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>203</v>
+      </c>
+      <c r="B120">
+        <v>29.061296394171279</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>204</v>
+      </c>
+      <c r="B121">
+        <v>30.597459805730249</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>205</v>
+      </c>
+      <c r="B122">
+        <v>31.016664857981773</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>206</v>
+      </c>
+      <c r="B123">
+        <v>28.679200898008588</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>207</v>
+      </c>
+      <c r="B124">
+        <v>30.291842965931021</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>208</v>
+      </c>
+      <c r="B125">
+        <v>27.612157425066972</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>209</v>
+      </c>
+      <c r="B126">
+        <v>25.789876001975358</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>210</v>
+      </c>
+      <c r="B127">
+        <v>24.728053925071013</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>211</v>
+      </c>
+      <c r="B128">
+        <v>23.757273433254809</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>212</v>
+      </c>
+      <c r="B129">
+        <v>25.086211242676036</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>213</v>
+      </c>
+      <c r="B130">
+        <v>24.786497769006839</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>214</v>
+      </c>
+      <c r="B131">
+        <v>28.770457805004156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>215</v>
+      </c>
+      <c r="B132">
+        <v>29.54220989931456</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>216</v>
+      </c>
+      <c r="B133">
+        <v>31.212409576708861</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>217</v>
+      </c>
+      <c r="B134">
+        <v>31.604737169904386</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>218</v>
+      </c>
+      <c r="B135">
+        <v>29.61162458841045</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>219</v>
+      </c>
+      <c r="B136">
+        <v>31.088191752451515</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>220</v>
+      </c>
+      <c r="B137">
+        <v>26.02500036480086</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>221</v>
+      </c>
+      <c r="B138">
+        <v>25.83108156437504</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>222</v>
+      </c>
+      <c r="B139">
+        <v>24.336826762973185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>223</v>
+      </c>
+      <c r="B140">
+        <v>24.65467869773774</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>224</v>
+      </c>
+      <c r="B141">
+        <v>24.551694994176039</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>225</v>
+      </c>
+      <c r="B142">
+        <v>24.880117369351478</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>226</v>
+      </c>
+      <c r="B143">
+        <v>27.340472374114366</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>227</v>
+      </c>
+      <c r="B144">
+        <v>29.033273200863206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>228</v>
+      </c>
+      <c r="B145">
+        <v>30.27288365510131</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>229</v>
+      </c>
+      <c r="B146">
+        <v>31.28901748108408</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>230</v>
+      </c>
+      <c r="B147">
+        <v>28.313478158491847</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>231</v>
+      </c>
+      <c r="B148">
+        <v>29.357178420701874</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>232</v>
+      </c>
+      <c r="B149">
+        <v>25.856954246446094</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>233</v>
+      </c>
+      <c r="B150">
+        <v>25.465738100053407</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>234</v>
+      </c>
+      <c r="B151">
+        <v>25.015997313443368</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>235</v>
+      </c>
+      <c r="B152">
+        <v>25.165432788585903</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>236</v>
+      </c>
+      <c r="B153">
+        <v>24.523936997239499</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>237</v>
+      </c>
+      <c r="B154">
+        <v>25.331097343243915</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>238</v>
+      </c>
+      <c r="B155">
+        <v>28.478254332632819</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>239</v>
+      </c>
+      <c r="B156">
+        <v>29.823242363521487</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>240</v>
+      </c>
+      <c r="B157">
+        <v>31.624412754679526</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>241</v>
+      </c>
+      <c r="B158">
+        <v>32.027099054383243</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>242</v>
+      </c>
+      <c r="B159">
+        <v>29.677502501923275</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>243</v>
+      </c>
+      <c r="B160">
+        <v>30.079237761190747</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>244</v>
+      </c>
+      <c r="B161">
+        <v>26.389083029072175</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>245</v>
+      </c>
+      <c r="B162">
+        <v>26.389083029072175</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>246</v>
+      </c>
+      <c r="B163">
+        <v>24.945397571308444</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>247</v>
+      </c>
+      <c r="B164">
+        <v>24.23288246494959</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>248</v>
+      </c>
+      <c r="B165">
+        <v>24.889572675546365</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>249</v>
+      </c>
+      <c r="B166">
+        <v>25.663816804262169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>250</v>
+      </c>
+      <c r="B167">
+        <v>28.244286098967301</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>251</v>
+      </c>
+      <c r="B168">
+        <v>28.718420461346568</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>252</v>
+      </c>
+      <c r="B169">
+        <v>30.613727390106277</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>253</v>
+      </c>
+      <c r="B170">
+        <v>31.041136572142545</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>254</v>
+      </c>
+      <c r="B171">
+        <v>27.826562513590869</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>255</v>
+      </c>
+      <c r="B172">
+        <v>28.29968295476576</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>256</v>
+      </c>
+      <c r="B173">
+        <v>23.329480291538591</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>257</v>
+      </c>
+      <c r="B174">
+        <v>24.523819154628573</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>258</v>
+      </c>
+      <c r="B175">
+        <v>24.262417675277149</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>259</v>
+      </c>
+      <c r="B176">
+        <v>24.785093547657524</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>260</v>
+      </c>
+      <c r="B177">
+        <v>24.243994893702588</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>261</v>
+      </c>
+      <c r="B178">
+        <v>21.953923553464186</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>262</v>
+      </c>
+      <c r="B179">
+        <v>25.436355765641217</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>263</v>
+      </c>
+      <c r="B180">
+        <v>28.163623925028318</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>264</v>
+      </c>
+      <c r="B181">
+        <v>29.918166507265312</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>265</v>
+      </c>
+      <c r="B182">
+        <v>31.360128351265878</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>266</v>
+      </c>
+      <c r="B183">
+        <v>26.69875606789525</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>267</v>
+      </c>
+      <c r="B184">
+        <v>30.952870183381318</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>268</v>
+      </c>
+      <c r="B185">
+        <v>24.980227384602177</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>269</v>
+      </c>
+      <c r="B186">
+        <v>23.782061848936909</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>270</v>
+      </c>
+      <c r="B187">
+        <v>24.07671856859772</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>271</v>
+      </c>
+      <c r="B188">
+        <v>24.459516617233668</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>272</v>
+      </c>
+      <c r="B189">
+        <v>23.097542903520001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>273</v>
+      </c>
+      <c r="B190">
+        <v>23.173309204255457</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>274</v>
+      </c>
+      <c r="B191">
+        <v>25.788297165012615</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>275</v>
+      </c>
+      <c r="B192">
+        <v>28.625053188276475</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>276</v>
+      </c>
+      <c r="B193">
+        <v>32.925016371736511</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>277</v>
+      </c>
+      <c r="B194">
+        <v>30.976304332500408</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>278</v>
+      </c>
+      <c r="B195">
+        <v>24.855780440227928</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>279</v>
+      </c>
+      <c r="B196">
+        <v>29.750409934576208</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>280</v>
+      </c>
+      <c r="B197">
+        <v>24.761049161341223</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>281</v>
+      </c>
+      <c r="B198">
+        <v>23.497598778486079</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>282</v>
+      </c>
+      <c r="B199">
+        <v>22.849908240375157</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>283</v>
+      </c>
+      <c r="B200">
+        <v>23.030273636193971</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>284</v>
+      </c>
+      <c r="B201">
+        <v>23.588179611357358</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>285</v>
+      </c>
+      <c r="B202">
+        <v>23.887669336826647</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>286</v>
+      </c>
+      <c r="B203">
+        <v>25.855953702186369</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>287</v>
+      </c>
+      <c r="B204">
+        <v>26.422729344897057</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>288</v>
+      </c>
+      <c r="B205">
+        <v>28.557045196739711</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>289</v>
+      </c>
+      <c r="B206">
+        <v>28.662370798891594</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>290</v>
+      </c>
+      <c r="B207">
+        <v>27.660334875948244</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>291</v>
+      </c>
+      <c r="B208">
+        <v>27.15514066788835</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>292</v>
+      </c>
+      <c r="B209">
+        <v>24.232237214152764</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>293</v>
+      </c>
+      <c r="B210">
+        <v>24.855627023435126</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>294</v>
+      </c>
+      <c r="B211">
+        <v>22.941612942822399</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>295</v>
+      </c>
+      <c r="B212">
+        <v>23.151054711223921</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>296</v>
+      </c>
+      <c r="B213">
+        <v>23.417652782043895</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>297</v>
+      </c>
+      <c r="B214">
+        <v>23.355694675468236</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>298</v>
+      </c>
+      <c r="B215">
+        <v>26.280079620981397</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>299</v>
+      </c>
+      <c r="B216">
+        <v>27.805711318553712</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>300</v>
+      </c>
+      <c r="B217">
+        <v>28.890802283636397</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>301</v>
+      </c>
+      <c r="B218">
+        <v>29.502089287871989</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>302</v>
+      </c>
+      <c r="B219">
+        <v>26.794710652561797</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>303</v>
+      </c>
+      <c r="B220">
+        <v>28.851540890274016</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>304</v>
+      </c>
+      <c r="B221">
+        <v>25.145974057767777</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>305</v>
+      </c>
+      <c r="B222">
+        <v>24.091732481782991</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>306</v>
+      </c>
+      <c r="B223">
+        <v>22.31389466101551</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>307</v>
+      </c>
+      <c r="B224">
+        <v>23.231047008114189</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>308</v>
+      </c>
+      <c r="B225">
+        <v>23.004826283417199</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>309</v>
+      </c>
+      <c r="B226">
+        <v>23.388754597496003</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>310</v>
+      </c>
+      <c r="B227">
+        <v>25.569615621036917</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>311</v>
+      </c>
+      <c r="B228">
+        <v>27.06076902684643</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>312</v>
+      </c>
+      <c r="B229">
+        <v>27.792530313869953</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>313</v>
+      </c>
+      <c r="B230">
+        <v>28.114646654120413</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>314</v>
+      </c>
+      <c r="B231">
+        <v>25.39694839371823</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>315</v>
+      </c>
+      <c r="B232">
+        <v>26.315937441550474</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>316</v>
+      </c>
+      <c r="B233">
+        <v>23.165882220028678</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>317</v>
+      </c>
+      <c r="B234">
+        <v>23.085472629851576</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>318</v>
+      </c>
+      <c r="B235">
+        <v>21.89368018532825</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>319</v>
+      </c>
+      <c r="B236">
+        <v>22.524794744209803</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>320</v>
+      </c>
+      <c r="B237">
+        <v>22.023577803527068</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>321</v>
+      </c>
+      <c r="B238">
+        <v>22.389762906969068</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>322</v>
+      </c>
+      <c r="B239">
+        <v>24.361885869032594</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>323</v>
+      </c>
+      <c r="B240">
+        <v>25.043996596552663</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>324</v>
+      </c>
+      <c r="B241">
+        <v>26.836784989943702</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>325</v>
+      </c>
+      <c r="B242">
+        <v>27.875087303533718</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>326</v>
+      </c>
+      <c r="B243">
+        <v>25.549174004018894</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>327</v>
+      </c>
+      <c r="B244">
+        <v>26.51171839437751</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>328</v>
+      </c>
+      <c r="B245">
+        <v>23.355169746900209</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>329</v>
+      </c>
+      <c r="B246">
+        <v>22.958015462140946</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>330</v>
+      </c>
+      <c r="B247">
+        <v>21.752336395809589</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>331</v>
+      </c>
+      <c r="B248">
+        <v>22.690897261945874</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>332</v>
+      </c>
+      <c r="B249">
+        <v>21.775843004737759</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>333</v>
+      </c>
+      <c r="B250">
+        <v>22.405183332224823</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>334</v>
+      </c>
+      <c r="B251">
+        <v>24.074603679784939</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>335</v>
+      </c>
+      <c r="B252">
+        <v>25.254971932552088</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>336</v>
+      </c>
+      <c r="B253">
+        <v>25.835631095692225</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>337</v>
+      </c>
+      <c r="B254">
+        <v>27.151434792137927</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>338</v>
+      </c>
+      <c r="B255">
+        <v>25.595602419649197</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>339</v>
+      </c>
+      <c r="B256">
+        <v>26.184428232639771</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>340</v>
+      </c>
+      <c r="B257">
+        <v>23.367716672830991</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>341</v>
+      </c>
+      <c r="B258">
+        <v>22.211976609810655</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>342</v>
+      </c>
+      <c r="B259">
+        <v>21.447027810293612</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>343</v>
+      </c>
+      <c r="B260">
+        <v>21.760576984804743</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>344</v>
+      </c>
+      <c r="B261">
+        <v>21.622545755426934</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>345</v>
+      </c>
+      <c r="B262">
+        <v>21.883578988354451</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>346</v>
+      </c>
+      <c r="B263">
+        <v>24.300272312589499</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>347</v>
+      </c>
+      <c r="B264">
+        <v>26.263517746502604</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>348</v>
+      </c>
+      <c r="B265">
+        <v>26.542119544899105</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>349</v>
+      </c>
+      <c r="B266">
+        <v>27.382908980371372</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>350</v>
+      </c>
+      <c r="B267">
+        <v>24.139948554560856</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>351</v>
+      </c>
+      <c r="B268">
+        <v>24.347064333004973</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>352</v>
+      </c>
+      <c r="B269">
+        <v>22.025786123593331</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>353</v>
+      </c>
+      <c r="B270">
+        <v>22.118466072992877</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>354</v>
+      </c>
+      <c r="B271">
+        <v>20.666464468330307</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>355</v>
+      </c>
+      <c r="B272">
+        <v>21.207786538640573</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>356</v>
+      </c>
+      <c r="B273">
+        <v>21.530246309258768</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>357</v>
+      </c>
+      <c r="B274">
+        <v>21.530494847179668</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>358</v>
+      </c>
+      <c r="B275">
+        <v>23.414738107356687</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>359</v>
+      </c>
+      <c r="B276">
+        <v>25.597690898534445</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>360</v>
+      </c>
+      <c r="B277">
+        <v>27.055361512587897</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>361</v>
+      </c>
+      <c r="B278">
+        <v>26.573499822098935</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>362</v>
+      </c>
+      <c r="B279">
+        <v>25.188657797104419</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>363</v>
+      </c>
+      <c r="B280">
+        <v>27.217753339087281</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>364</v>
+      </c>
+      <c r="B281">
+        <v>23.245169038367809</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>365</v>
+      </c>
+      <c r="B282">
+        <v>21.50660437231522</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>366</v>
+      </c>
+      <c r="B283">
+        <v>20.398164104399477</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>367</v>
+      </c>
+      <c r="B284">
+        <v>21.50384038118764</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>368</v>
+      </c>
+      <c r="B285">
+        <v>21.636539816731556</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>369</v>
+      </c>
+      <c r="B286">
+        <v>21.113805111884187</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>370</v>
+      </c>
+      <c r="B287">
+        <v>23.227311850064748</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>371</v>
+      </c>
+      <c r="B288">
+        <v>25.015119136597107</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>372</v>
+      </c>
+      <c r="B289">
+        <v>25.775452182252845</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>373</v>
+      </c>
+      <c r="B290">
+        <v>26.818706716578134</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>374</v>
+      </c>
+      <c r="B291">
+        <v>23.309735421892551</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>375</v>
+      </c>
+      <c r="B292">
+        <v>24.908720874745672</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>376</v>
+      </c>
+      <c r="B293">
+        <v>22.269014243068636</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>377</v>
+      </c>
+      <c r="B294">
+        <v>21.693864477557867</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>378</v>
+      </c>
+      <c r="B295">
+        <v>20.317933239087203</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>379</v>
+      </c>
+      <c r="B296">
+        <v>21.028948261883407</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>380</v>
+      </c>
+      <c r="B297">
+        <v>20.704741194182333</v>
+      </c>
+      <c r="C297">
+        <v>21.070630224644361</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>381</v>
+      </c>
+      <c r="B298">
+        <v>20.772170353435012</v>
+      </c>
+      <c r="C298">
+        <v>20.884732755517433</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>382</v>
+      </c>
+      <c r="B299">
+        <v>23.792427291434844</v>
+      </c>
+      <c r="C299">
+        <v>22.94317659749688</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>383</v>
+      </c>
+      <c r="B300">
+        <v>25.496338812522463</v>
+      </c>
+      <c r="C300">
+        <v>24.819977746356077</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>384</v>
+      </c>
+      <c r="B301">
+        <v>25.714433461081189</v>
+      </c>
+      <c r="C301">
+        <v>25.752715675682605</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>385</v>
+      </c>
+      <c r="B302">
+        <v>25.527159972717183</v>
+      </c>
+      <c r="C302">
+        <v>26.302622034484411</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>386</v>
+      </c>
+      <c r="B303">
+        <v>24.064691556366562</v>
+      </c>
+      <c r="C303">
+        <v>23.612104321642214</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>387</v>
+      </c>
+      <c r="B304">
+        <v>24.026253573755209</v>
+      </c>
+      <c r="C304">
+        <v>25.10753968298307</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>388</v>
+      </c>
+      <c r="B305">
+        <v>19.066128498154324</v>
+      </c>
+      <c r="C305">
+        <v>22.066125854116777</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>389</v>
+      </c>
+      <c r="B306">
+        <v>18.83180203182258</v>
+      </c>
+      <c r="C306">
+        <v>21.19135176907988</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>390</v>
+      </c>
+      <c r="B307">
+        <v>18.775377961986806</v>
+      </c>
+      <c r="C307">
+        <v>19.922244122714957</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>391</v>
+      </c>
+      <c r="C308">
+        <v>20.718705183917873</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>392</v>
+      </c>
+      <c r="C309">
+        <v>20.791084241305679</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>393</v>
+      </c>
+      <c r="C310">
+        <v>20.567496032433485</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>394</v>
+      </c>
+      <c r="C311">
+        <v>22.632487306875419</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>395</v>
+      </c>
+      <c r="C312">
+        <v>24.498920042006592</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>396</v>
+      </c>
+      <c r="C313">
+        <v>25.411553031972918</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>397</v>
+      </c>
+      <c r="C314">
+        <v>26.01899335378021</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>398</v>
+      </c>
+      <c r="C315">
+        <v>23.233028192870741</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>399</v>
+      </c>
+      <c r="C316">
+        <v>24.740539489899547</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>400</v>
+      </c>
+      <c r="C317">
+        <v>21.745972458105513</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>401</v>
+      </c>
+      <c r="C318">
+        <v>20.906140340214396</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>402</v>
+      </c>
+      <c r="C319">
+        <v>19.624575005330282</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>403</v>
+      </c>
+      <c r="C320">
+        <v>20.411071412558346</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>404</v>
+      </c>
+      <c r="C321">
+        <v>20.479870597412628</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>405</v>
+      </c>
+      <c r="C322">
+        <v>20.260677854809224</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>406</v>
+      </c>
+      <c r="C323">
+        <v>22.324905572506701</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>407</v>
+      </c>
+      <c r="C324">
+        <v>24.192547464399198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96B066A-34DA-6041-BB86-B84FFCDE78B2}">
   <dimension ref="A1:J90"/>
